--- a/_data/test_timeline.xlsx
+++ b/_data/test_timeline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
   <si>
     <t>title</t>
   </si>
@@ -265,6 +265,18 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/95k0WhpX4kxufYUod_yiIO4A5x3OVyztwtOA3DPJwTjsk3uEnP9xjwXgYZ6vii9jXS7KCWnH01dH6roiD3RfQPQFGsBeD_bSPOuYvSBKVATN8jp3pCpsznItZHSu60RFsuKv2kNJVUA=w2400</t>
+  </si>
+  <si>
+    <t>Red Rock Canyon!</t>
+  </si>
+  <si>
+    <t>While visiting Jerry we also drove over to Las Vegas, NV and visited the Red Rock Canyon National Conservation Area</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/VyB6GT2lvrnQ2DCoJb4ieAO7TmYbLGOqtulEwSakoGKTKRrNnNt7LjDquwEXVIudvhzVPM6nYsuukenmaWT6SdiDhOi_mkR4vcD6e2ih24ZfpHDEWVd0WS0MT2W31NFR9bJEUnw7_2k=w2400</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/9Bmkbckei5H4aSRe7OGZKdpziaS4UlhcZdts7StG03oI52pCl7jbu_YAS9oglv_BEnd6jpk2Y794g1BlYRbSn-kvfcVt4A0_O3CyrrY1q3P8Iv9eUfdo1-F1us7GFLnxK0dJ7KBEcG0=w2400</t>
   </si>
   <si>
     <t>Get shared photo link</t>
@@ -993,10 +1005,32 @@
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="B29" s="4"/>
+      <c r="A29" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="6">
+        <v>43841.0</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="4"/>
+      <c r="A30" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="6">
+        <v>43841.0</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="B31" s="4"/>
@@ -3917,11 +3951,13 @@
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D27"/>
     <hyperlink r:id="rId2" ref="D28"/>
+    <hyperlink r:id="rId3" ref="D29"/>
+    <hyperlink r:id="rId4" ref="D30"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId3"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -3941,22 +3977,22 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>

--- a/_data/test_timeline.xlsx
+++ b/_data/test_timeline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
   <si>
     <t>title</t>
   </si>
@@ -277,6 +277,15 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/9Bmkbckei5H4aSRe7OGZKdpziaS4UlhcZdts7StG03oI52pCl7jbu_YAS9oglv_BEnd6jpk2Y794g1BlYRbSn-kvfcVt4A0_O3CyrrY1q3P8Iv9eUfdo1-F1us7GFLnxK0dJ7KBEcG0=w2400</t>
+  </si>
+  <si>
+    <t>We got engaged!</t>
+  </si>
+  <si>
+    <t>I proposed to Gia using a cool looking comic book puzzle. Sponsored by Etsy!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/nBUI-zoN7YHfQ18OfLox1rbUJJQCjIqKaaxG32zjtORBuNjo6_Xi1orBJwHSSlvt4W23ZqAZN-sEe9yk1vTnXYXdLDIZcto9ublyNYWSvn4T6BIDVrdccoZlTGTH2aZ1aomHXaQcVrQ=w2400</t>
   </si>
   <si>
     <t>Get shared photo link</t>
@@ -1033,7 +1042,18 @@
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="4"/>
+      <c r="A31" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B31" s="6">
+        <v>44196.0</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="B32" s="4"/>
@@ -3953,11 +3973,12 @@
     <hyperlink r:id="rId2" ref="D28"/>
     <hyperlink r:id="rId3" ref="D29"/>
     <hyperlink r:id="rId4" ref="D30"/>
+    <hyperlink r:id="rId5" ref="D31"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -3977,22 +3998,22 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>

--- a/_data/test_timeline.xlsx
+++ b/_data/test_timeline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>title</t>
   </si>
@@ -286,6 +286,15 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/nBUI-zoN7YHfQ18OfLox1rbUJJQCjIqKaaxG32zjtORBuNjo6_Xi1orBJwHSSlvt4W23ZqAZN-sEe9yk1vTnXYXdLDIZcto9ublyNYWSvn4T6BIDVrdccoZlTGTH2aZ1aomHXaQcVrQ=w2400</t>
+  </si>
+  <si>
+    <t>The Engagement Puzzle!</t>
+  </si>
+  <si>
+    <t>This engagement was brought to you by Etsy!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/bOQ9EoOHZsx_J6eEzEc2-OVUUZIJfy20xWa0doHfJhkp8Fddkynd9CH5GySCsBY9_mPlxVq8YsugS5YzDVyW6is7AZyGM23UU9bRlF1CV_x8MrT-TyLVdJ9oR_DQd1lNaB-KbiZdk0U=w2400</t>
   </si>
   <si>
     <t>Get shared photo link</t>
@@ -1056,7 +1065,18 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="4"/>
+      <c r="A32" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="6">
+        <v>44196.0</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="B33" s="4"/>
@@ -3965,7 +3985,7 @@
   </sheetData>
   <autoFilter ref="$A$1:$D$1">
     <sortState ref="A1:D1">
-      <sortCondition descending="1" ref="B1"/>
+      <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -3974,11 +3994,12 @@
     <hyperlink r:id="rId3" ref="D29"/>
     <hyperlink r:id="rId4" ref="D30"/>
     <hyperlink r:id="rId5" ref="D31"/>
+    <hyperlink r:id="rId6" ref="D32"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId6"/>
+  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -3998,22 +4019,22 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>

--- a/_data/test_timeline.xlsx
+++ b/_data/test_timeline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
   <si>
     <t>title</t>
   </si>
@@ -295,6 +295,24 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/bOQ9EoOHZsx_J6eEzEc2-OVUUZIJfy20xWa0doHfJhkp8Fddkynd9CH5GySCsBY9_mPlxVq8YsugS5YzDVyW6is7AZyGM23UU9bRlF1CV_x8MrT-TyLVdJ9oR_DQd1lNaB-KbiZdk0U=w2400</t>
+  </si>
+  <si>
+    <t>Gia Falls in a Ditch</t>
+  </si>
+  <si>
+    <t>It wasn't her highest moment...</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/LMuNA6wH-EUMNHY2gbHCAQJLs0xYaDr6T_tsUXL85IkCB9n8c96NklV0lFw621JAhmIBee7rl5qW8RqM0znSaLSB8SmaeVByHWMv6nXimzETT54TTPwhi40M1W9YSQQRLpyW0CExUTQ=w2400</t>
+  </si>
+  <si>
+    <t>Zion's First Time Skiing</t>
+  </si>
+  <si>
+    <t>It was more painful than it looks...</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/fR_-HRxfj-a1DYy8sN5y8r1lN03BNVwYdxQTwhUG7G4Fcc-sTeGfmRhMCw0GG3q8YyPMYwrGpWfzcKOcnrfe05l6zdWo1h6SdOw8-GM_DchokcogcKlLNMsjgtpnqTjpjwlSYyxXGFo=w2400</t>
   </si>
   <si>
     <t>Get shared photo link</t>
@@ -1079,10 +1097,32 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="4"/>
+      <c r="A33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="6">
+        <v>44192.0</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="4"/>
+      <c r="A34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="6">
+        <v>44192.0</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="B35" s="4"/>
@@ -3995,11 +4035,13 @@
     <hyperlink r:id="rId4" ref="D30"/>
     <hyperlink r:id="rId5" ref="D31"/>
     <hyperlink r:id="rId6" ref="D32"/>
+    <hyperlink r:id="rId7" ref="D33"/>
+    <hyperlink r:id="rId8" ref="D34"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId7"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>
 
@@ -4019,22 +4061,22 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>

--- a/_data/test_timeline.xlsx
+++ b/_data/test_timeline.xlsx
@@ -7,19 +7,19 @@
     <sheet state="visible" name="instructions" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">timeline!$A$1:$D$1</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">timeline!$A$1:$D$35</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7micVFGARaEj27MceAZeivVpesiTPQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjp/nB6fFaIeAsQMnPT38pD47xMqA=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
   <si>
     <t>title</t>
   </si>
@@ -249,6 +249,36 @@
     <t>https://lh3.googleusercontent.com/vfkLTwaR-cWaGbcs37gEU58kzvTEmNMsHIVHMDuIzu7JAwmuz8RUm5to6TZtiBR8eRl86ncdlExliUyMCcS9iXf9meQGfEQkdL7hYQi0MTBamZnm2YNR1O20UQOBExZ3sE28YsC8tbY=w2400</t>
   </si>
   <si>
+    <t>Matcha Comes Home</t>
+  </si>
+  <si>
+    <t>This is the day we first picked Matcha up. Definitely a day to remember.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/rUkh9QobhUqr8wMIyP5p2Hs0W_um6EcbiqH4RsFuqqOQDTyrMcAHAFNSe2ReDyCFio_UuAXEExjTGuCB4mmdTM1aDrw0ie82BbdxgohVJLJ67UGT6QeaA8IH9N0MzLuVW9H8VdAD3UI=w2400</t>
+  </si>
+  <si>
+    <t>Hoover Dam!</t>
+  </si>
+  <si>
+    <t>While visiting our friend Jerry Romero in California, we visit the Hoover Dam and took some stunning images.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/95k0WhpX4kxufYUod_yiIO4A5x3OVyztwtOA3DPJwTjsk3uEnP9xjwXgYZ6vii9jXS7KCWnH01dH6roiD3RfQPQFGsBeD_bSPOuYvSBKVATN8jp3pCpsznItZHSu60RFsuKv2kNJVUA=w2400</t>
+  </si>
+  <si>
+    <t>Red Rock Canyon!</t>
+  </si>
+  <si>
+    <t>While visiting Jerry we also drove over to Las Vegas, NV and visited the Red Rock Canyon National Conservation Area</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/VyB6GT2lvrnQ2DCoJb4ieAO7TmYbLGOqtulEwSakoGKTKRrNnNt7LjDquwEXVIudvhzVPM6nYsuukenmaWT6SdiDhOi_mkR4vcD6e2ih24ZfpHDEWVd0WS0MT2W31NFR9bJEUnw7_2k=w2400</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/9Bmkbckei5H4aSRe7OGZKdpziaS4UlhcZdts7StG03oI52pCl7jbu_YAS9oglv_BEnd6jpk2Y794g1BlYRbSn-kvfcVt4A0_O3CyrrY1q3P8Iv9eUfdo1-F1us7GFLnxK0dJ7KBEcG0=w2400</t>
+  </si>
+  <si>
     <t>Big Bear Lake!</t>
   </si>
   <si>
@@ -256,27 +286,6 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/OyC92bak7uCupaicl0_AqN5mzvVd1R18FGXc48q45GuQw1YKVNoMIeWjk4DdA9x3R3_lAJOLN7RmULf7uAT1EScDrNqE8CWtipwmG9o-RGn7WY-oS3HxH1e1sAQpBabUCvoqsuKrR_U=w2400</t>
-  </si>
-  <si>
-    <t>Hoover Dam!</t>
-  </si>
-  <si>
-    <t>While visiting our friend Jerry Romero in California, we visit the Hoover Dam and took some stunning images.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/95k0WhpX4kxufYUod_yiIO4A5x3OVyztwtOA3DPJwTjsk3uEnP9xjwXgYZ6vii9jXS7KCWnH01dH6roiD3RfQPQFGsBeD_bSPOuYvSBKVATN8jp3pCpsznItZHSu60RFsuKv2kNJVUA=w2400</t>
-  </si>
-  <si>
-    <t>Red Rock Canyon!</t>
-  </si>
-  <si>
-    <t>While visiting Jerry we also drove over to Las Vegas, NV and visited the Red Rock Canyon National Conservation Area</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/VyB6GT2lvrnQ2DCoJb4ieAO7TmYbLGOqtulEwSakoGKTKRrNnNt7LjDquwEXVIudvhzVPM6nYsuukenmaWT6SdiDhOi_mkR4vcD6e2ih24ZfpHDEWVd0WS0MT2W31NFR9bJEUnw7_2k=w2400</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/9Bmkbckei5H4aSRe7OGZKdpziaS4UlhcZdts7StG03oI52pCl7jbu_YAS9oglv_BEnd6jpk2Y794g1BlYRbSn-kvfcVt4A0_O3CyrrY1q3P8Iv9eUfdo1-F1us7GFLnxK0dJ7KBEcG0=w2400</t>
   </si>
   <si>
     <t>We got engaged!</t>
@@ -368,14 +377,14 @@
       <sz val="12.0"/>
       <color theme="1"/>
     </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
     <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -1017,12 +1026,12 @@
         <v>76</v>
       </c>
       <c r="B27" s="6">
-        <v>43840.0</v>
-      </c>
-      <c r="C27" s="7" t="s">
+        <v>43903.0</v>
+      </c>
+      <c r="C27" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D27" s="8" t="s">
+      <c r="D27" s="7" t="s">
         <v>78</v>
       </c>
     </row>
@@ -1036,7 +1045,7 @@
       <c r="C28" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="7" t="s">
         <v>81</v>
       </c>
     </row>
@@ -1050,7 +1059,7 @@
       <c r="C29" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="7" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1064,7 +1073,7 @@
       <c r="C30" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="7" t="s">
         <v>85</v>
       </c>
     </row>
@@ -1073,9 +1082,9 @@
         <v>86</v>
       </c>
       <c r="B31" s="6">
-        <v>44196.0</v>
-      </c>
-      <c r="C31" s="5" t="s">
+        <v>43840.0</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>87</v>
       </c>
       <c r="D31" s="9" t="s">
@@ -1083,30 +1092,30 @@
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B32" s="6">
-        <v>44196.0</v>
+        <v>43830.0</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="7" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B33" s="6">
-        <v>44192.0</v>
-      </c>
-      <c r="C33" s="7" t="s">
+        <v>43830.0</v>
+      </c>
+      <c r="C33" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="7" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1115,17 +1124,28 @@
         <v>95</v>
       </c>
       <c r="B34" s="6">
-        <v>44192.0</v>
-      </c>
-      <c r="C34" s="5" t="s">
+        <v>43826.0</v>
+      </c>
+      <c r="C34" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="7" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="4"/>
+      <c r="A35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B35" s="6">
+        <v>43826.0</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="B36" s="4"/>
@@ -4023,9 +4043,9 @@
       <c r="B1000" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$1">
-    <sortState ref="A1:D1">
-      <sortCondition ref="B1"/>
+  <autoFilter ref="$A$1:$D$35">
+    <sortState ref="A1:D35">
+      <sortCondition descending="1" ref="B1:B35"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -4037,11 +4057,12 @@
     <hyperlink r:id="rId6" ref="D32"/>
     <hyperlink r:id="rId7" ref="D33"/>
     <hyperlink r:id="rId8" ref="D34"/>
+    <hyperlink r:id="rId9" ref="D35"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId9"/>
+  <drawing r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -4061,22 +4082,22 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>

--- a/_data/test_timeline.xlsx
+++ b/_data/test_timeline.xlsx
@@ -7,7 +7,7 @@
     <sheet state="visible" name="instructions" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">timeline!$A$1:$D$35</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">timeline!$A$1:$D$36</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="108">
   <si>
     <t>title</t>
   </si>
@@ -322,6 +322,15 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/fR_-HRxfj-a1DYy8sN5y8r1lN03BNVwYdxQTwhUG7G4Fcc-sTeGfmRhMCw0GG3q8YyPMYwrGpWfzcKOcnrfe05l6zdWo1h6SdOw8-GM_DchokcogcKlLNMsjgtpnqTjpjwlSYyxXGFo=w2400</t>
+  </si>
+  <si>
+    <t>Visiting Toledo!</t>
+  </si>
+  <si>
+    <t>We visited my step mom's family in Toledo, Ohio!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/lW85jR7VmVJ3yseAaI_5Km0vVdyoWw4AUCCPfThnH4bt5YcY5Cwh4VM1bsHYp4V5aU90qwzHJLz_BtucGCxeONmZxqflHDBO5vORGjoLO0dIqebhC4Y70gC5TeF6wZdeB0hnRe7m_lk=w2400</t>
   </si>
   <si>
     <t>Get shared photo link</t>
@@ -374,18 +383,18 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-    </font>
-    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF1155CC"/>
     </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+    </font>
+    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -405,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -416,13 +425,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1084,10 +1096,10 @@
       <c r="B31" s="6">
         <v>43840.0</v>
       </c>
-      <c r="C31" s="8" t="s">
+      <c r="C31" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>88</v>
       </c>
     </row>
@@ -1106,7 +1118,7 @@
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B33" s="6">
@@ -1126,7 +1138,7 @@
       <c r="B34" s="6">
         <v>43826.0</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -1148,7 +1160,18 @@
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="4"/>
+      <c r="A36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="9">
+        <v>43665.0</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="B37" s="4"/>
@@ -4043,9 +4066,9 @@
       <c r="B1000" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$35">
-    <sortState ref="A1:D35">
-      <sortCondition descending="1" ref="B1:B35"/>
+  <autoFilter ref="$A$1:$D$36">
+    <sortState ref="A1:D36">
+      <sortCondition descending="1" ref="B1:B36"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
@@ -4058,11 +4081,12 @@
     <hyperlink r:id="rId7" ref="D33"/>
     <hyperlink r:id="rId8" ref="D34"/>
     <hyperlink r:id="rId9" ref="D35"/>
+    <hyperlink r:id="rId10" ref="D36"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId10"/>
+  <drawing r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -4082,22 +4106,22 @@
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="10" t="s">
-        <v>102</v>
+      <c r="A3" s="11" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="5" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>

--- a/_data/test_timeline.xlsx
+++ b/_data/test_timeline.xlsx
@@ -7,7 +7,7 @@
     <sheet state="visible" name="instructions" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">timeline!$A$1:$D$36</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">timeline!$A$1:$D$41</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>title</t>
   </si>
@@ -31,6 +31,33 @@
   </si>
   <si>
     <t>image_link</t>
+  </si>
+  <si>
+    <t>Heritage Community Park and Natural Area</t>
+  </si>
+  <si>
+    <t>Gia and I checked out Heritage Park in Blacksburg. Gia also scored me a stylish Virginia Tech jacket!</t>
+  </si>
+  <si>
+    <t>New Years Day!</t>
+  </si>
+  <si>
+    <t>It rained. We stayed inside.</t>
+  </si>
+  <si>
+    <t>New Years Eve!</t>
+  </si>
+  <si>
+    <t>Gia and I went to checkout Blacksburg Municipal Park with the girls, before coming home and enjoying some fried rice from Spicty and watching Tenet. We (kinda) celebrate the countdown on the Watercooler discord server.</t>
+  </si>
+  <si>
+    <t>Happy Birthday Matcha!</t>
+  </si>
+  <si>
+    <t>Matcha got her own carrot, honey and peanutbutter cake. (Mango snuck some bites in too)</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/T4zyrny50iXRZOqAUcxZZ60-fKtXGZWipf2wmksX0UxT2w16AqIdHRWqfFKG8YlJ-XVxKwnRajhrmgcvWGq_chqz8RMgqmG7r_kWDu1MRZAPGQ2XcMDEMD7HbzKNf3uzjOAhsaY9G7o=w2400</t>
   </si>
   <si>
     <t>Christmas Girls!</t>
@@ -358,8 +385,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy"/>
+    <numFmt numFmtId="165" formatCode="mmmm d, yyyy"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -374,8 +402,17 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font/>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -384,17 +421,8 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
-    </font>
-    <font>
-      <u/>
       <color rgb="FF1155CC"/>
     </font>
-    <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-    </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -414,26 +442,29 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -684,3409 +715,3447 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
+      <c r="B2" s="3">
+        <v>44199.0</v>
+      </c>
+    </row>
+    <row r="3" ht="15.75" customHeight="1">
+      <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B3" s="3">
+        <v>44198.0</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>44197.0</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="6">
+        <v>44196.0</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3">
+        <v>44193.0</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="9">
         <v>44180.0</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="4">
+      <c r="C7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="9">
         <v>44180.0</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="C8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="9">
         <v>44179.0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="4">
+      <c r="C9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="9">
         <v>44178.0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="C10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="9">
         <v>44168.0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="4">
+      <c r="C11" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="9">
         <v>44161.0</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="4">
+      <c r="C12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="9">
         <v>44154.0</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="C13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="9">
         <v>44148.0</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="4">
+      <c r="C14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="9">
         <v>44148.0</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="4">
+      <c r="C15" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="9">
         <v>44134.0</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="4">
+      <c r="C16" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="9">
         <v>44120.0</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="4">
+      <c r="C17" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="9">
         <v>44101.0</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="4">
+      <c r="C18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="9">
         <v>44099.0</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="C19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="9">
         <v>44087.0</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="C20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="9">
         <v>44079.0</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="4">
+      <c r="C21" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="9">
         <v>44073.0</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="4">
+      <c r="C22" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="9">
         <v>44069.0</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" s="4">
+      <c r="C23" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B24" s="9">
         <v>44057.0</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B20" s="4">
+      <c r="C24" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="9">
         <v>44035.0</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B21" s="4">
+      <c r="C25" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="9">
         <v>44011.0</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="4">
+      <c r="C26" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="9">
         <v>44010.0</v>
       </c>
-      <c r="C22" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="B23" s="4">
+      <c r="C27" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="9">
         <v>44009.0</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="4">
+      <c r="C28" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B29" s="9">
         <v>44009.0</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="4">
+      <c r="C29" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" s="9">
         <v>44009.0</v>
       </c>
-      <c r="C25" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B26" s="4">
+      <c r="C30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="9">
         <v>43982.0</v>
       </c>
-      <c r="C26" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="C31" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" s="10">
         <v>43903.0</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B28" s="6">
+      <c r="C32" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="10">
         <v>43841.0</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="C33" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="10">
         <v>43841.0</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="B30" s="6">
+      <c r="C34" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" s="10">
         <v>43841.0</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B31" s="6">
+      <c r="C35" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="10">
         <v>43840.0</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="C36" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B37" s="10">
         <v>43830.0</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="6">
+      <c r="C37" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" s="10">
         <v>43830.0</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B34" s="6">
+      <c r="C38" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B39" s="10">
         <v>43826.0</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B35" s="6">
+      <c r="C39" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B40" s="10">
         <v>43826.0</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B36" s="9">
+      <c r="C40" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B41" s="3">
         <v>43665.0</v>
       </c>
-      <c r="C36" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="4"/>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="4"/>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="4"/>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="4"/>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="B41" s="4"/>
+      <c r="C41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="4"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="4"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="4"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="4"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="4"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="4"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="4"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="4"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="4"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="4"/>
+      <c r="B51" s="9"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="4"/>
+      <c r="B52" s="9"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="4"/>
+      <c r="B53" s="9"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="4"/>
+      <c r="B54" s="9"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="4"/>
+      <c r="B55" s="9"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="4"/>
+      <c r="B56" s="9"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="4"/>
+      <c r="B57" s="9"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="4"/>
+      <c r="B58" s="9"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="4"/>
+      <c r="B59" s="9"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="4"/>
+      <c r="B60" s="9"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="4"/>
+      <c r="B61" s="9"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="4"/>
+      <c r="B62" s="9"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="4"/>
+      <c r="B63" s="9"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="4"/>
+      <c r="B64" s="9"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="4"/>
+      <c r="B65" s="9"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="4"/>
+      <c r="B66" s="9"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="4"/>
+      <c r="B67" s="9"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="4"/>
+      <c r="B68" s="9"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="4"/>
+      <c r="B69" s="9"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="4"/>
+      <c r="B70" s="9"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="4"/>
+      <c r="B71" s="9"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="4"/>
+      <c r="B72" s="9"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="4"/>
+      <c r="B73" s="9"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="4"/>
+      <c r="B74" s="9"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="4"/>
+      <c r="B75" s="9"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="4"/>
+      <c r="B76" s="9"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="4"/>
+      <c r="B77" s="9"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="4"/>
+      <c r="B78" s="9"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="4"/>
+      <c r="B79" s="9"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="4"/>
+      <c r="B80" s="9"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="4"/>
+      <c r="B81" s="9"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="4"/>
+      <c r="B82" s="9"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="4"/>
+      <c r="B83" s="9"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="4"/>
+      <c r="B84" s="9"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="4"/>
+      <c r="B85" s="9"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="4"/>
+      <c r="B86" s="9"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="4"/>
+      <c r="B87" s="9"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="4"/>
+      <c r="B88" s="9"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="4"/>
+      <c r="B89" s="9"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="4"/>
+      <c r="B90" s="9"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="4"/>
+      <c r="B91" s="9"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="4"/>
+      <c r="B92" s="9"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="4"/>
+      <c r="B93" s="9"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="4"/>
+      <c r="B94" s="9"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="4"/>
+      <c r="B95" s="9"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="4"/>
+      <c r="B96" s="9"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="4"/>
+      <c r="B97" s="9"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="4"/>
+      <c r="B98" s="9"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="4"/>
+      <c r="B99" s="9"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="4"/>
+      <c r="B100" s="9"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="4"/>
+      <c r="B101" s="9"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="4"/>
+      <c r="B102" s="9"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="4"/>
+      <c r="B103" s="9"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="4"/>
+      <c r="B104" s="9"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="4"/>
+      <c r="B105" s="9"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="4"/>
+      <c r="B106" s="9"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="4"/>
+      <c r="B107" s="9"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="4"/>
+      <c r="B108" s="9"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="4"/>
+      <c r="B109" s="9"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="4"/>
+      <c r="B110" s="9"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="4"/>
+      <c r="B111" s="9"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="4"/>
+      <c r="B112" s="9"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="4"/>
+      <c r="B113" s="9"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="4"/>
+      <c r="B114" s="9"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="4"/>
+      <c r="B115" s="9"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="4"/>
+      <c r="B116" s="9"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="4"/>
+      <c r="B117" s="9"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="4"/>
+      <c r="B118" s="9"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="4"/>
+      <c r="B119" s="9"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="4"/>
+      <c r="B120" s="9"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="4"/>
+      <c r="B121" s="9"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="4"/>
+      <c r="B122" s="9"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="4"/>
+      <c r="B123" s="9"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="4"/>
+      <c r="B124" s="9"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="4"/>
+      <c r="B125" s="9"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="4"/>
+      <c r="B126" s="9"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="4"/>
+      <c r="B127" s="9"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="4"/>
+      <c r="B128" s="9"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="4"/>
+      <c r="B129" s="9"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="4"/>
+      <c r="B130" s="9"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="4"/>
+      <c r="B131" s="9"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="4"/>
+      <c r="B132" s="9"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="4"/>
+      <c r="B133" s="9"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="4"/>
+      <c r="B134" s="9"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="4"/>
+      <c r="B135" s="9"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="4"/>
+      <c r="B136" s="9"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="4"/>
+      <c r="B137" s="9"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="4"/>
+      <c r="B138" s="9"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="4"/>
+      <c r="B139" s="9"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="4"/>
+      <c r="B140" s="9"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="4"/>
+      <c r="B141" s="9"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="4"/>
+      <c r="B142" s="9"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="4"/>
+      <c r="B143" s="9"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="4"/>
+      <c r="B144" s="9"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="4"/>
+      <c r="B145" s="9"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="4"/>
+      <c r="B146" s="9"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="4"/>
+      <c r="B147" s="9"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="4"/>
+      <c r="B148" s="9"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="4"/>
+      <c r="B149" s="9"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="4"/>
+      <c r="B150" s="9"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="4"/>
+      <c r="B151" s="9"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="4"/>
+      <c r="B152" s="9"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="4"/>
+      <c r="B153" s="9"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="4"/>
+      <c r="B154" s="9"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="4"/>
+      <c r="B155" s="9"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="4"/>
+      <c r="B156" s="9"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="4"/>
+      <c r="B157" s="9"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="4"/>
+      <c r="B158" s="9"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="4"/>
+      <c r="B159" s="9"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="4"/>
+      <c r="B160" s="9"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="4"/>
+      <c r="B161" s="9"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="4"/>
+      <c r="B162" s="9"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="4"/>
+      <c r="B163" s="9"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="4"/>
+      <c r="B164" s="9"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="4"/>
+      <c r="B165" s="9"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="4"/>
+      <c r="B166" s="9"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="4"/>
+      <c r="B167" s="9"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="4"/>
+      <c r="B168" s="9"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="4"/>
+      <c r="B169" s="9"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="4"/>
+      <c r="B170" s="9"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="4"/>
+      <c r="B171" s="9"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="4"/>
+      <c r="B172" s="9"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="4"/>
+      <c r="B173" s="9"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="4"/>
+      <c r="B174" s="9"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="4"/>
+      <c r="B175" s="9"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="4"/>
+      <c r="B176" s="9"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="4"/>
+      <c r="B177" s="9"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="4"/>
+      <c r="B178" s="9"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="4"/>
+      <c r="B179" s="9"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="4"/>
+      <c r="B180" s="9"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="4"/>
+      <c r="B181" s="9"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="4"/>
+      <c r="B182" s="9"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="4"/>
+      <c r="B183" s="9"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="4"/>
+      <c r="B184" s="9"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="4"/>
+      <c r="B185" s="9"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="4"/>
+      <c r="B186" s="9"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="4"/>
+      <c r="B187" s="9"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="4"/>
+      <c r="B188" s="9"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="4"/>
+      <c r="B189" s="9"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="4"/>
+      <c r="B190" s="9"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="4"/>
+      <c r="B191" s="9"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="4"/>
+      <c r="B192" s="9"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="4"/>
+      <c r="B193" s="9"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="4"/>
+      <c r="B194" s="9"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="4"/>
+      <c r="B195" s="9"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="4"/>
+      <c r="B196" s="9"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="4"/>
+      <c r="B197" s="9"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="4"/>
+      <c r="B198" s="9"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="4"/>
+      <c r="B199" s="9"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="4"/>
+      <c r="B200" s="9"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="4"/>
+      <c r="B201" s="9"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="4"/>
+      <c r="B202" s="9"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="4"/>
+      <c r="B203" s="9"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="4"/>
+      <c r="B204" s="9"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="4"/>
+      <c r="B205" s="9"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="4"/>
+      <c r="B206" s="9"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="4"/>
+      <c r="B207" s="9"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="4"/>
+      <c r="B208" s="9"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="4"/>
+      <c r="B209" s="9"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="4"/>
+      <c r="B210" s="9"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="4"/>
+      <c r="B211" s="9"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="4"/>
+      <c r="B212" s="9"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="4"/>
+      <c r="B213" s="9"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="4"/>
+      <c r="B214" s="9"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="4"/>
+      <c r="B215" s="9"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="4"/>
+      <c r="B216" s="9"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="4"/>
+      <c r="B217" s="9"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="4"/>
+      <c r="B218" s="9"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="4"/>
+      <c r="B219" s="9"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="4"/>
+      <c r="B220" s="9"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="B221" s="4"/>
+      <c r="B221" s="9"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="B222" s="4"/>
+      <c r="B222" s="9"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="B223" s="4"/>
+      <c r="B223" s="9"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="B224" s="4"/>
+      <c r="B224" s="9"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="B225" s="4"/>
+      <c r="B225" s="9"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="B226" s="4"/>
+      <c r="B226" s="9"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="B227" s="4"/>
+      <c r="B227" s="9"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="B228" s="4"/>
+      <c r="B228" s="9"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="B229" s="4"/>
+      <c r="B229" s="9"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="B230" s="4"/>
+      <c r="B230" s="9"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="B231" s="4"/>
+      <c r="B231" s="9"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="B232" s="4"/>
+      <c r="B232" s="9"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="B233" s="4"/>
+      <c r="B233" s="9"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="B234" s="4"/>
+      <c r="B234" s="9"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="B235" s="4"/>
+      <c r="B235" s="9"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="B236" s="4"/>
+      <c r="B236" s="9"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="B237" s="4"/>
+      <c r="B237" s="9"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="B238" s="4"/>
+      <c r="B238" s="9"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="B239" s="4"/>
+      <c r="B239" s="9"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="B240" s="4"/>
+      <c r="B240" s="9"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="B241" s="4"/>
+      <c r="B241" s="9"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="B242" s="4"/>
+      <c r="B242" s="9"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="B243" s="4"/>
+      <c r="B243" s="9"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="B244" s="4"/>
+      <c r="B244" s="9"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="B245" s="4"/>
+      <c r="B245" s="9"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="B246" s="4"/>
+      <c r="B246" s="9"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="B247" s="4"/>
+      <c r="B247" s="9"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="B248" s="4"/>
+      <c r="B248" s="9"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="B249" s="4"/>
+      <c r="B249" s="9"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="B250" s="4"/>
+      <c r="B250" s="9"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="B251" s="4"/>
+      <c r="B251" s="9"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="B252" s="4"/>
+      <c r="B252" s="9"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="B253" s="4"/>
+      <c r="B253" s="9"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="B254" s="4"/>
+      <c r="B254" s="9"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="B255" s="4"/>
+      <c r="B255" s="9"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="B256" s="4"/>
+      <c r="B256" s="9"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="B257" s="4"/>
+      <c r="B257" s="9"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="B258" s="4"/>
+      <c r="B258" s="9"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="B259" s="4"/>
+      <c r="B259" s="9"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="B260" s="4"/>
+      <c r="B260" s="9"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="B261" s="4"/>
+      <c r="B261" s="9"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="B262" s="4"/>
+      <c r="B262" s="9"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="B263" s="4"/>
+      <c r="B263" s="9"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="B264" s="4"/>
+      <c r="B264" s="9"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="B265" s="4"/>
+      <c r="B265" s="9"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="B266" s="4"/>
+      <c r="B266" s="9"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="B267" s="4"/>
+      <c r="B267" s="9"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="B268" s="4"/>
+      <c r="B268" s="9"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="B269" s="4"/>
+      <c r="B269" s="9"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="B270" s="4"/>
+      <c r="B270" s="9"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="B271" s="4"/>
+      <c r="B271" s="9"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="B272" s="4"/>
+      <c r="B272" s="9"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="B273" s="4"/>
+      <c r="B273" s="9"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="B274" s="4"/>
+      <c r="B274" s="9"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="B275" s="4"/>
+      <c r="B275" s="9"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="B276" s="4"/>
+      <c r="B276" s="9"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="B277" s="4"/>
+      <c r="B277" s="9"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="B278" s="4"/>
+      <c r="B278" s="9"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="B279" s="4"/>
+      <c r="B279" s="9"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="B280" s="4"/>
+      <c r="B280" s="9"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="B281" s="4"/>
+      <c r="B281" s="9"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="B282" s="4"/>
+      <c r="B282" s="9"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="B283" s="4"/>
+      <c r="B283" s="9"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="B284" s="4"/>
+      <c r="B284" s="9"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="B285" s="4"/>
+      <c r="B285" s="9"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="B286" s="4"/>
+      <c r="B286" s="9"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="B287" s="4"/>
+      <c r="B287" s="9"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="B288" s="4"/>
+      <c r="B288" s="9"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="B289" s="4"/>
+      <c r="B289" s="9"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="B290" s="4"/>
+      <c r="B290" s="9"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="B291" s="4"/>
+      <c r="B291" s="9"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="B292" s="4"/>
+      <c r="B292" s="9"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="B293" s="4"/>
+      <c r="B293" s="9"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="B294" s="4"/>
+      <c r="B294" s="9"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="B295" s="4"/>
+      <c r="B295" s="9"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="B296" s="4"/>
+      <c r="B296" s="9"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="B297" s="4"/>
+      <c r="B297" s="9"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="B298" s="4"/>
+      <c r="B298" s="9"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="B299" s="4"/>
+      <c r="B299" s="9"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="B300" s="4"/>
+      <c r="B300" s="9"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="B301" s="4"/>
+      <c r="B301" s="9"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="B302" s="4"/>
+      <c r="B302" s="9"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="B303" s="4"/>
+      <c r="B303" s="9"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="B304" s="4"/>
+      <c r="B304" s="9"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="B305" s="4"/>
+      <c r="B305" s="9"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="B306" s="4"/>
+      <c r="B306" s="9"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="B307" s="4"/>
+      <c r="B307" s="9"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="B308" s="4"/>
+      <c r="B308" s="9"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="B309" s="4"/>
+      <c r="B309" s="9"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="B310" s="4"/>
+      <c r="B310" s="9"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="B311" s="4"/>
+      <c r="B311" s="9"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="B312" s="4"/>
+      <c r="B312" s="9"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="B313" s="4"/>
+      <c r="B313" s="9"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="B314" s="4"/>
+      <c r="B314" s="9"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="B315" s="4"/>
+      <c r="B315" s="9"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="B316" s="4"/>
+      <c r="B316" s="9"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="B317" s="4"/>
+      <c r="B317" s="9"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="B318" s="4"/>
+      <c r="B318" s="9"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="B319" s="4"/>
+      <c r="B319" s="9"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="B320" s="4"/>
+      <c r="B320" s="9"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="B321" s="4"/>
+      <c r="B321" s="9"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="B322" s="4"/>
+      <c r="B322" s="9"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="B323" s="4"/>
+      <c r="B323" s="9"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="B324" s="4"/>
+      <c r="B324" s="9"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="B325" s="4"/>
+      <c r="B325" s="9"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="B326" s="4"/>
+      <c r="B326" s="9"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="B327" s="4"/>
+      <c r="B327" s="9"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="B328" s="4"/>
+      <c r="B328" s="9"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="B329" s="4"/>
+      <c r="B329" s="9"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="B330" s="4"/>
+      <c r="B330" s="9"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="B331" s="4"/>
+      <c r="B331" s="9"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="B332" s="4"/>
+      <c r="B332" s="9"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="B333" s="4"/>
+      <c r="B333" s="9"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="B334" s="4"/>
+      <c r="B334" s="9"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="B335" s="4"/>
+      <c r="B335" s="9"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="B336" s="4"/>
+      <c r="B336" s="9"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="B337" s="4"/>
+      <c r="B337" s="9"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="B338" s="4"/>
+      <c r="B338" s="9"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="B339" s="4"/>
+      <c r="B339" s="9"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="B340" s="4"/>
+      <c r="B340" s="9"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="B341" s="4"/>
+      <c r="B341" s="9"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="B342" s="4"/>
+      <c r="B342" s="9"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="B343" s="4"/>
+      <c r="B343" s="9"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="B344" s="4"/>
+      <c r="B344" s="9"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="B345" s="4"/>
+      <c r="B345" s="9"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="B346" s="4"/>
+      <c r="B346" s="9"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="B347" s="4"/>
+      <c r="B347" s="9"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="B348" s="4"/>
+      <c r="B348" s="9"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="B349" s="4"/>
+      <c r="B349" s="9"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="B350" s="4"/>
+      <c r="B350" s="9"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="B351" s="4"/>
+      <c r="B351" s="9"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="B352" s="4"/>
+      <c r="B352" s="9"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="B353" s="4"/>
+      <c r="B353" s="9"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="B354" s="4"/>
+      <c r="B354" s="9"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="B355" s="4"/>
+      <c r="B355" s="9"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="B356" s="4"/>
+      <c r="B356" s="9"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="B357" s="4"/>
+      <c r="B357" s="9"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="B358" s="4"/>
+      <c r="B358" s="9"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="B359" s="4"/>
+      <c r="B359" s="9"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="B360" s="4"/>
+      <c r="B360" s="9"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="B361" s="4"/>
+      <c r="B361" s="9"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="B362" s="4"/>
+      <c r="B362" s="9"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="B363" s="4"/>
+      <c r="B363" s="9"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="B364" s="4"/>
+      <c r="B364" s="9"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="B365" s="4"/>
+      <c r="B365" s="9"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="B366" s="4"/>
+      <c r="B366" s="9"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="B367" s="4"/>
+      <c r="B367" s="9"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="B368" s="4"/>
+      <c r="B368" s="9"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="B369" s="4"/>
+      <c r="B369" s="9"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="B370" s="4"/>
+      <c r="B370" s="9"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="B371" s="4"/>
+      <c r="B371" s="9"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="B372" s="4"/>
+      <c r="B372" s="9"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="B373" s="4"/>
+      <c r="B373" s="9"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="B374" s="4"/>
+      <c r="B374" s="9"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="B375" s="4"/>
+      <c r="B375" s="9"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="B376" s="4"/>
+      <c r="B376" s="9"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="B377" s="4"/>
+      <c r="B377" s="9"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="B378" s="4"/>
+      <c r="B378" s="9"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="B379" s="4"/>
+      <c r="B379" s="9"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="B380" s="4"/>
+      <c r="B380" s="9"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="B381" s="4"/>
+      <c r="B381" s="9"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="B382" s="4"/>
+      <c r="B382" s="9"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="B383" s="4"/>
+      <c r="B383" s="9"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="B384" s="4"/>
+      <c r="B384" s="9"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="B385" s="4"/>
+      <c r="B385" s="9"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="B386" s="4"/>
+      <c r="B386" s="9"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="B387" s="4"/>
+      <c r="B387" s="9"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="B388" s="4"/>
+      <c r="B388" s="9"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="B389" s="4"/>
+      <c r="B389" s="9"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="B390" s="4"/>
+      <c r="B390" s="9"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="B391" s="4"/>
+      <c r="B391" s="9"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="B392" s="4"/>
+      <c r="B392" s="9"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="B393" s="4"/>
+      <c r="B393" s="9"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="B394" s="4"/>
+      <c r="B394" s="9"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="B395" s="4"/>
+      <c r="B395" s="9"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="B396" s="4"/>
+      <c r="B396" s="9"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="B397" s="4"/>
+      <c r="B397" s="9"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="B398" s="4"/>
+      <c r="B398" s="9"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="B399" s="4"/>
+      <c r="B399" s="9"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="B400" s="4"/>
+      <c r="B400" s="9"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="B401" s="4"/>
+      <c r="B401" s="9"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="B402" s="4"/>
+      <c r="B402" s="9"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="B403" s="4"/>
+      <c r="B403" s="9"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="B404" s="4"/>
+      <c r="B404" s="9"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="B405" s="4"/>
+      <c r="B405" s="9"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="B406" s="4"/>
+      <c r="B406" s="9"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="B407" s="4"/>
+      <c r="B407" s="9"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="B408" s="4"/>
+      <c r="B408" s="9"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="B409" s="4"/>
+      <c r="B409" s="9"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="B410" s="4"/>
+      <c r="B410" s="9"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="B411" s="4"/>
+      <c r="B411" s="9"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="B412" s="4"/>
+      <c r="B412" s="9"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="B413" s="4"/>
+      <c r="B413" s="9"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="B414" s="4"/>
+      <c r="B414" s="9"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="B415" s="4"/>
+      <c r="B415" s="9"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="B416" s="4"/>
+      <c r="B416" s="9"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="B417" s="4"/>
+      <c r="B417" s="9"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="B418" s="4"/>
+      <c r="B418" s="9"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="B419" s="4"/>
+      <c r="B419" s="9"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="B420" s="4"/>
+      <c r="B420" s="9"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="B421" s="4"/>
+      <c r="B421" s="9"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="B422" s="4"/>
+      <c r="B422" s="9"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="B423" s="4"/>
+      <c r="B423" s="9"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="B424" s="4"/>
+      <c r="B424" s="9"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="B425" s="4"/>
+      <c r="B425" s="9"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="B426" s="4"/>
+      <c r="B426" s="9"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="B427" s="4"/>
+      <c r="B427" s="9"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="B428" s="4"/>
+      <c r="B428" s="9"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="B429" s="4"/>
+      <c r="B429" s="9"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="B430" s="4"/>
+      <c r="B430" s="9"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="B431" s="4"/>
+      <c r="B431" s="9"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="B432" s="4"/>
+      <c r="B432" s="9"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="B433" s="4"/>
+      <c r="B433" s="9"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="B434" s="4"/>
+      <c r="B434" s="9"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="B435" s="4"/>
+      <c r="B435" s="9"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="B436" s="4"/>
+      <c r="B436" s="9"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="B437" s="4"/>
+      <c r="B437" s="9"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="B438" s="4"/>
+      <c r="B438" s="9"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="B439" s="4"/>
+      <c r="B439" s="9"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="B440" s="4"/>
+      <c r="B440" s="9"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="B441" s="4"/>
+      <c r="B441" s="9"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="B442" s="4"/>
+      <c r="B442" s="9"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="B443" s="4"/>
+      <c r="B443" s="9"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="B444" s="4"/>
+      <c r="B444" s="9"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="B445" s="4"/>
+      <c r="B445" s="9"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="B446" s="4"/>
+      <c r="B446" s="9"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="B447" s="4"/>
+      <c r="B447" s="9"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="B448" s="4"/>
+      <c r="B448" s="9"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="B449" s="4"/>
+      <c r="B449" s="9"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="B450" s="4"/>
+      <c r="B450" s="9"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="B451" s="4"/>
+      <c r="B451" s="9"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="B452" s="4"/>
+      <c r="B452" s="9"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="B453" s="4"/>
+      <c r="B453" s="9"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="B454" s="4"/>
+      <c r="B454" s="9"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="B455" s="4"/>
+      <c r="B455" s="9"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="B456" s="4"/>
+      <c r="B456" s="9"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="B457" s="4"/>
+      <c r="B457" s="9"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="B458" s="4"/>
+      <c r="B458" s="9"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="B459" s="4"/>
+      <c r="B459" s="9"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="B460" s="4"/>
+      <c r="B460" s="9"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="B461" s="4"/>
+      <c r="B461" s="9"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="B462" s="4"/>
+      <c r="B462" s="9"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="B463" s="4"/>
+      <c r="B463" s="9"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="B464" s="4"/>
+      <c r="B464" s="9"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="B465" s="4"/>
+      <c r="B465" s="9"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="B466" s="4"/>
+      <c r="B466" s="9"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="B467" s="4"/>
+      <c r="B467" s="9"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="B468" s="4"/>
+      <c r="B468" s="9"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="B469" s="4"/>
+      <c r="B469" s="9"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="B470" s="4"/>
+      <c r="B470" s="9"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="B471" s="4"/>
+      <c r="B471" s="9"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="B472" s="4"/>
+      <c r="B472" s="9"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="B473" s="4"/>
+      <c r="B473" s="9"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="B474" s="4"/>
+      <c r="B474" s="9"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="B475" s="4"/>
+      <c r="B475" s="9"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="B476" s="4"/>
+      <c r="B476" s="9"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="B477" s="4"/>
+      <c r="B477" s="9"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="B478" s="4"/>
+      <c r="B478" s="9"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="B479" s="4"/>
+      <c r="B479" s="9"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="B480" s="4"/>
+      <c r="B480" s="9"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="B481" s="4"/>
+      <c r="B481" s="9"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="B482" s="4"/>
+      <c r="B482" s="9"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="B483" s="4"/>
+      <c r="B483" s="9"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="B484" s="4"/>
+      <c r="B484" s="9"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="B485" s="4"/>
+      <c r="B485" s="9"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="B486" s="4"/>
+      <c r="B486" s="9"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="B487" s="4"/>
+      <c r="B487" s="9"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="B488" s="4"/>
+      <c r="B488" s="9"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="B489" s="4"/>
+      <c r="B489" s="9"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="B490" s="4"/>
+      <c r="B490" s="9"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="B491" s="4"/>
+      <c r="B491" s="9"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="B492" s="4"/>
+      <c r="B492" s="9"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="B493" s="4"/>
+      <c r="B493" s="9"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="B494" s="4"/>
+      <c r="B494" s="9"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="B495" s="4"/>
+      <c r="B495" s="9"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="B496" s="4"/>
+      <c r="B496" s="9"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="B497" s="4"/>
+      <c r="B497" s="9"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="B498" s="4"/>
+      <c r="B498" s="9"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="B499" s="4"/>
+      <c r="B499" s="9"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="B500" s="4"/>
+      <c r="B500" s="9"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="B501" s="4"/>
+      <c r="B501" s="9"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="B502" s="4"/>
+      <c r="B502" s="9"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="B503" s="4"/>
+      <c r="B503" s="9"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="B504" s="4"/>
+      <c r="B504" s="9"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="B505" s="4"/>
+      <c r="B505" s="9"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="B506" s="4"/>
+      <c r="B506" s="9"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="B507" s="4"/>
+      <c r="B507" s="9"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="B508" s="4"/>
+      <c r="B508" s="9"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="B509" s="4"/>
+      <c r="B509" s="9"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="B510" s="4"/>
+      <c r="B510" s="9"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="B511" s="4"/>
+      <c r="B511" s="9"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="B512" s="4"/>
+      <c r="B512" s="9"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="B513" s="4"/>
+      <c r="B513" s="9"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="B514" s="4"/>
+      <c r="B514" s="9"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="B515" s="4"/>
+      <c r="B515" s="9"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="B516" s="4"/>
+      <c r="B516" s="9"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="B517" s="4"/>
+      <c r="B517" s="9"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="B518" s="4"/>
+      <c r="B518" s="9"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="B519" s="4"/>
+      <c r="B519" s="9"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="B520" s="4"/>
+      <c r="B520" s="9"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="B521" s="4"/>
+      <c r="B521" s="9"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="B522" s="4"/>
+      <c r="B522" s="9"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="B523" s="4"/>
+      <c r="B523" s="9"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="B524" s="4"/>
+      <c r="B524" s="9"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="B525" s="4"/>
+      <c r="B525" s="9"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="B526" s="4"/>
+      <c r="B526" s="9"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="B527" s="4"/>
+      <c r="B527" s="9"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="B528" s="4"/>
+      <c r="B528" s="9"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="B529" s="4"/>
+      <c r="B529" s="9"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="B530" s="4"/>
+      <c r="B530" s="9"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="B531" s="4"/>
+      <c r="B531" s="9"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="B532" s="4"/>
+      <c r="B532" s="9"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="B533" s="4"/>
+      <c r="B533" s="9"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="B534" s="4"/>
+      <c r="B534" s="9"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="B535" s="4"/>
+      <c r="B535" s="9"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="B536" s="4"/>
+      <c r="B536" s="9"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="B537" s="4"/>
+      <c r="B537" s="9"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="B538" s="4"/>
+      <c r="B538" s="9"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="B539" s="4"/>
+      <c r="B539" s="9"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="B540" s="4"/>
+      <c r="B540" s="9"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="B541" s="4"/>
+      <c r="B541" s="9"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="B542" s="4"/>
+      <c r="B542" s="9"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="B543" s="4"/>
+      <c r="B543" s="9"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="B544" s="4"/>
+      <c r="B544" s="9"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="B545" s="4"/>
+      <c r="B545" s="9"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="B546" s="4"/>
+      <c r="B546" s="9"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="B547" s="4"/>
+      <c r="B547" s="9"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="B548" s="4"/>
+      <c r="B548" s="9"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="B549" s="4"/>
+      <c r="B549" s="9"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="B550" s="4"/>
+      <c r="B550" s="9"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="B551" s="4"/>
+      <c r="B551" s="9"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="B552" s="4"/>
+      <c r="B552" s="9"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="B553" s="4"/>
+      <c r="B553" s="9"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="B554" s="4"/>
+      <c r="B554" s="9"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="B555" s="4"/>
+      <c r="B555" s="9"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="B556" s="4"/>
+      <c r="B556" s="9"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="B557" s="4"/>
+      <c r="B557" s="9"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="B558" s="4"/>
+      <c r="B558" s="9"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="B559" s="4"/>
+      <c r="B559" s="9"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="B560" s="4"/>
+      <c r="B560" s="9"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="B561" s="4"/>
+      <c r="B561" s="9"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="B562" s="4"/>
+      <c r="B562" s="9"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="B563" s="4"/>
+      <c r="B563" s="9"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="B564" s="4"/>
+      <c r="B564" s="9"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="B565" s="4"/>
+      <c r="B565" s="9"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="B566" s="4"/>
+      <c r="B566" s="9"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="B567" s="4"/>
+      <c r="B567" s="9"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="B568" s="4"/>
+      <c r="B568" s="9"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="B569" s="4"/>
+      <c r="B569" s="9"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="B570" s="4"/>
+      <c r="B570" s="9"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="B571" s="4"/>
+      <c r="B571" s="9"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="B572" s="4"/>
+      <c r="B572" s="9"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="B573" s="4"/>
+      <c r="B573" s="9"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="B574" s="4"/>
+      <c r="B574" s="9"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="B575" s="4"/>
+      <c r="B575" s="9"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="B576" s="4"/>
+      <c r="B576" s="9"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="B577" s="4"/>
+      <c r="B577" s="9"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="B578" s="4"/>
+      <c r="B578" s="9"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="B579" s="4"/>
+      <c r="B579" s="9"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="B580" s="4"/>
+      <c r="B580" s="9"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="B581" s="4"/>
+      <c r="B581" s="9"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="B582" s="4"/>
+      <c r="B582" s="9"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="B583" s="4"/>
+      <c r="B583" s="9"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="B584" s="4"/>
+      <c r="B584" s="9"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="B585" s="4"/>
+      <c r="B585" s="9"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="B586" s="4"/>
+      <c r="B586" s="9"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="B587" s="4"/>
+      <c r="B587" s="9"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="B588" s="4"/>
+      <c r="B588" s="9"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="B589" s="4"/>
+      <c r="B589" s="9"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="B590" s="4"/>
+      <c r="B590" s="9"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="B591" s="4"/>
+      <c r="B591" s="9"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="B592" s="4"/>
+      <c r="B592" s="9"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="B593" s="4"/>
+      <c r="B593" s="9"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="B594" s="4"/>
+      <c r="B594" s="9"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="B595" s="4"/>
+      <c r="B595" s="9"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="B596" s="4"/>
+      <c r="B596" s="9"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="B597" s="4"/>
+      <c r="B597" s="9"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="B598" s="4"/>
+      <c r="B598" s="9"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="B599" s="4"/>
+      <c r="B599" s="9"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="B600" s="4"/>
+      <c r="B600" s="9"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="B601" s="4"/>
+      <c r="B601" s="9"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="B602" s="4"/>
+      <c r="B602" s="9"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="B603" s="4"/>
+      <c r="B603" s="9"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="B604" s="4"/>
+      <c r="B604" s="9"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="B605" s="4"/>
+      <c r="B605" s="9"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="B606" s="4"/>
+      <c r="B606" s="9"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="B607" s="4"/>
+      <c r="B607" s="9"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="B608" s="4"/>
+      <c r="B608" s="9"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="B609" s="4"/>
+      <c r="B609" s="9"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="B610" s="4"/>
+      <c r="B610" s="9"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="B611" s="4"/>
+      <c r="B611" s="9"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="B612" s="4"/>
+      <c r="B612" s="9"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="B613" s="4"/>
+      <c r="B613" s="9"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="B614" s="4"/>
+      <c r="B614" s="9"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="B615" s="4"/>
+      <c r="B615" s="9"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="B616" s="4"/>
+      <c r="B616" s="9"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="B617" s="4"/>
+      <c r="B617" s="9"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="B618" s="4"/>
+      <c r="B618" s="9"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="B619" s="4"/>
+      <c r="B619" s="9"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="B620" s="4"/>
+      <c r="B620" s="9"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="B621" s="4"/>
+      <c r="B621" s="9"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="B622" s="4"/>
+      <c r="B622" s="9"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="B623" s="4"/>
+      <c r="B623" s="9"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="B624" s="4"/>
+      <c r="B624" s="9"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="B625" s="4"/>
+      <c r="B625" s="9"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="B626" s="4"/>
+      <c r="B626" s="9"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="B627" s="4"/>
+      <c r="B627" s="9"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="B628" s="4"/>
+      <c r="B628" s="9"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="B629" s="4"/>
+      <c r="B629" s="9"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="B630" s="4"/>
+      <c r="B630" s="9"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="B631" s="4"/>
+      <c r="B631" s="9"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="B632" s="4"/>
+      <c r="B632" s="9"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="B633" s="4"/>
+      <c r="B633" s="9"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="B634" s="4"/>
+      <c r="B634" s="9"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="B635" s="4"/>
+      <c r="B635" s="9"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="B636" s="4"/>
+      <c r="B636" s="9"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="B637" s="4"/>
+      <c r="B637" s="9"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="B638" s="4"/>
+      <c r="B638" s="9"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="B639" s="4"/>
+      <c r="B639" s="9"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="B640" s="4"/>
+      <c r="B640" s="9"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="B641" s="4"/>
+      <c r="B641" s="9"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="B642" s="4"/>
+      <c r="B642" s="9"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="B643" s="4"/>
+      <c r="B643" s="9"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="B644" s="4"/>
+      <c r="B644" s="9"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="B645" s="4"/>
+      <c r="B645" s="9"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="B646" s="4"/>
+      <c r="B646" s="9"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="B647" s="4"/>
+      <c r="B647" s="9"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="B648" s="4"/>
+      <c r="B648" s="9"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="B649" s="4"/>
+      <c r="B649" s="9"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="B650" s="4"/>
+      <c r="B650" s="9"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="B651" s="4"/>
+      <c r="B651" s="9"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="B652" s="4"/>
+      <c r="B652" s="9"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="B653" s="4"/>
+      <c r="B653" s="9"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="B654" s="4"/>
+      <c r="B654" s="9"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="B655" s="4"/>
+      <c r="B655" s="9"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="B656" s="4"/>
+      <c r="B656" s="9"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="B657" s="4"/>
+      <c r="B657" s="9"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="B658" s="4"/>
+      <c r="B658" s="9"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="B659" s="4"/>
+      <c r="B659" s="9"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="B660" s="4"/>
+      <c r="B660" s="9"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="B661" s="4"/>
+      <c r="B661" s="9"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="B662" s="4"/>
+      <c r="B662" s="9"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="B663" s="4"/>
+      <c r="B663" s="9"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="B664" s="4"/>
+      <c r="B664" s="9"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="B665" s="4"/>
+      <c r="B665" s="9"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="B666" s="4"/>
+      <c r="B666" s="9"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="B667" s="4"/>
+      <c r="B667" s="9"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="B668" s="4"/>
+      <c r="B668" s="9"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="B669" s="4"/>
+      <c r="B669" s="9"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="B670" s="4"/>
+      <c r="B670" s="9"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="B671" s="4"/>
+      <c r="B671" s="9"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="B672" s="4"/>
+      <c r="B672" s="9"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="B673" s="4"/>
+      <c r="B673" s="9"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="B674" s="4"/>
+      <c r="B674" s="9"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="B675" s="4"/>
+      <c r="B675" s="9"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="B676" s="4"/>
+      <c r="B676" s="9"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="B677" s="4"/>
+      <c r="B677" s="9"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="B678" s="4"/>
+      <c r="B678" s="9"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="B679" s="4"/>
+      <c r="B679" s="9"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="B680" s="4"/>
+      <c r="B680" s="9"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="B681" s="4"/>
+      <c r="B681" s="9"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="B682" s="4"/>
+      <c r="B682" s="9"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="B683" s="4"/>
+      <c r="B683" s="9"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="B684" s="4"/>
+      <c r="B684" s="9"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="B685" s="4"/>
+      <c r="B685" s="9"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="B686" s="4"/>
+      <c r="B686" s="9"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="B687" s="4"/>
+      <c r="B687" s="9"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="B688" s="4"/>
+      <c r="B688" s="9"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="B689" s="4"/>
+      <c r="B689" s="9"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="B690" s="4"/>
+      <c r="B690" s="9"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="B691" s="4"/>
+      <c r="B691" s="9"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="B692" s="4"/>
+      <c r="B692" s="9"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="B693" s="4"/>
+      <c r="B693" s="9"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="B694" s="4"/>
+      <c r="B694" s="9"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="B695" s="4"/>
+      <c r="B695" s="9"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="B696" s="4"/>
+      <c r="B696" s="9"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="B697" s="4"/>
+      <c r="B697" s="9"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="B698" s="4"/>
+      <c r="B698" s="9"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="B699" s="4"/>
+      <c r="B699" s="9"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="B700" s="4"/>
+      <c r="B700" s="9"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="B701" s="4"/>
+      <c r="B701" s="9"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="B702" s="4"/>
+      <c r="B702" s="9"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="B703" s="4"/>
+      <c r="B703" s="9"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="B704" s="4"/>
+      <c r="B704" s="9"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="B705" s="4"/>
+      <c r="B705" s="9"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="B706" s="4"/>
+      <c r="B706" s="9"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="B707" s="4"/>
+      <c r="B707" s="9"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="B708" s="4"/>
+      <c r="B708" s="9"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="B709" s="4"/>
+      <c r="B709" s="9"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="B710" s="4"/>
+      <c r="B710" s="9"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="B711" s="4"/>
+      <c r="B711" s="9"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="B712" s="4"/>
+      <c r="B712" s="9"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="B713" s="4"/>
+      <c r="B713" s="9"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="B714" s="4"/>
+      <c r="B714" s="9"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="B715" s="4"/>
+      <c r="B715" s="9"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="B716" s="4"/>
+      <c r="B716" s="9"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="B717" s="4"/>
+      <c r="B717" s="9"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="B718" s="4"/>
+      <c r="B718" s="9"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="B719" s="4"/>
+      <c r="B719" s="9"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="B720" s="4"/>
+      <c r="B720" s="9"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="B721" s="4"/>
+      <c r="B721" s="9"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="B722" s="4"/>
+      <c r="B722" s="9"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="B723" s="4"/>
+      <c r="B723" s="9"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="B724" s="4"/>
+      <c r="B724" s="9"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="B725" s="4"/>
+      <c r="B725" s="9"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="B726" s="4"/>
+      <c r="B726" s="9"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="B727" s="4"/>
+      <c r="B727" s="9"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="B728" s="4"/>
+      <c r="B728" s="9"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="B729" s="4"/>
+      <c r="B729" s="9"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="B730" s="4"/>
+      <c r="B730" s="9"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="B731" s="4"/>
+      <c r="B731" s="9"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="B732" s="4"/>
+      <c r="B732" s="9"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="B733" s="4"/>
+      <c r="B733" s="9"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="B734" s="4"/>
+      <c r="B734" s="9"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="B735" s="4"/>
+      <c r="B735" s="9"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="B736" s="4"/>
+      <c r="B736" s="9"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="B737" s="4"/>
+      <c r="B737" s="9"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="B738" s="4"/>
+      <c r="B738" s="9"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="B739" s="4"/>
+      <c r="B739" s="9"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="B740" s="4"/>
+      <c r="B740" s="9"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="B741" s="4"/>
+      <c r="B741" s="9"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="B742" s="4"/>
+      <c r="B742" s="9"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="B743" s="4"/>
+      <c r="B743" s="9"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="B744" s="4"/>
+      <c r="B744" s="9"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="B745" s="4"/>
+      <c r="B745" s="9"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="B746" s="4"/>
+      <c r="B746" s="9"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="B747" s="4"/>
+      <c r="B747" s="9"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="B748" s="4"/>
+      <c r="B748" s="9"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="B749" s="4"/>
+      <c r="B749" s="9"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="B750" s="4"/>
+      <c r="B750" s="9"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="B751" s="4"/>
+      <c r="B751" s="9"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="B752" s="4"/>
+      <c r="B752" s="9"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="B753" s="4"/>
+      <c r="B753" s="9"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="B754" s="4"/>
+      <c r="B754" s="9"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="B755" s="4"/>
+      <c r="B755" s="9"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="B756" s="4"/>
+      <c r="B756" s="9"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="B757" s="4"/>
+      <c r="B757" s="9"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="B758" s="4"/>
+      <c r="B758" s="9"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="B759" s="4"/>
+      <c r="B759" s="9"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="B760" s="4"/>
+      <c r="B760" s="9"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="B761" s="4"/>
+      <c r="B761" s="9"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="B762" s="4"/>
+      <c r="B762" s="9"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="B763" s="4"/>
+      <c r="B763" s="9"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="B764" s="4"/>
+      <c r="B764" s="9"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="B765" s="4"/>
+      <c r="B765" s="9"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="B766" s="4"/>
+      <c r="B766" s="9"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="B767" s="4"/>
+      <c r="B767" s="9"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="B768" s="4"/>
+      <c r="B768" s="9"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="B769" s="4"/>
+      <c r="B769" s="9"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="B770" s="4"/>
+      <c r="B770" s="9"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="B771" s="4"/>
+      <c r="B771" s="9"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="B772" s="4"/>
+      <c r="B772" s="9"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="B773" s="4"/>
+      <c r="B773" s="9"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="B774" s="4"/>
+      <c r="B774" s="9"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="B775" s="4"/>
+      <c r="B775" s="9"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="B776" s="4"/>
+      <c r="B776" s="9"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="B777" s="4"/>
+      <c r="B777" s="9"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="B778" s="4"/>
+      <c r="B778" s="9"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="B779" s="4"/>
+      <c r="B779" s="9"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="B780" s="4"/>
+      <c r="B780" s="9"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="B781" s="4"/>
+      <c r="B781" s="9"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="B782" s="4"/>
+      <c r="B782" s="9"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="B783" s="4"/>
+      <c r="B783" s="9"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="B784" s="4"/>
+      <c r="B784" s="9"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="B785" s="4"/>
+      <c r="B785" s="9"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="B786" s="4"/>
+      <c r="B786" s="9"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="B787" s="4"/>
+      <c r="B787" s="9"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="B788" s="4"/>
+      <c r="B788" s="9"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="B789" s="4"/>
+      <c r="B789" s="9"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="B790" s="4"/>
+      <c r="B790" s="9"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="B791" s="4"/>
+      <c r="B791" s="9"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="B792" s="4"/>
+      <c r="B792" s="9"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="B793" s="4"/>
+      <c r="B793" s="9"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="B794" s="4"/>
+      <c r="B794" s="9"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="B795" s="4"/>
+      <c r="B795" s="9"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="B796" s="4"/>
+      <c r="B796" s="9"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="B797" s="4"/>
+      <c r="B797" s="9"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="B798" s="4"/>
+      <c r="B798" s="9"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="B799" s="4"/>
+      <c r="B799" s="9"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="B800" s="4"/>
+      <c r="B800" s="9"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="B801" s="4"/>
+      <c r="B801" s="9"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="B802" s="4"/>
+      <c r="B802" s="9"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="B803" s="4"/>
+      <c r="B803" s="9"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="B804" s="4"/>
+      <c r="B804" s="9"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="B805" s="4"/>
+      <c r="B805" s="9"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="B806" s="4"/>
+      <c r="B806" s="9"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="B807" s="4"/>
+      <c r="B807" s="9"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="B808" s="4"/>
+      <c r="B808" s="9"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="B809" s="4"/>
+      <c r="B809" s="9"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="B810" s="4"/>
+      <c r="B810" s="9"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="B811" s="4"/>
+      <c r="B811" s="9"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="B812" s="4"/>
+      <c r="B812" s="9"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="B813" s="4"/>
+      <c r="B813" s="9"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="B814" s="4"/>
+      <c r="B814" s="9"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="B815" s="4"/>
+      <c r="B815" s="9"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="B816" s="4"/>
+      <c r="B816" s="9"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="B817" s="4"/>
+      <c r="B817" s="9"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="B818" s="4"/>
+      <c r="B818" s="9"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="B819" s="4"/>
+      <c r="B819" s="9"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="B820" s="4"/>
+      <c r="B820" s="9"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="B821" s="4"/>
+      <c r="B821" s="9"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="B822" s="4"/>
+      <c r="B822" s="9"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="B823" s="4"/>
+      <c r="B823" s="9"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="B824" s="4"/>
+      <c r="B824" s="9"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="B825" s="4"/>
+      <c r="B825" s="9"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="B826" s="4"/>
+      <c r="B826" s="9"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="B827" s="4"/>
+      <c r="B827" s="9"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="B828" s="4"/>
+      <c r="B828" s="9"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="B829" s="4"/>
+      <c r="B829" s="9"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="B830" s="4"/>
+      <c r="B830" s="9"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="B831" s="4"/>
+      <c r="B831" s="9"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="B832" s="4"/>
+      <c r="B832" s="9"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="B833" s="4"/>
+      <c r="B833" s="9"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="B834" s="4"/>
+      <c r="B834" s="9"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="B835" s="4"/>
+      <c r="B835" s="9"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="B836" s="4"/>
+      <c r="B836" s="9"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="B837" s="4"/>
+      <c r="B837" s="9"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="B838" s="4"/>
+      <c r="B838" s="9"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="B839" s="4"/>
+      <c r="B839" s="9"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="B840" s="4"/>
+      <c r="B840" s="9"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="B841" s="4"/>
+      <c r="B841" s="9"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="B842" s="4"/>
+      <c r="B842" s="9"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="B843" s="4"/>
+      <c r="B843" s="9"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="B844" s="4"/>
+      <c r="B844" s="9"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="B845" s="4"/>
+      <c r="B845" s="9"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="B846" s="4"/>
+      <c r="B846" s="9"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="B847" s="4"/>
+      <c r="B847" s="9"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="B848" s="4"/>
+      <c r="B848" s="9"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="B849" s="4"/>
+      <c r="B849" s="9"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="B850" s="4"/>
+      <c r="B850" s="9"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="B851" s="4"/>
+      <c r="B851" s="9"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="B852" s="4"/>
+      <c r="B852" s="9"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="B853" s="4"/>
+      <c r="B853" s="9"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="B854" s="4"/>
+      <c r="B854" s="9"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="B855" s="4"/>
+      <c r="B855" s="9"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="B856" s="4"/>
+      <c r="B856" s="9"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="B857" s="4"/>
+      <c r="B857" s="9"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="B858" s="4"/>
+      <c r="B858" s="9"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="B859" s="4"/>
+      <c r="B859" s="9"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="B860" s="4"/>
+      <c r="B860" s="9"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="B861" s="4"/>
+      <c r="B861" s="9"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="B862" s="4"/>
+      <c r="B862" s="9"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="B863" s="4"/>
+      <c r="B863" s="9"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="B864" s="4"/>
+      <c r="B864" s="9"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="B865" s="4"/>
+      <c r="B865" s="9"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="B866" s="4"/>
+      <c r="B866" s="9"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="B867" s="4"/>
+      <c r="B867" s="9"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="B868" s="4"/>
+      <c r="B868" s="9"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="B869" s="4"/>
+      <c r="B869" s="9"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="B870" s="4"/>
+      <c r="B870" s="9"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="B871" s="4"/>
+      <c r="B871" s="9"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="B872" s="4"/>
+      <c r="B872" s="9"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="B873" s="4"/>
+      <c r="B873" s="9"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="B874" s="4"/>
+      <c r="B874" s="9"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="B875" s="4"/>
+      <c r="B875" s="9"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="B876" s="4"/>
+      <c r="B876" s="9"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="B877" s="4"/>
+      <c r="B877" s="9"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="B878" s="4"/>
+      <c r="B878" s="9"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="B879" s="4"/>
+      <c r="B879" s="9"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="B880" s="4"/>
+      <c r="B880" s="9"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="B881" s="4"/>
+      <c r="B881" s="9"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="B882" s="4"/>
+      <c r="B882" s="9"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="B883" s="4"/>
+      <c r="B883" s="9"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="B884" s="4"/>
+      <c r="B884" s="9"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="B885" s="4"/>
+      <c r="B885" s="9"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="B886" s="4"/>
+      <c r="B886" s="9"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="B887" s="4"/>
+      <c r="B887" s="9"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="B888" s="4"/>
+      <c r="B888" s="9"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="B889" s="4"/>
+      <c r="B889" s="9"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="B890" s="4"/>
+      <c r="B890" s="9"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="B891" s="4"/>
+      <c r="B891" s="9"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="B892" s="4"/>
+      <c r="B892" s="9"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="B893" s="4"/>
+      <c r="B893" s="9"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="B894" s="4"/>
+      <c r="B894" s="9"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="B895" s="4"/>
+      <c r="B895" s="9"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="B896" s="4"/>
+      <c r="B896" s="9"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="B897" s="4"/>
+      <c r="B897" s="9"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="B898" s="4"/>
+      <c r="B898" s="9"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="B899" s="4"/>
+      <c r="B899" s="9"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="B900" s="4"/>
+      <c r="B900" s="9"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="B901" s="4"/>
+      <c r="B901" s="9"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="B902" s="4"/>
+      <c r="B902" s="9"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="B903" s="4"/>
+      <c r="B903" s="9"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="B904" s="4"/>
+      <c r="B904" s="9"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="B905" s="4"/>
+      <c r="B905" s="9"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="B906" s="4"/>
+      <c r="B906" s="9"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="B907" s="4"/>
+      <c r="B907" s="9"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="B908" s="4"/>
+      <c r="B908" s="9"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="B909" s="4"/>
+      <c r="B909" s="9"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="B910" s="4"/>
+      <c r="B910" s="9"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="B911" s="4"/>
+      <c r="B911" s="9"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="B912" s="4"/>
+      <c r="B912" s="9"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="B913" s="4"/>
+      <c r="B913" s="9"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="B914" s="4"/>
+      <c r="B914" s="9"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="B915" s="4"/>
+      <c r="B915" s="9"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="B916" s="4"/>
+      <c r="B916" s="9"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="B917" s="4"/>
+      <c r="B917" s="9"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="B918" s="4"/>
+      <c r="B918" s="9"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="B919" s="4"/>
+      <c r="B919" s="9"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="B920" s="4"/>
+      <c r="B920" s="9"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="B921" s="4"/>
+      <c r="B921" s="9"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="B922" s="4"/>
+      <c r="B922" s="9"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="B923" s="4"/>
+      <c r="B923" s="9"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="B924" s="4"/>
+      <c r="B924" s="9"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="B925" s="4"/>
+      <c r="B925" s="9"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="B926" s="4"/>
+      <c r="B926" s="9"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="B927" s="4"/>
+      <c r="B927" s="9"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="B928" s="4"/>
+      <c r="B928" s="9"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="B929" s="4"/>
+      <c r="B929" s="9"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="B930" s="4"/>
+      <c r="B930" s="9"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="B931" s="4"/>
+      <c r="B931" s="9"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="B932" s="4"/>
+      <c r="B932" s="9"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="B933" s="4"/>
+      <c r="B933" s="9"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="B934" s="4"/>
+      <c r="B934" s="9"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="B935" s="4"/>
+      <c r="B935" s="9"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="B936" s="4"/>
+      <c r="B936" s="9"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="B937" s="4"/>
+      <c r="B937" s="9"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="B938" s="4"/>
+      <c r="B938" s="9"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="B939" s="4"/>
+      <c r="B939" s="9"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="B940" s="4"/>
+      <c r="B940" s="9"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="B941" s="4"/>
+      <c r="B941" s="9"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="B942" s="4"/>
+      <c r="B942" s="9"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="B943" s="4"/>
+      <c r="B943" s="9"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="B944" s="4"/>
+      <c r="B944" s="9"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="B945" s="4"/>
+      <c r="B945" s="9"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="B946" s="4"/>
+      <c r="B946" s="9"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="B947" s="4"/>
+      <c r="B947" s="9"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="B948" s="4"/>
+      <c r="B948" s="9"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="B949" s="4"/>
+      <c r="B949" s="9"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="B950" s="4"/>
+      <c r="B950" s="9"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="B951" s="4"/>
+      <c r="B951" s="9"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="B952" s="4"/>
+      <c r="B952" s="9"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="B953" s="4"/>
+      <c r="B953" s="9"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="B954" s="4"/>
+      <c r="B954" s="9"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="B955" s="4"/>
+      <c r="B955" s="9"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="B956" s="4"/>
+      <c r="B956" s="9"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="B957" s="4"/>
+      <c r="B957" s="9"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="B958" s="4"/>
+      <c r="B958" s="9"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="B959" s="4"/>
+      <c r="B959" s="9"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="B960" s="4"/>
+      <c r="B960" s="9"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="B961" s="4"/>
+      <c r="B961" s="9"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="B962" s="4"/>
+      <c r="B962" s="9"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="B963" s="4"/>
+      <c r="B963" s="9"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="B964" s="4"/>
+      <c r="B964" s="9"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="B965" s="4"/>
+      <c r="B965" s="9"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="B966" s="4"/>
+      <c r="B966" s="9"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="B967" s="4"/>
+      <c r="B967" s="9"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="B968" s="4"/>
+      <c r="B968" s="9"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="B969" s="4"/>
+      <c r="B969" s="9"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="B970" s="4"/>
+      <c r="B970" s="9"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="B971" s="4"/>
+      <c r="B971" s="9"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="B972" s="4"/>
+      <c r="B972" s="9"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="B973" s="4"/>
+      <c r="B973" s="9"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="B974" s="4"/>
+      <c r="B974" s="9"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="B975" s="4"/>
+      <c r="B975" s="9"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="B976" s="4"/>
+      <c r="B976" s="9"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="B977" s="4"/>
+      <c r="B977" s="9"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="B978" s="4"/>
+      <c r="B978" s="9"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="B979" s="4"/>
+      <c r="B979" s="9"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="B980" s="4"/>
+      <c r="B980" s="9"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="B981" s="4"/>
+      <c r="B981" s="9"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="B982" s="4"/>
+      <c r="B982" s="9"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="B983" s="4"/>
+      <c r="B983" s="9"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="B984" s="4"/>
+      <c r="B984" s="9"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="B985" s="4"/>
+      <c r="B985" s="9"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="B986" s="4"/>
+      <c r="B986" s="9"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="B987" s="4"/>
+      <c r="B987" s="9"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="B988" s="4"/>
+      <c r="B988" s="9"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="B989" s="4"/>
+      <c r="B989" s="9"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="B990" s="4"/>
+      <c r="B990" s="9"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="B991" s="4"/>
+      <c r="B991" s="9"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="B992" s="4"/>
+      <c r="B992" s="9"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="B993" s="4"/>
+      <c r="B993" s="9"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="B994" s="4"/>
+      <c r="B994" s="9"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="B995" s="4"/>
+      <c r="B995" s="9"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="B996" s="4"/>
+      <c r="B996" s="9"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="B997" s="4"/>
+      <c r="B997" s="9"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="B998" s="4"/>
+      <c r="B998" s="9"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="B999" s="4"/>
+      <c r="B999" s="9"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="B1000" s="4"/>
+      <c r="B1000" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$36">
-    <sortState ref="A1:D36">
-      <sortCondition descending="1" ref="B1:B36"/>
+  <autoFilter ref="$A$1:$D$41">
+    <sortState ref="A1:D41">
+      <sortCondition descending="1" ref="B1:B41"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D27"/>
-    <hyperlink r:id="rId2" ref="D28"/>
-    <hyperlink r:id="rId3" ref="D29"/>
-    <hyperlink r:id="rId4" ref="D30"/>
-    <hyperlink r:id="rId5" ref="D31"/>
-    <hyperlink r:id="rId6" ref="D32"/>
-    <hyperlink r:id="rId7" ref="D33"/>
-    <hyperlink r:id="rId8" ref="D34"/>
-    <hyperlink r:id="rId9" ref="D35"/>
-    <hyperlink r:id="rId10" ref="D36"/>
+    <hyperlink r:id="rId1" ref="D6"/>
+    <hyperlink r:id="rId2" ref="D32"/>
+    <hyperlink r:id="rId3" ref="D33"/>
+    <hyperlink r:id="rId4" ref="D34"/>
+    <hyperlink r:id="rId5" ref="D35"/>
+    <hyperlink r:id="rId6" ref="D36"/>
+    <hyperlink r:id="rId7" ref="D37"/>
+    <hyperlink r:id="rId8" ref="D38"/>
+    <hyperlink r:id="rId9" ref="D39"/>
+    <hyperlink r:id="rId10" ref="D40"/>
+    <hyperlink r:id="rId11" ref="D41"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId11"/>
+  <drawing r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -4105,23 +4174,23 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>104</v>
+      <c r="A2" s="4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="11" t="s">
-        <v>105</v>
+      <c r="A3" s="12" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>106</v>
+      <c r="A4" s="4" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>107</v>
+      <c r="A5" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>

--- a/_data/test_timeline.xlsx
+++ b/_data/test_timeline.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
   <si>
     <t>title</t>
   </si>
@@ -33,6 +33,9 @@
     <t>image_link</t>
   </si>
   <si>
+    <t>TBD</t>
+  </si>
+  <si>
     <t>Heritage Community Park and Natural Area</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
   </si>
   <si>
     <t>It rained. We stayed inside.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/5Wiwfl7zWqwbWn74QnnmUYgvdVR5TaSAzXiVqWkg7tRAWOwOwpscvd63JavlLdck6ifHadrF1lHXQrC2_JIIVWNUq5UNVtTUX5tXZ4oIftLF5ulTtOLQq0jzNCbi5AdwJ8hMrux0Ytc=w2400</t>
   </si>
   <si>
     <t>New Years Eve!</t>
@@ -402,12 +408,12 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color theme="1"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Calibri"/>
     </font>
     <font/>
     <font>
@@ -448,22 +454,22 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -715,545 +721,551 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="B2" s="3">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
         <v>44199.0</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
         <v>44198.0</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="4">
         <v>44197.0</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
+      <c r="C4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
         <v>44196.0</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="3">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4">
         <v>44193.0</v>
       </c>
-      <c r="C6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>12</v>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B7" s="9">
         <v>44180.0</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9">
         <v>44180.0</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B9" s="9">
         <v>44179.0</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B10" s="9">
         <v>44178.0</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B11" s="9">
         <v>44168.0</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="8" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B12" s="9">
         <v>44161.0</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" s="9">
         <v>44154.0</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="9">
         <v>44148.0</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="9">
         <v>44148.0</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B16" s="9">
         <v>44134.0</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B17" s="9">
         <v>44120.0</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B18" s="9">
         <v>44101.0</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B19" s="9">
         <v>44099.0</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B20" s="9">
         <v>44087.0</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" s="9">
         <v>44079.0</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B22" s="9">
         <v>44073.0</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="8" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B23" s="9">
         <v>44069.0</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B24" s="9">
         <v>44057.0</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="8" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B25" s="9">
         <v>44035.0</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="8" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B26" s="9">
         <v>44011.0</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B27" s="9">
         <v>44010.0</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B28" s="9">
         <v>44009.0</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B29" s="9">
         <v>44009.0</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B30" s="9">
         <v>44009.0</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B31" s="9">
         <v>43982.0</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="4" t="s">
-        <v>85</v>
+      <c r="A32" s="3" t="s">
+        <v>87</v>
       </c>
       <c r="B32" s="10">
         <v>43903.0</v>
       </c>
-      <c r="C32" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>87</v>
+      <c r="C32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="4" t="s">
-        <v>88</v>
+      <c r="A33" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="B33" s="10">
         <v>43841.0</v>
       </c>
-      <c r="C33" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>90</v>
+      <c r="C33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="4" t="s">
-        <v>91</v>
+      <c r="A34" s="3" t="s">
+        <v>93</v>
       </c>
       <c r="B34" s="10">
         <v>43841.0</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="C34" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="3" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="B35" s="10">
         <v>43841.0</v>
       </c>
-      <c r="C35" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="D35" s="7" t="s">
+      <c r="C35" s="3" t="s">
         <v>94</v>
       </c>
+      <c r="D35" s="6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="4" t="s">
-        <v>95</v>
+      <c r="A36" s="3" t="s">
+        <v>97</v>
       </c>
       <c r="B36" s="10">
         <v>43840.0</v>
       </c>
-      <c r="C36" s="4" t="s">
-        <v>96</v>
+      <c r="C36" s="3" t="s">
+        <v>98</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="4" t="s">
-        <v>98</v>
+      <c r="A37" s="3" t="s">
+        <v>100</v>
       </c>
       <c r="B37" s="10">
         <v>43830.0</v>
       </c>
-      <c r="C37" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>100</v>
+      <c r="C37" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D37" s="6" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="4" t="s">
-        <v>101</v>
+      <c r="A38" s="3" t="s">
+        <v>103</v>
       </c>
       <c r="B38" s="10">
         <v>43830.0</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>103</v>
+      <c r="C38" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="4" t="s">
-        <v>104</v>
+      <c r="A39" s="3" t="s">
+        <v>106</v>
       </c>
       <c r="B39" s="10">
         <v>43826.0</v>
       </c>
-      <c r="C39" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>106</v>
+      <c r="C39" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="4" t="s">
-        <v>107</v>
+      <c r="A40" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="B40" s="10">
         <v>43826.0</v>
       </c>
-      <c r="C40" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>109</v>
+      <c r="C40" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B41" s="3">
+      <c r="A41" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B41" s="4">
         <v>43665.0</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -4140,22 +4152,23 @@
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D6"/>
-    <hyperlink r:id="rId2" ref="D32"/>
-    <hyperlink r:id="rId3" ref="D33"/>
-    <hyperlink r:id="rId4" ref="D34"/>
-    <hyperlink r:id="rId5" ref="D35"/>
-    <hyperlink r:id="rId6" ref="D36"/>
-    <hyperlink r:id="rId7" ref="D37"/>
-    <hyperlink r:id="rId8" ref="D38"/>
-    <hyperlink r:id="rId9" ref="D39"/>
-    <hyperlink r:id="rId10" ref="D40"/>
-    <hyperlink r:id="rId11" ref="D41"/>
+    <hyperlink r:id="rId1" ref="D4"/>
+    <hyperlink r:id="rId2" ref="D6"/>
+    <hyperlink r:id="rId3" ref="D32"/>
+    <hyperlink r:id="rId4" ref="D33"/>
+    <hyperlink r:id="rId5" ref="D34"/>
+    <hyperlink r:id="rId6" ref="D35"/>
+    <hyperlink r:id="rId7" ref="D36"/>
+    <hyperlink r:id="rId8" ref="D37"/>
+    <hyperlink r:id="rId9" ref="D38"/>
+    <hyperlink r:id="rId10" ref="D39"/>
+    <hyperlink r:id="rId11" ref="D40"/>
+    <hyperlink r:id="rId12" ref="D41"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId12"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -4174,23 +4187,23 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4" t="s">
-        <v>113</v>
+      <c r="A2" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>115</v>
+      <c r="A4" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>116</v>
+      <c r="A5" s="3" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>

--- a/_data/test_timeline.xlsx
+++ b/_data/test_timeline.xlsx
@@ -7,19 +7,19 @@
     <sheet state="visible" name="instructions" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">timeline!$A$1:$D$41</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">timeline!$A$1:$D$42</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjp/nB6fFaIeAsQMnPT38pD47xMqA=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mji8uKB+lkou8Du9ohNqFvpfikqjQ=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
   <si>
     <t>title</t>
   </si>
@@ -33,352 +33,370 @@
     <t>image_link</t>
   </si>
   <si>
-    <t>TBD</t>
-  </si>
-  <si>
-    <t>Heritage Community Park and Natural Area</t>
-  </si>
-  <si>
-    <t>Gia and I checked out Heritage Park in Blacksburg. Gia also scored me a stylish Virginia Tech jacket!</t>
-  </si>
-  <si>
-    <t>New Years Day!</t>
-  </si>
-  <si>
-    <t>It rained. We stayed inside.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/5Wiwfl7zWqwbWn74QnnmUYgvdVR5TaSAzXiVqWkg7tRAWOwOwpscvd63JavlLdck6ifHadrF1lHXQrC2_JIIVWNUq5UNVtTUX5tXZ4oIftLF5ulTtOLQq0jzNCbi5AdwJ8hMrux0Ytc=w2400</t>
-  </si>
-  <si>
-    <t>New Years Eve!</t>
-  </si>
-  <si>
-    <t>Gia and I went to checkout Blacksburg Municipal Park with the girls, before coming home and enjoying some fried rice from Spicty and watching Tenet. We (kinda) celebrate the countdown on the Watercooler discord server.</t>
-  </si>
-  <si>
-    <t>Happy Birthday Matcha!</t>
-  </si>
-  <si>
-    <t>Matcha got her own carrot, honey and peanutbutter cake. (Mango snuck some bites in too)</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/T4zyrny50iXRZOqAUcxZZ60-fKtXGZWipf2wmksX0UxT2w16AqIdHRWqfFKG8YlJ-XVxKwnRajhrmgcvWGq_chqz8RMgqmG7r_kWDu1MRZAPGQ2XcMDEMD7HbzKNf3uzjOAhsaY9G7o=w2400</t>
-  </si>
-  <si>
-    <t>Christmas Girls!</t>
-  </si>
-  <si>
-    <t>Gia loves this picture.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/n6jfU7FMoJs1konKMoRsTPuRbneVs6WNlF1AtJ5JpN5vEXZdkB24eFmCjg4vyQwJ2F3K-zWHLr97ECj0U7LU1dRedCKOygVUV0JSeQBajKMMVS8Tfu-VwaVQK-AYQr47XJGUd-U5mb8=w2400</t>
-  </si>
-  <si>
-    <t>Matcha and Mango Hanging Out</t>
-  </si>
-  <si>
-    <t>Relaxing as usual.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/46ULbuQXBxmHzss6qhp9ojBjR2ka9UnUmqflWHRc3z6bYWYLrAncwlYnTe7pYwjRd3QZkSVI8s_X55Fhbiu1ZZZyZWZfWhgrJgGJvDC91S5RrGKcq0wDv3cQ6K27XiY3ySpZwsaSiFo=w2400</t>
-  </si>
-  <si>
-    <t>Finished My First Semester @ VT!</t>
-  </si>
-  <si>
-    <t>Feels good to be free (for now...)!</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/hRQsvLqY2jdeD4tZdDC93J7nj-6yncMLZqUOBEWVYCfK3HUGyDYh-XoXLa-JzCwy9-y5EdRvueptWM3CH0JFO5d3smcCphhxcgxmcLMGsVxg5cw0d1K45kSShMDeCDVfyGbQSNYOW48=w2400</t>
-  </si>
-  <si>
-    <t>Matcha and Mango Sunbathing</t>
-  </si>
-  <si>
-    <t>It's a part of their daily routine.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/A4zBD3WhaHM5f2cPZZjC_l4qdNR7WjzjulWwyFgwVQ1f7ccmPvB_RRbKQQ8qTP0U1drkZKESc6hAK5eBAMPZcvzrJ0mjr1xz5msQPogxCNv9RO4mB3cJC9z6II4_wtPV0OBJuVSW6dM=w2400</t>
-  </si>
-  <si>
-    <t>Mango Claims the Banana</t>
-  </si>
-  <si>
-    <t>The banana war continues.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/5Q5DYpkq4MY5uoCLQt6Okm2lCYTRI3QNFT42wKv3C6AdpySu1lWHyhcbJvavYXxpW3uKHdOj4svhrta4Z9IXa_-xrpxajahw5Y9sA7368qwZe-eW8b4NrV6SxgdN4IY7-5OxipZe_18=w2400</t>
-  </si>
-  <si>
-    <t>Thanksgiving Pitstop!</t>
-  </si>
-  <si>
-    <t>We stopped by this overview off of I-64 on our way to get some Thanksgiving Dinner</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/JhfACi6nLb8KjwpKdD_wbRn86w3TaFWWcFNjd-5_1UK1n92vgSTlag4iUGdU5Ex52FTodrDy0UVdr34KGRL15AKwzXJ2J8eGSSRv3i18E786HfnPbYZ86HvJKS6pqaKVnLcmqEspuzo=w2400</t>
-  </si>
-  <si>
-    <t>Matcha and Mango's Banana</t>
-  </si>
-  <si>
-    <t>The two girls have decided to share the banana bed :)</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/ONiCGxvoQthkRtSDtRzzKeAKlYaWBeD5nu7S-jT_ZzjSvrpuxstO1fxpC3_IMPh7i3lls66v4RWWykCuwEnV8wBVKYKMDpLqb9Q8S4lS_MjBVy8K6y8LmkukE89HyqxR4DRnEgLhSjY=w2400</t>
-  </si>
-  <si>
-    <t>Mango Comes Home!</t>
-  </si>
-  <si>
-    <t>She sure is the little hellion…</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/c04JB6jVPl5l-5x4H3nzHR-n8xIYH5ydbD9uRRaL6knKYJab6aw9ACecmhbT3Eg9xrlT1noxPNTo0yCvFOIZTImGv8k9q1x9nqtqxPp8KBolaerU6RG1c8UONSfyUPBqdsIz3VijTIE=w2400</t>
-  </si>
-  <si>
-    <t>We were super excited to welcome Mango Ha-Shears into our family.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/QVeW4icGOJcV_mWw5KSKzIB-M4jE7A0rf5pj56_s2cX0lDx-tvfWKoksbUcseNz0EKA0PcW6t4eZOJylqXZVgjY8ev7k7r__CpXv3t0ECPiujdL5-oPmoj907bQa_3jwbr3aSX9hveE=w2400</t>
-  </si>
-  <si>
-    <t>Matcha's Banana Bed</t>
-  </si>
-  <si>
-    <t>This was Matcha's halloween costume.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/gK-I0YEXrU8A2o_TL4qXrITjl206PrTWfJn5_ShOFrT-ty7pLfz6iOW86Wz1wBGGfbobw8AZ2LzRrFMFd5BwrELCaKeh6dNeboupA0SiKXLsm0Af7HYY7P9rPHSXXY070gNlQQI6TJo=w2400</t>
-  </si>
-  <si>
-    <t>Match has an Accident :(</t>
-  </si>
-  <si>
-    <t>She swallowed a sewing needle, but came out of surgery ok!</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/ymXjuXfPQvoV4wxvf8xgQfpQ6kXZ0a1V3i_wfqjHg5zlUDsEBSKte1mdRy0GEjr7w0YfEt4D7Gxq84_BRuwA9PwOY3RBEt1UMtjLztUgVw87wKUU2ymcIEpJg82ic0h-gZM4DJo7tWM=w2400</t>
-  </si>
-  <si>
-    <t>Gia the Grill Master</t>
-  </si>
-  <si>
-    <t>Gia was pressed to cook her corn.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/GzfaPCRqipCap15rgeOmMCyggHlTS4i-Ldy-dV2obqoW8cqwABNMhXdPuvJLjPk8WqNKuWIecRoyh1dSClwvpOmXjk6w_Jmz0N8dQ7iHQGU_UZ_9_kUYsCYa72nPhMNf06wt-tYPdHo=w2400</t>
-  </si>
-  <si>
-    <t>We moved to Blacksburg, VA!</t>
-  </si>
-  <si>
-    <t>Blacksburg turned out to be a beautiful area, with a lack of good food options.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/nauC1SWvvNtTbyJSErsVWFFKDALhomv1XqXVvdNv0Tk7eVGCMjNtbHNKdXyInERZ1FnWY1Q_t7tlC980xCDmz4-UsY_n0MVkJRES1uVlRFUbuMb3grThJi4qrN7xIW0qAF0k40eaUqk=w2400</t>
-  </si>
-  <si>
-    <t>Cascade Falls</t>
-  </si>
-  <si>
-    <t>Our old friend Jason Pham comes down to visit us in Blacksburg and hike at Cascade Falls!</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/5zYDIBU-OsDmCtJVrVO9lovoNjtDJr-jxruiHlXtKdzl4OiV7EWKLdzNqB3R6YAHhhqUm0_bUtSHl6-b2jafBpTxzXzY9OrWjxu_3HpA9UQZxFTw0-HNFFwp36-udbZOG0Iu2_lUM1M=w2400</t>
-  </si>
-  <si>
-    <t>Kayaking in the New River</t>
-  </si>
-  <si>
-    <t>Our first time kayaking on the New River!</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/kjUIrfWxHMjdyOoVYuzXpnoUUqR5vwchrP15jGQcJ9Wx7pBVzGdqokHdjRt5nnA5SeiA3VWV8y-hluiJIJFRIo9pCwLAsUkX_gVLPgG6EOWja3WnPAA6pRb899xDvQe8jB3orzp-Nl0=w2400</t>
-  </si>
-  <si>
-    <t>Graduate School Begins!</t>
-  </si>
-  <si>
-    <t>Matcha looks just as happy as I was.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/_Oe7CFrxYrpgHb3cR4qTp2JOKW8ss6CVgw6HBb_-I2rQU9FNvQ4_veR3B8XNyhmXTcz_9P-EbFA3THRB9aqNEz-yG8DdhYSYzsMy6oTHdkBan28Oq71JL94gbTQiFSTszhJHquxiU3s=w2400</t>
-  </si>
-  <si>
-    <t>Yappy Hour!</t>
-  </si>
-  <si>
-    <t>Our apartment complex hosted a Yappy Hour!</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/_MyfJfzLoaJ-aoKX42OiJ1W7Rn6QU9CYP4oajwXtIsMnMG7IkznzJhyylNtX2AzFSX_LN4nsLf8p_ntVN3hdfohWZi5Anwc06p5facsDi2wnfxyuHsrUnFx2XYhnbg_C08KWf9TLcWY=w2400</t>
-  </si>
-  <si>
-    <t>A Father and His Sons</t>
-  </si>
-  <si>
-    <t>He's a very proud father</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/2Ylyhd5tx0OOQEkLowTXVnQLNueflTnuJA5oa1D0ih3l2G1BT04S18B6Kw2ASvwWFMCoOGCaV0plXCI7p9N9K0Ssa8dCSxMb_A9Pu32BDUIIjz9WhrErcLuCZMvOVeXxCqozcgYNk5c=w2400</t>
-  </si>
-  <si>
-    <t>Gia Surprises Me!</t>
-  </si>
-  <si>
-    <t>Each sticky note is an individual food-related pickup line.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/kfDE0hZurgLEgyjEFphNM7fryszV_GKGMy8afqZobd0qqak8ln4iDqbJf8CDsvH1qtdTV6fGmQVzoygWW3fBnhN-k59ESMVtRT7fpVDH9aegliBY_3ZCo7747QwqbdBEdDLyJqV9TcI=w2400</t>
-  </si>
-  <si>
-    <t>Matcha After the Spay</t>
-  </si>
-  <si>
-    <t>She came out of her spay procedure ok!</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/lw-27UA3q_zLdPGxhHUcSiX8SXR6uLtfdh6u9Ele1qhaDQP77PlWo1v9CUeF9qwGaTPD433JX_f9tbIDwHq8h3cm3iMyTTQn5EvZrddxngiJVoQK_w2tyUIdmSbrB0wqQQA405pA2zM=w2400</t>
-  </si>
-  <si>
-    <t>Seneca Rocks</t>
-  </si>
-  <si>
-    <t>Matcha enjoyed hiking halfway up Seneca Rocks</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/koTdD8pTrTf18L0K8gi4v6QPK-4v5QZwBx2Kb9lox3fLx7tyMwjG6GIVp2DOqicLzQ0SEyTGjXc7wVoTAeYDTcek5rKTaKKolCgOuIf9lheL3yJt2SaG_gainzJSavwO53cNaOoDAnM=w2400</t>
-  </si>
-  <si>
-    <t>Seneca Rocks, West Virginia</t>
-  </si>
-  <si>
-    <t>We only made it halfway :)</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/DJ4FtcRALXXMrFW4AB6YU57GiVaeRWOmR8qBkFcs2BiOr5w1SOEmVlbnr19pTQ9lcAH04JwAXNstYj1cvv7yntCt9ld1upkQlg2F0of7l6UKln5khuMTjX6YPfKSWEXALWPTZu_TvlE=w2400</t>
-  </si>
-  <si>
-    <t>Spruce Knob</t>
-  </si>
-  <si>
-    <t>We visited the highest point in West Virginia! Afterwards we camped near Seneca Rocks. The trip ended with a visit to Luray Caverns.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/y-7iOazZzW8sJYRHtaLtxdwLdlWAWIQTam2OZzPh8LE9-HJ1O7JnbkTYW3XOicraC-kK5FWIVen5yZNKrh94mbbuEUl8QFOx_6uquTLMfikeEpoXb5wlecvziC016FwfiWsVSRZEsWg=w2400</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/5GvgNMZwUb9ZxblwXMow6b733CL9gfBNT2_5VhcRmXZ62QFxvFViWoUGaNA_Zl-lIk4MxtuwaNfQ3aCKO9TeSYbJIpVUtJKxxNj6aD_z-f0x33oFl7t8KQFyhL8MENdfT8WjED2V3R4=w2400</t>
-  </si>
-  <si>
-    <t>Little Devil Stairs</t>
-  </si>
-  <si>
-    <t>We hiked up Little Devil Stairs at Shenandoah National Park</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/vfkLTwaR-cWaGbcs37gEU58kzvTEmNMsHIVHMDuIzu7JAwmuz8RUm5to6TZtiBR8eRl86ncdlExliUyMCcS9iXf9meQGfEQkdL7hYQi0MTBamZnm2YNR1O20UQOBExZ3sE28YsC8tbY=w2400</t>
-  </si>
-  <si>
-    <t>Matcha Comes Home</t>
-  </si>
-  <si>
-    <t>This is the day we first picked Matcha up. Definitely a day to remember.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/rUkh9QobhUqr8wMIyP5p2Hs0W_um6EcbiqH4RsFuqqOQDTyrMcAHAFNSe2ReDyCFio_UuAXEExjTGuCB4mmdTM1aDrw0ie82BbdxgohVJLJ67UGT6QeaA8IH9N0MzLuVW9H8VdAD3UI=w2400</t>
-  </si>
-  <si>
-    <t>Hoover Dam!</t>
-  </si>
-  <si>
-    <t>While visiting our friend Jerry Romero in California, we visit the Hoover Dam and took some stunning images.</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/95k0WhpX4kxufYUod_yiIO4A5x3OVyztwtOA3DPJwTjsk3uEnP9xjwXgYZ6vii9jXS7KCWnH01dH6roiD3RfQPQFGsBeD_bSPOuYvSBKVATN8jp3pCpsznItZHSu60RFsuKv2kNJVUA=w2400</t>
-  </si>
-  <si>
-    <t>Red Rock Canyon!</t>
-  </si>
-  <si>
-    <t>While visiting Jerry we also drove over to Las Vegas, NV and visited the Red Rock Canyon National Conservation Area</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/VyB6GT2lvrnQ2DCoJb4ieAO7TmYbLGOqtulEwSakoGKTKRrNnNt7LjDquwEXVIudvhzVPM6nYsuukenmaWT6SdiDhOi_mkR4vcD6e2ih24ZfpHDEWVd0WS0MT2W31NFR9bJEUnw7_2k=w2400</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/9Bmkbckei5H4aSRe7OGZKdpziaS4UlhcZdts7StG03oI52pCl7jbu_YAS9oglv_BEnd6jpk2Y794g1BlYRbSn-kvfcVt4A0_O3CyrrY1q3P8Iv9eUfdo1-F1us7GFLnxK0dJ7KBEcG0=w2400</t>
-  </si>
-  <si>
-    <t>Big Bear Lake!</t>
-  </si>
-  <si>
-    <t>Gia, Huy Dang and I visit our friend Jerry Romero in California. In this picture we checked out Big Bear Lake in the San Bernadino Mountains</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/OyC92bak7uCupaicl0_AqN5mzvVd1R18FGXc48q45GuQw1YKVNoMIeWjk4DdA9x3R3_lAJOLN7RmULf7uAT1EScDrNqE8CWtipwmG9o-RGn7WY-oS3HxH1e1sAQpBabUCvoqsuKrR_U=w2400</t>
-  </si>
-  <si>
-    <t>We got engaged!</t>
-  </si>
-  <si>
-    <t>I proposed to Gia using a cool looking comic book puzzle. Sponsored by Etsy!</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/nBUI-zoN7YHfQ18OfLox1rbUJJQCjIqKaaxG32zjtORBuNjo6_Xi1orBJwHSSlvt4W23ZqAZN-sEe9yk1vTnXYXdLDIZcto9ublyNYWSvn4T6BIDVrdccoZlTGTH2aZ1aomHXaQcVrQ=w2400</t>
-  </si>
-  <si>
-    <t>The Engagement Puzzle!</t>
-  </si>
-  <si>
-    <t>This engagement was brought to you by Etsy!</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/bOQ9EoOHZsx_J6eEzEc2-OVUUZIJfy20xWa0doHfJhkp8Fddkynd9CH5GySCsBY9_mPlxVq8YsugS5YzDVyW6is7AZyGM23UU9bRlF1CV_x8MrT-TyLVdJ9oR_DQd1lNaB-KbiZdk0U=w2400</t>
-  </si>
-  <si>
-    <t>Gia Falls in a Ditch</t>
-  </si>
-  <si>
-    <t>It wasn't her highest moment...</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/LMuNA6wH-EUMNHY2gbHCAQJLs0xYaDr6T_tsUXL85IkCB9n8c96NklV0lFw621JAhmIBee7rl5qW8RqM0znSaLSB8SmaeVByHWMv6nXimzETT54TTPwhi40M1W9YSQQRLpyW0CExUTQ=w2400</t>
-  </si>
-  <si>
-    <t>Zion's First Time Skiing</t>
-  </si>
-  <si>
-    <t>It was more painful than it looks...</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/fR_-HRxfj-a1DYy8sN5y8r1lN03BNVwYdxQTwhUG7G4Fcc-sTeGfmRhMCw0GG3q8YyPMYwrGpWfzcKOcnrfe05l6zdWo1h6SdOw8-GM_DchokcogcKlLNMsjgtpnqTjpjwlSYyxXGFo=w2400</t>
-  </si>
-  <si>
-    <t>Visiting Toledo!</t>
-  </si>
-  <si>
-    <t>We visited my step mom's family in Toledo, Ohio!</t>
-  </si>
-  <si>
-    <t>https://lh3.googleusercontent.com/lW85jR7VmVJ3yseAaI_5Km0vVdyoWw4AUCCPfThnH4bt5YcY5Cwh4VM1bsHYp4V5aU90qwzHJLz_BtucGCxeONmZxqflHDBO5vORGjoLO0dIqebhC4Y70gC5TeF6wZdeB0hnRe7m_lk=w2400</t>
-  </si>
-  <si>
-    <t>Get shared photo link</t>
+    <t>Matcha Mug!</t>
+  </si>
+  <si>
+    <t>Our good friend Maryam Ansari got us a customized Matcha Mug from Etsy for Christmas! This is truly one of the best gifts we have both ever recieved!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/xM2oMq_i5VgUawbkPAApVMsZVJ7e5umni5cmtTYtNF5TBqd0eI3rnvHsFK3iKUASoxLvN50DvdQW4Z1Ut0Fe71sdThSbwvd89b2rpQSprJtesvNWPpaSKfvw1JeAyCBHKjCE7iBto8I=w2400</t>
+  </si>
+  <si>
+    <t>Enchiladas!</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Paste link into </t>
+      <t xml:space="preserve">Gia and I made enchiladas for the first time thanks to a meal kit sent to us by </t>
     </r>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>https://www.labnol.org/embed/google/photos/</t>
+      <t>Dinerly.com</t>
     </r>
+    <r>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>Heritage Community Park and Natural Area</t>
+  </si>
+  <si>
+    <t>Gia and I checked out Heritage Park in Blacksburg. Gia also scored me a stylish Virginia Tech jacket!</t>
+  </si>
+  <si>
+    <t>New Years Day!</t>
+  </si>
+  <si>
+    <t>It rained. We stayed inside.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/5Wiwfl7zWqwbWn74QnnmUYgvdVR5TaSAzXiVqWkg7tRAWOwOwpscvd63JavlLdck6ifHadrF1lHXQrC2_JIIVWNUq5UNVtTUX5tXZ4oIftLF5ulTtOLQq0jzNCbi5AdwJ8hMrux0Ytc=w2400</t>
+  </si>
+  <si>
+    <t>New Years Eve!</t>
+  </si>
+  <si>
+    <t>Gia and I went to checkout Blacksburg Municipal Park with the girls, before coming home and enjoying some fried rice from Spicty and watching Tenet. We (kinda) celebrate the countdown on the Watercooler discord server.</t>
+  </si>
+  <si>
+    <t>Happy Birthday Matcha!</t>
+  </si>
+  <si>
+    <t>Matcha got her own carrot, honey and peanutbutter cake. (Mango snuck some bites in too)</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/T4zyrny50iXRZOqAUcxZZ60-fKtXGZWipf2wmksX0UxT2w16AqIdHRWqfFKG8YlJ-XVxKwnRajhrmgcvWGq_chqz8RMgqmG7r_kWDu1MRZAPGQ2XcMDEMD7HbzKNf3uzjOAhsaY9G7o=w2400</t>
+  </si>
+  <si>
+    <t>Christmas Girls!</t>
+  </si>
+  <si>
+    <t>Gia loves this picture.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/n6jfU7FMoJs1konKMoRsTPuRbneVs6WNlF1AtJ5JpN5vEXZdkB24eFmCjg4vyQwJ2F3K-zWHLr97ECj0U7LU1dRedCKOygVUV0JSeQBajKMMVS8Tfu-VwaVQK-AYQr47XJGUd-U5mb8=w2400</t>
+  </si>
+  <si>
+    <t>Matcha and Mango Hanging Out</t>
+  </si>
+  <si>
+    <t>Relaxing as usual.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/46ULbuQXBxmHzss6qhp9ojBjR2ka9UnUmqflWHRc3z6bYWYLrAncwlYnTe7pYwjRd3QZkSVI8s_X55Fhbiu1ZZZyZWZfWhgrJgGJvDC91S5RrGKcq0wDv3cQ6K27XiY3ySpZwsaSiFo=w2400</t>
+  </si>
+  <si>
+    <t>Finished My First Semester @ VT!</t>
+  </si>
+  <si>
+    <t>Feels good to be free (for now...)!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/hRQsvLqY2jdeD4tZdDC93J7nj-6yncMLZqUOBEWVYCfK3HUGyDYh-XoXLa-JzCwy9-y5EdRvueptWM3CH0JFO5d3smcCphhxcgxmcLMGsVxg5cw0d1K45kSShMDeCDVfyGbQSNYOW48=w2400</t>
+  </si>
+  <si>
+    <t>Matcha and Mango Sunbathing</t>
+  </si>
+  <si>
+    <t>It's a part of their daily routine.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/A4zBD3WhaHM5f2cPZZjC_l4qdNR7WjzjulWwyFgwVQ1f7ccmPvB_RRbKQQ8qTP0U1drkZKESc6hAK5eBAMPZcvzrJ0mjr1xz5msQPogxCNv9RO4mB3cJC9z6II4_wtPV0OBJuVSW6dM=w2400</t>
+  </si>
+  <si>
+    <t>Mango Claims the Banana</t>
+  </si>
+  <si>
+    <t>The banana war continues.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/5Q5DYpkq4MY5uoCLQt6Okm2lCYTRI3QNFT42wKv3C6AdpySu1lWHyhcbJvavYXxpW3uKHdOj4svhrta4Z9IXa_-xrpxajahw5Y9sA7368qwZe-eW8b4NrV6SxgdN4IY7-5OxipZe_18=w2400</t>
+  </si>
+  <si>
+    <t>Thanksgiving Pitstop!</t>
+  </si>
+  <si>
+    <t>We stopped by this overview off of I-64 on our way to get some Thanksgiving Dinner</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/JhfACi6nLb8KjwpKdD_wbRn86w3TaFWWcFNjd-5_1UK1n92vgSTlag4iUGdU5Ex52FTodrDy0UVdr34KGRL15AKwzXJ2J8eGSSRv3i18E786HfnPbYZ86HvJKS6pqaKVnLcmqEspuzo=w2400</t>
+  </si>
+  <si>
+    <t>Matcha and Mango's Banana</t>
+  </si>
+  <si>
+    <t>The two girls have decided to share the banana bed :)</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/ONiCGxvoQthkRtSDtRzzKeAKlYaWBeD5nu7S-jT_ZzjSvrpuxstO1fxpC3_IMPh7i3lls66v4RWWykCuwEnV8wBVKYKMDpLqb9Q8S4lS_MjBVy8K6y8LmkukE89HyqxR4DRnEgLhSjY=w2400</t>
+  </si>
+  <si>
+    <t>Mango Comes Home!</t>
+  </si>
+  <si>
+    <t>She sure is the little hellion…</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/c04JB6jVPl5l-5x4H3nzHR-n8xIYH5ydbD9uRRaL6knKYJab6aw9ACecmhbT3Eg9xrlT1noxPNTo0yCvFOIZTImGv8k9q1x9nqtqxPp8KBolaerU6RG1c8UONSfyUPBqdsIz3VijTIE=w2400</t>
+  </si>
+  <si>
+    <t>We were super excited to welcome Mango Ha-Shears into our family.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/QVeW4icGOJcV_mWw5KSKzIB-M4jE7A0rf5pj56_s2cX0lDx-tvfWKoksbUcseNz0EKA0PcW6t4eZOJylqXZVgjY8ev7k7r__CpXv3t0ECPiujdL5-oPmoj907bQa_3jwbr3aSX9hveE=w2400</t>
+  </si>
+  <si>
+    <t>Matcha's Banana Bed</t>
+  </si>
+  <si>
+    <t>This was Matcha's halloween costume.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/gK-I0YEXrU8A2o_TL4qXrITjl206PrTWfJn5_ShOFrT-ty7pLfz6iOW86Wz1wBGGfbobw8AZ2LzRrFMFd5BwrELCaKeh6dNeboupA0SiKXLsm0Af7HYY7P9rPHSXXY070gNlQQI6TJo=w2400</t>
+  </si>
+  <si>
+    <t>Match has an Accident :(</t>
+  </si>
+  <si>
+    <t>She swallowed a sewing needle, but came out of surgery ok!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/ymXjuXfPQvoV4wxvf8xgQfpQ6kXZ0a1V3i_wfqjHg5zlUDsEBSKte1mdRy0GEjr7w0YfEt4D7Gxq84_BRuwA9PwOY3RBEt1UMtjLztUgVw87wKUU2ymcIEpJg82ic0h-gZM4DJo7tWM=w2400</t>
+  </si>
+  <si>
+    <t>Gia the Grill Master</t>
+  </si>
+  <si>
+    <t>Gia was pressed to cook her corn.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/GzfaPCRqipCap15rgeOmMCyggHlTS4i-Ldy-dV2obqoW8cqwABNMhXdPuvJLjPk8WqNKuWIecRoyh1dSClwvpOmXjk6w_Jmz0N8dQ7iHQGU_UZ_9_kUYsCYa72nPhMNf06wt-tYPdHo=w2400</t>
+  </si>
+  <si>
+    <t>We moved to Blacksburg, VA!</t>
+  </si>
+  <si>
+    <t>Blacksburg turned out to be a beautiful area, with a lack of good food options.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/nauC1SWvvNtTbyJSErsVWFFKDALhomv1XqXVvdNv0Tk7eVGCMjNtbHNKdXyInERZ1FnWY1Q_t7tlC980xCDmz4-UsY_n0MVkJRES1uVlRFUbuMb3grThJi4qrN7xIW0qAF0k40eaUqk=w2400</t>
+  </si>
+  <si>
+    <t>Cascade Falls</t>
+  </si>
+  <si>
+    <t>Our old friend Jason Pham comes down to visit us in Blacksburg and hike at Cascade Falls!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/5zYDIBU-OsDmCtJVrVO9lovoNjtDJr-jxruiHlXtKdzl4OiV7EWKLdzNqB3R6YAHhhqUm0_bUtSHl6-b2jafBpTxzXzY9OrWjxu_3HpA9UQZxFTw0-HNFFwp36-udbZOG0Iu2_lUM1M=w2400</t>
+  </si>
+  <si>
+    <t>Kayaking in the New River</t>
+  </si>
+  <si>
+    <t>Our first time kayaking on the New River!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/kjUIrfWxHMjdyOoVYuzXpnoUUqR5vwchrP15jGQcJ9Wx7pBVzGdqokHdjRt5nnA5SeiA3VWV8y-hluiJIJFRIo9pCwLAsUkX_gVLPgG6EOWja3WnPAA6pRb899xDvQe8jB3orzp-Nl0=w2400</t>
+  </si>
+  <si>
+    <t>Graduate School Begins!</t>
+  </si>
+  <si>
+    <t>Matcha looks just as happy as I was.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/_Oe7CFrxYrpgHb3cR4qTp2JOKW8ss6CVgw6HBb_-I2rQU9FNvQ4_veR3B8XNyhmXTcz_9P-EbFA3THRB9aqNEz-yG8DdhYSYzsMy6oTHdkBan28Oq71JL94gbTQiFSTszhJHquxiU3s=w2400</t>
+  </si>
+  <si>
+    <t>Yappy Hour!</t>
+  </si>
+  <si>
+    <t>Our apartment complex hosted a Yappy Hour!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/_MyfJfzLoaJ-aoKX42OiJ1W7Rn6QU9CYP4oajwXtIsMnMG7IkznzJhyylNtX2AzFSX_LN4nsLf8p_ntVN3hdfohWZi5Anwc06p5facsDi2wnfxyuHsrUnFx2XYhnbg_C08KWf9TLcWY=w2400</t>
+  </si>
+  <si>
+    <t>A Father and His Sons</t>
+  </si>
+  <si>
+    <t>He's a very proud father</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/2Ylyhd5tx0OOQEkLowTXVnQLNueflTnuJA5oa1D0ih3l2G1BT04S18B6Kw2ASvwWFMCoOGCaV0plXCI7p9N9K0Ssa8dCSxMb_A9Pu32BDUIIjz9WhrErcLuCZMvOVeXxCqozcgYNk5c=w2400</t>
+  </si>
+  <si>
+    <t>Gia Surprises Me!</t>
+  </si>
+  <si>
+    <t>Each sticky note is an individual food-related pickup line.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/kfDE0hZurgLEgyjEFphNM7fryszV_GKGMy8afqZobd0qqak8ln4iDqbJf8CDsvH1qtdTV6fGmQVzoygWW3fBnhN-k59ESMVtRT7fpVDH9aegliBY_3ZCo7747QwqbdBEdDLyJqV9TcI=w2400</t>
+  </si>
+  <si>
+    <t>Matcha After the Spay</t>
+  </si>
+  <si>
+    <t>She came out of her spay procedure ok!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/lw-27UA3q_zLdPGxhHUcSiX8SXR6uLtfdh6u9Ele1qhaDQP77PlWo1v9CUeF9qwGaTPD433JX_f9tbIDwHq8h3cm3iMyTTQn5EvZrddxngiJVoQK_w2tyUIdmSbrB0wqQQA405pA2zM=w2400</t>
+  </si>
+  <si>
+    <t>Seneca Rocks</t>
+  </si>
+  <si>
+    <t>Matcha enjoyed hiking halfway up Seneca Rocks</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/koTdD8pTrTf18L0K8gi4v6QPK-4v5QZwBx2Kb9lox3fLx7tyMwjG6GIVp2DOqicLzQ0SEyTGjXc7wVoTAeYDTcek5rKTaKKolCgOuIf9lheL3yJt2SaG_gainzJSavwO53cNaOoDAnM=w2400</t>
+  </si>
+  <si>
+    <t>Seneca Rocks, West Virginia</t>
+  </si>
+  <si>
+    <t>We only made it halfway :)</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/DJ4FtcRALXXMrFW4AB6YU57GiVaeRWOmR8qBkFcs2BiOr5w1SOEmVlbnr19pTQ9lcAH04JwAXNstYj1cvv7yntCt9ld1upkQlg2F0of7l6UKln5khuMTjX6YPfKSWEXALWPTZu_TvlE=w2400</t>
+  </si>
+  <si>
+    <t>Spruce Knob</t>
+  </si>
+  <si>
+    <t>We visited the highest point in West Virginia! Afterwards we camped near Seneca Rocks. The trip ended with a visit to Luray Caverns.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/y-7iOazZzW8sJYRHtaLtxdwLdlWAWIQTam2OZzPh8LE9-HJ1O7JnbkTYW3XOicraC-kK5FWIVen5yZNKrh94mbbuEUl8QFOx_6uquTLMfikeEpoXb5wlecvziC016FwfiWsVSRZEsWg=w2400</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/5GvgNMZwUb9ZxblwXMow6b733CL9gfBNT2_5VhcRmXZ62QFxvFViWoUGaNA_Zl-lIk4MxtuwaNfQ3aCKO9TeSYbJIpVUtJKxxNj6aD_z-f0x33oFl7t8KQFyhL8MENdfT8WjED2V3R4=w2400</t>
+  </si>
+  <si>
+    <t>Little Devil Stairs</t>
+  </si>
+  <si>
+    <t>We hiked up Little Devil Stairs at Shenandoah National Park</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/vfkLTwaR-cWaGbcs37gEU58kzvTEmNMsHIVHMDuIzu7JAwmuz8RUm5to6TZtiBR8eRl86ncdlExliUyMCcS9iXf9meQGfEQkdL7hYQi0MTBamZnm2YNR1O20UQOBExZ3sE28YsC8tbY=w2400</t>
+  </si>
+  <si>
+    <t>Matcha Comes Home</t>
+  </si>
+  <si>
+    <t>This is the day we first picked Matcha up. Definitely a day to remember.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/rUkh9QobhUqr8wMIyP5p2Hs0W_um6EcbiqH4RsFuqqOQDTyrMcAHAFNSe2ReDyCFio_UuAXEExjTGuCB4mmdTM1aDrw0ie82BbdxgohVJLJ67UGT6QeaA8IH9N0MzLuVW9H8VdAD3UI=w2400</t>
+  </si>
+  <si>
+    <t>Hoover Dam!</t>
+  </si>
+  <si>
+    <t>While visiting our friend Jerry Romero in California, we visit the Hoover Dam and took some stunning images.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/95k0WhpX4kxufYUod_yiIO4A5x3OVyztwtOA3DPJwTjsk3uEnP9xjwXgYZ6vii9jXS7KCWnH01dH6roiD3RfQPQFGsBeD_bSPOuYvSBKVATN8jp3pCpsznItZHSu60RFsuKv2kNJVUA=w2400</t>
+  </si>
+  <si>
+    <t>Red Rock Canyon!</t>
+  </si>
+  <si>
+    <t>While visiting Jerry we also drove over to Las Vegas, NV and visited the Red Rock Canyon National Conservation Area</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/VyB6GT2lvrnQ2DCoJb4ieAO7TmYbLGOqtulEwSakoGKTKRrNnNt7LjDquwEXVIudvhzVPM6nYsuukenmaWT6SdiDhOi_mkR4vcD6e2ih24ZfpHDEWVd0WS0MT2W31NFR9bJEUnw7_2k=w2400</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/9Bmkbckei5H4aSRe7OGZKdpziaS4UlhcZdts7StG03oI52pCl7jbu_YAS9oglv_BEnd6jpk2Y794g1BlYRbSn-kvfcVt4A0_O3CyrrY1q3P8Iv9eUfdo1-F1us7GFLnxK0dJ7KBEcG0=w2400</t>
+  </si>
+  <si>
+    <t>Big Bear Lake!</t>
+  </si>
+  <si>
+    <t>Gia, Huy Dang and I visit our friend Jerry Romero in California. In this picture we checked out Big Bear Lake in the San Bernadino Mountains</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/OyC92bak7uCupaicl0_AqN5mzvVd1R18FGXc48q45GuQw1YKVNoMIeWjk4DdA9x3R3_lAJOLN7RmULf7uAT1EScDrNqE8CWtipwmG9o-RGn7WY-oS3HxH1e1sAQpBabUCvoqsuKrR_U=w2400</t>
+  </si>
+  <si>
+    <t>We got engaged!</t>
+  </si>
+  <si>
+    <t>I proposed to Gia using a cool looking comic book puzzle. Sponsored by Etsy!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/nBUI-zoN7YHfQ18OfLox1rbUJJQCjIqKaaxG32zjtORBuNjo6_Xi1orBJwHSSlvt4W23ZqAZN-sEe9yk1vTnXYXdLDIZcto9ublyNYWSvn4T6BIDVrdccoZlTGTH2aZ1aomHXaQcVrQ=w2400</t>
+  </si>
+  <si>
+    <t>The Engagement Puzzle!</t>
+  </si>
+  <si>
+    <t>This engagement was brought to you by Etsy!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/bOQ9EoOHZsx_J6eEzEc2-OVUUZIJfy20xWa0doHfJhkp8Fddkynd9CH5GySCsBY9_mPlxVq8YsugS5YzDVyW6is7AZyGM23UU9bRlF1CV_x8MrT-TyLVdJ9oR_DQd1lNaB-KbiZdk0U=w2400</t>
+  </si>
+  <si>
+    <t>Gia Falls in a Ditch</t>
+  </si>
+  <si>
+    <t>It wasn't her highest moment...</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/LMuNA6wH-EUMNHY2gbHCAQJLs0xYaDr6T_tsUXL85IkCB9n8c96NklV0lFw621JAhmIBee7rl5qW8RqM0znSaLSB8SmaeVByHWMv6nXimzETT54TTPwhi40M1W9YSQQRLpyW0CExUTQ=w2400</t>
+  </si>
+  <si>
+    <t>Zion's First Time Skiing</t>
+  </si>
+  <si>
+    <t>It was more painful than it looks...</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/fR_-HRxfj-a1DYy8sN5y8r1lN03BNVwYdxQTwhUG7G4Fcc-sTeGfmRhMCw0GG3q8YyPMYwrGpWfzcKOcnrfe05l6zdWo1h6SdOw8-GM_DchokcogcKlLNMsjgtpnqTjpjwlSYyxXGFo=w2400</t>
+  </si>
+  <si>
+    <t>Visiting Toledo!</t>
+  </si>
+  <si>
+    <t>We visited my step mom's family in Toledo, Ohio!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/lW85jR7VmVJ3yseAaI_5Km0vVdyoWw4AUCCPfThnH4bt5YcY5Cwh4VM1bsHYp4V5aU90qwzHJLz_BtucGCxeONmZxqflHDBO5vORGjoLO0dIqebhC4Y70gC5TeF6wZdeB0hnRe7m_lk=w2400</t>
+  </si>
+  <si>
+    <t>Get shared photo link</t>
+  </si>
+  <si>
+    <t>Paste link into</t>
+  </si>
+  <si>
+    <t>https://www.labnol.org/embed/google/photos/</t>
   </si>
   <si>
     <t>Copy new link</t>
@@ -395,7 +413,7 @@
     <numFmt numFmtId="164" formatCode="[$-409]mmmm\ d\,\ yyyy"/>
     <numFmt numFmtId="165" formatCode="mmmm d, yyyy"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12.0"/>
       <color theme="1"/>
@@ -407,15 +425,19 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font/>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+    </font>
     <font>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
-    <font/>
     <font>
       <u/>
       <color rgb="FF0000FF"/>
@@ -431,7 +453,8 @@
     </font>
     <font>
       <u/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -448,7 +471,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -457,7 +480,7 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -466,18 +489,27 @@
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -725,3450 +757,3469 @@
         <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>44199.0</v>
+        <v>44203.0</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4">
+        <v>7</v>
+      </c>
+      <c r="B3" s="7">
+        <v>44202.0</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="9">
         <v>44198.0</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="4">
+      <c r="C4" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="9">
         <v>44197.0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="C5" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10">
         <v>44196.0</v>
       </c>
-      <c r="C5" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="C6" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="9">
         <v>44193.0</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="C7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="12">
         <v>44180.0</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="9">
+      <c r="C8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="12">
         <v>44180.0</v>
       </c>
-      <c r="C8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="9">
+      <c r="C9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="12">
         <v>44179.0</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="C10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="12">
         <v>44178.0</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="C11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" ht="15.75" customHeight="1">
+      <c r="A12" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="12">
         <v>44168.0</v>
       </c>
-      <c r="C11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="C12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13" s="12">
         <v>44161.0</v>
       </c>
-      <c r="C12" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="C13" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="12">
         <v>44154.0</v>
       </c>
-      <c r="C13" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="C14" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="12">
         <v>44148.0</v>
       </c>
-      <c r="C14" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="C15" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="12">
         <v>44148.0</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" s="9">
+      <c r="C16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="12">
         <v>44134.0</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="9">
+      <c r="C17" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="12">
         <v>44120.0</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="9">
+      <c r="C18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="12">
         <v>44101.0</v>
       </c>
-      <c r="C18" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="C19" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="12">
         <v>44099.0</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="9">
+      <c r="C20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="12">
         <v>44087.0</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B21" s="9">
+      <c r="C21" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B22" s="12">
         <v>44079.0</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="9">
+      <c r="C22" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="12">
         <v>44073.0</v>
       </c>
-      <c r="C22" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="9">
+      <c r="C23" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="12">
         <v>44069.0</v>
       </c>
-      <c r="C23" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="9">
+      <c r="C24" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="12">
         <v>44057.0</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B25" s="9">
+      <c r="C25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="12">
         <v>44035.0</v>
       </c>
-      <c r="C25" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="9">
+      <c r="C26" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="12">
         <v>44011.0</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="9">
+      <c r="C27" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="12">
         <v>44010.0</v>
       </c>
-      <c r="C27" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B28" s="9">
+      <c r="C28" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B29" s="12">
         <v>44009.0</v>
       </c>
-      <c r="C28" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="9">
+      <c r="C29" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B30" s="12">
         <v>44009.0</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="9">
+      <c r="C30" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="12">
         <v>44009.0</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="9">
+      <c r="C31" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="12">
         <v>43982.0</v>
       </c>
-      <c r="C31" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="10">
+      <c r="C32" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="9">
         <v>43903.0</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="10">
+      <c r="C33" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="9">
         <v>43841.0</v>
       </c>
-      <c r="C33" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B34" s="10">
+      <c r="C34" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="9">
         <v>43841.0</v>
       </c>
-      <c r="C34" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B35" s="10">
+      <c r="C35" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="B36" s="9">
         <v>43841.0</v>
       </c>
-      <c r="C35" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B36" s="10">
+      <c r="C36" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37" s="9">
         <v>43840.0</v>
       </c>
-      <c r="C36" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B37" s="10">
+      <c r="C37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38" s="9">
         <v>43830.0</v>
       </c>
-      <c r="C37" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B38" s="10">
+      <c r="C38" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="9">
         <v>43830.0</v>
       </c>
-      <c r="C38" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B39" s="10">
+      <c r="C39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="9">
         <v>43826.0</v>
       </c>
-      <c r="C39" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B40" s="10">
+      <c r="C40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="9">
         <v>43826.0</v>
       </c>
-      <c r="C40" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B41" s="4">
+      <c r="C41" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="9">
         <v>43665.0</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="B42" s="9"/>
+      <c r="C42" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>118</v>
+      </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="9"/>
+      <c r="B43" s="12"/>
     </row>
     <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="9"/>
+      <c r="B44" s="12"/>
     </row>
     <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="9"/>
+      <c r="B45" s="12"/>
     </row>
     <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="9"/>
+      <c r="B46" s="12"/>
     </row>
     <row r="47" ht="15.75" customHeight="1">
-      <c r="B47" s="9"/>
+      <c r="B47" s="12"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="B48" s="9"/>
+      <c r="B48" s="12"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="B49" s="9"/>
+      <c r="B49" s="12"/>
     </row>
     <row r="50" ht="15.75" customHeight="1">
-      <c r="B50" s="9"/>
+      <c r="B50" s="12"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="B51" s="9"/>
+      <c r="B51" s="12"/>
     </row>
     <row r="52" ht="15.75" customHeight="1">
-      <c r="B52" s="9"/>
+      <c r="B52" s="12"/>
     </row>
     <row r="53" ht="15.75" customHeight="1">
-      <c r="B53" s="9"/>
+      <c r="B53" s="12"/>
     </row>
     <row r="54" ht="15.75" customHeight="1">
-      <c r="B54" s="9"/>
+      <c r="B54" s="12"/>
     </row>
     <row r="55" ht="15.75" customHeight="1">
-      <c r="B55" s="9"/>
+      <c r="B55" s="12"/>
     </row>
     <row r="56" ht="15.75" customHeight="1">
-      <c r="B56" s="9"/>
+      <c r="B56" s="12"/>
     </row>
     <row r="57" ht="15.75" customHeight="1">
-      <c r="B57" s="9"/>
+      <c r="B57" s="12"/>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="B58" s="9"/>
+      <c r="B58" s="12"/>
     </row>
     <row r="59" ht="15.75" customHeight="1">
-      <c r="B59" s="9"/>
+      <c r="B59" s="12"/>
     </row>
     <row r="60" ht="15.75" customHeight="1">
-      <c r="B60" s="9"/>
+      <c r="B60" s="12"/>
     </row>
     <row r="61" ht="15.75" customHeight="1">
-      <c r="B61" s="9"/>
+      <c r="B61" s="12"/>
     </row>
     <row r="62" ht="15.75" customHeight="1">
-      <c r="B62" s="9"/>
+      <c r="B62" s="12"/>
     </row>
     <row r="63" ht="15.75" customHeight="1">
-      <c r="B63" s="9"/>
+      <c r="B63" s="12"/>
     </row>
     <row r="64" ht="15.75" customHeight="1">
-      <c r="B64" s="9"/>
+      <c r="B64" s="12"/>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="B65" s="9"/>
+      <c r="B65" s="12"/>
     </row>
     <row r="66" ht="15.75" customHeight="1">
-      <c r="B66" s="9"/>
+      <c r="B66" s="12"/>
     </row>
     <row r="67" ht="15.75" customHeight="1">
-      <c r="B67" s="9"/>
+      <c r="B67" s="12"/>
     </row>
     <row r="68" ht="15.75" customHeight="1">
-      <c r="B68" s="9"/>
+      <c r="B68" s="12"/>
     </row>
     <row r="69" ht="15.75" customHeight="1">
-      <c r="B69" s="9"/>
+      <c r="B69" s="12"/>
     </row>
     <row r="70" ht="15.75" customHeight="1">
-      <c r="B70" s="9"/>
+      <c r="B70" s="12"/>
     </row>
     <row r="71" ht="15.75" customHeight="1">
-      <c r="B71" s="9"/>
+      <c r="B71" s="12"/>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="B72" s="9"/>
+      <c r="B72" s="12"/>
     </row>
     <row r="73" ht="15.75" customHeight="1">
-      <c r="B73" s="9"/>
+      <c r="B73" s="12"/>
     </row>
     <row r="74" ht="15.75" customHeight="1">
-      <c r="B74" s="9"/>
+      <c r="B74" s="12"/>
     </row>
     <row r="75" ht="15.75" customHeight="1">
-      <c r="B75" s="9"/>
+      <c r="B75" s="12"/>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="B76" s="9"/>
+      <c r="B76" s="12"/>
     </row>
     <row r="77" ht="15.75" customHeight="1">
-      <c r="B77" s="9"/>
+      <c r="B77" s="12"/>
     </row>
     <row r="78" ht="15.75" customHeight="1">
-      <c r="B78" s="9"/>
+      <c r="B78" s="12"/>
     </row>
     <row r="79" ht="15.75" customHeight="1">
-      <c r="B79" s="9"/>
+      <c r="B79" s="12"/>
     </row>
     <row r="80" ht="15.75" customHeight="1">
-      <c r="B80" s="9"/>
+      <c r="B80" s="12"/>
     </row>
     <row r="81" ht="15.75" customHeight="1">
-      <c r="B81" s="9"/>
+      <c r="B81" s="12"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
-      <c r="B82" s="9"/>
+      <c r="B82" s="12"/>
     </row>
     <row r="83" ht="15.75" customHeight="1">
-      <c r="B83" s="9"/>
+      <c r="B83" s="12"/>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="B84" s="9"/>
+      <c r="B84" s="12"/>
     </row>
     <row r="85" ht="15.75" customHeight="1">
-      <c r="B85" s="9"/>
+      <c r="B85" s="12"/>
     </row>
     <row r="86" ht="15.75" customHeight="1">
-      <c r="B86" s="9"/>
+      <c r="B86" s="12"/>
     </row>
     <row r="87" ht="15.75" customHeight="1">
-      <c r="B87" s="9"/>
+      <c r="B87" s="12"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
-      <c r="B88" s="9"/>
+      <c r="B88" s="12"/>
     </row>
     <row r="89" ht="15.75" customHeight="1">
-      <c r="B89" s="9"/>
+      <c r="B89" s="12"/>
     </row>
     <row r="90" ht="15.75" customHeight="1">
-      <c r="B90" s="9"/>
+      <c r="B90" s="12"/>
     </row>
     <row r="91" ht="15.75" customHeight="1">
-      <c r="B91" s="9"/>
+      <c r="B91" s="12"/>
     </row>
     <row r="92" ht="15.75" customHeight="1">
-      <c r="B92" s="9"/>
+      <c r="B92" s="12"/>
     </row>
     <row r="93" ht="15.75" customHeight="1">
-      <c r="B93" s="9"/>
+      <c r="B93" s="12"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="B94" s="9"/>
+      <c r="B94" s="12"/>
     </row>
     <row r="95" ht="15.75" customHeight="1">
-      <c r="B95" s="9"/>
+      <c r="B95" s="12"/>
     </row>
     <row r="96" ht="15.75" customHeight="1">
-      <c r="B96" s="9"/>
+      <c r="B96" s="12"/>
     </row>
     <row r="97" ht="15.75" customHeight="1">
-      <c r="B97" s="9"/>
+      <c r="B97" s="12"/>
     </row>
     <row r="98" ht="15.75" customHeight="1">
-      <c r="B98" s="9"/>
+      <c r="B98" s="12"/>
     </row>
     <row r="99" ht="15.75" customHeight="1">
-      <c r="B99" s="9"/>
+      <c r="B99" s="12"/>
     </row>
     <row r="100" ht="15.75" customHeight="1">
-      <c r="B100" s="9"/>
+      <c r="B100" s="12"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
-      <c r="B101" s="9"/>
+      <c r="B101" s="12"/>
     </row>
     <row r="102" ht="15.75" customHeight="1">
-      <c r="B102" s="9"/>
+      <c r="B102" s="12"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
-      <c r="B103" s="9"/>
+      <c r="B103" s="12"/>
     </row>
     <row r="104" ht="15.75" customHeight="1">
-      <c r="B104" s="9"/>
+      <c r="B104" s="12"/>
     </row>
     <row r="105" ht="15.75" customHeight="1">
-      <c r="B105" s="9"/>
+      <c r="B105" s="12"/>
     </row>
     <row r="106" ht="15.75" customHeight="1">
-      <c r="B106" s="9"/>
+      <c r="B106" s="12"/>
     </row>
     <row r="107" ht="15.75" customHeight="1">
-      <c r="B107" s="9"/>
+      <c r="B107" s="12"/>
     </row>
     <row r="108" ht="15.75" customHeight="1">
-      <c r="B108" s="9"/>
+      <c r="B108" s="12"/>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="B109" s="9"/>
+      <c r="B109" s="12"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
-      <c r="B110" s="9"/>
+      <c r="B110" s="12"/>
     </row>
     <row r="111" ht="15.75" customHeight="1">
-      <c r="B111" s="9"/>
+      <c r="B111" s="12"/>
     </row>
     <row r="112" ht="15.75" customHeight="1">
-      <c r="B112" s="9"/>
+      <c r="B112" s="12"/>
     </row>
     <row r="113" ht="15.75" customHeight="1">
-      <c r="B113" s="9"/>
+      <c r="B113" s="12"/>
     </row>
     <row r="114" ht="15.75" customHeight="1">
-      <c r="B114" s="9"/>
+      <c r="B114" s="12"/>
     </row>
     <row r="115" ht="15.75" customHeight="1">
-      <c r="B115" s="9"/>
+      <c r="B115" s="12"/>
     </row>
     <row r="116" ht="15.75" customHeight="1">
-      <c r="B116" s="9"/>
+      <c r="B116" s="12"/>
     </row>
     <row r="117" ht="15.75" customHeight="1">
-      <c r="B117" s="9"/>
+      <c r="B117" s="12"/>
     </row>
     <row r="118" ht="15.75" customHeight="1">
-      <c r="B118" s="9"/>
+      <c r="B118" s="12"/>
     </row>
     <row r="119" ht="15.75" customHeight="1">
-      <c r="B119" s="9"/>
+      <c r="B119" s="12"/>
     </row>
     <row r="120" ht="15.75" customHeight="1">
-      <c r="B120" s="9"/>
+      <c r="B120" s="12"/>
     </row>
     <row r="121" ht="15.75" customHeight="1">
-      <c r="B121" s="9"/>
+      <c r="B121" s="12"/>
     </row>
     <row r="122" ht="15.75" customHeight="1">
-      <c r="B122" s="9"/>
+      <c r="B122" s="12"/>
     </row>
     <row r="123" ht="15.75" customHeight="1">
-      <c r="B123" s="9"/>
+      <c r="B123" s="12"/>
     </row>
     <row r="124" ht="15.75" customHeight="1">
-      <c r="B124" s="9"/>
+      <c r="B124" s="12"/>
     </row>
     <row r="125" ht="15.75" customHeight="1">
-      <c r="B125" s="9"/>
+      <c r="B125" s="12"/>
     </row>
     <row r="126" ht="15.75" customHeight="1">
-      <c r="B126" s="9"/>
+      <c r="B126" s="12"/>
     </row>
     <row r="127" ht="15.75" customHeight="1">
-      <c r="B127" s="9"/>
+      <c r="B127" s="12"/>
     </row>
     <row r="128" ht="15.75" customHeight="1">
-      <c r="B128" s="9"/>
+      <c r="B128" s="12"/>
     </row>
     <row r="129" ht="15.75" customHeight="1">
-      <c r="B129" s="9"/>
+      <c r="B129" s="12"/>
     </row>
     <row r="130" ht="15.75" customHeight="1">
-      <c r="B130" s="9"/>
+      <c r="B130" s="12"/>
     </row>
     <row r="131" ht="15.75" customHeight="1">
-      <c r="B131" s="9"/>
+      <c r="B131" s="12"/>
     </row>
     <row r="132" ht="15.75" customHeight="1">
-      <c r="B132" s="9"/>
+      <c r="B132" s="12"/>
     </row>
     <row r="133" ht="15.75" customHeight="1">
-      <c r="B133" s="9"/>
+      <c r="B133" s="12"/>
     </row>
     <row r="134" ht="15.75" customHeight="1">
-      <c r="B134" s="9"/>
+      <c r="B134" s="12"/>
     </row>
     <row r="135" ht="15.75" customHeight="1">
-      <c r="B135" s="9"/>
+      <c r="B135" s="12"/>
     </row>
     <row r="136" ht="15.75" customHeight="1">
-      <c r="B136" s="9"/>
+      <c r="B136" s="12"/>
     </row>
     <row r="137" ht="15.75" customHeight="1">
-      <c r="B137" s="9"/>
+      <c r="B137" s="12"/>
     </row>
     <row r="138" ht="15.75" customHeight="1">
-      <c r="B138" s="9"/>
+      <c r="B138" s="12"/>
     </row>
     <row r="139" ht="15.75" customHeight="1">
-      <c r="B139" s="9"/>
+      <c r="B139" s="12"/>
     </row>
     <row r="140" ht="15.75" customHeight="1">
-      <c r="B140" s="9"/>
+      <c r="B140" s="12"/>
     </row>
     <row r="141" ht="15.75" customHeight="1">
-      <c r="B141" s="9"/>
+      <c r="B141" s="12"/>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="B142" s="9"/>
+      <c r="B142" s="12"/>
     </row>
     <row r="143" ht="15.75" customHeight="1">
-      <c r="B143" s="9"/>
+      <c r="B143" s="12"/>
     </row>
     <row r="144" ht="15.75" customHeight="1">
-      <c r="B144" s="9"/>
+      <c r="B144" s="12"/>
     </row>
     <row r="145" ht="15.75" customHeight="1">
-      <c r="B145" s="9"/>
+      <c r="B145" s="12"/>
     </row>
     <row r="146" ht="15.75" customHeight="1">
-      <c r="B146" s="9"/>
+      <c r="B146" s="12"/>
     </row>
     <row r="147" ht="15.75" customHeight="1">
-      <c r="B147" s="9"/>
+      <c r="B147" s="12"/>
     </row>
     <row r="148" ht="15.75" customHeight="1">
-      <c r="B148" s="9"/>
+      <c r="B148" s="12"/>
     </row>
     <row r="149" ht="15.75" customHeight="1">
-      <c r="B149" s="9"/>
+      <c r="B149" s="12"/>
     </row>
     <row r="150" ht="15.75" customHeight="1">
-      <c r="B150" s="9"/>
+      <c r="B150" s="12"/>
     </row>
     <row r="151" ht="15.75" customHeight="1">
-      <c r="B151" s="9"/>
+      <c r="B151" s="12"/>
     </row>
     <row r="152" ht="15.75" customHeight="1">
-      <c r="B152" s="9"/>
+      <c r="B152" s="12"/>
     </row>
     <row r="153" ht="15.75" customHeight="1">
-      <c r="B153" s="9"/>
+      <c r="B153" s="12"/>
     </row>
     <row r="154" ht="15.75" customHeight="1">
-      <c r="B154" s="9"/>
+      <c r="B154" s="12"/>
     </row>
     <row r="155" ht="15.75" customHeight="1">
-      <c r="B155" s="9"/>
+      <c r="B155" s="12"/>
     </row>
     <row r="156" ht="15.75" customHeight="1">
-      <c r="B156" s="9"/>
+      <c r="B156" s="12"/>
     </row>
     <row r="157" ht="15.75" customHeight="1">
-      <c r="B157" s="9"/>
+      <c r="B157" s="12"/>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="B158" s="9"/>
+      <c r="B158" s="12"/>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="B159" s="9"/>
+      <c r="B159" s="12"/>
     </row>
     <row r="160" ht="15.75" customHeight="1">
-      <c r="B160" s="9"/>
+      <c r="B160" s="12"/>
     </row>
     <row r="161" ht="15.75" customHeight="1">
-      <c r="B161" s="9"/>
+      <c r="B161" s="12"/>
     </row>
     <row r="162" ht="15.75" customHeight="1">
-      <c r="B162" s="9"/>
+      <c r="B162" s="12"/>
     </row>
     <row r="163" ht="15.75" customHeight="1">
-      <c r="B163" s="9"/>
+      <c r="B163" s="12"/>
     </row>
     <row r="164" ht="15.75" customHeight="1">
-      <c r="B164" s="9"/>
+      <c r="B164" s="12"/>
     </row>
     <row r="165" ht="15.75" customHeight="1">
-      <c r="B165" s="9"/>
+      <c r="B165" s="12"/>
     </row>
     <row r="166" ht="15.75" customHeight="1">
-      <c r="B166" s="9"/>
+      <c r="B166" s="12"/>
     </row>
     <row r="167" ht="15.75" customHeight="1">
-      <c r="B167" s="9"/>
+      <c r="B167" s="12"/>
     </row>
     <row r="168" ht="15.75" customHeight="1">
-      <c r="B168" s="9"/>
+      <c r="B168" s="12"/>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="B169" s="9"/>
+      <c r="B169" s="12"/>
     </row>
     <row r="170" ht="15.75" customHeight="1">
-      <c r="B170" s="9"/>
+      <c r="B170" s="12"/>
     </row>
     <row r="171" ht="15.75" customHeight="1">
-      <c r="B171" s="9"/>
+      <c r="B171" s="12"/>
     </row>
     <row r="172" ht="15.75" customHeight="1">
-      <c r="B172" s="9"/>
+      <c r="B172" s="12"/>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="B173" s="9"/>
+      <c r="B173" s="12"/>
     </row>
     <row r="174" ht="15.75" customHeight="1">
-      <c r="B174" s="9"/>
+      <c r="B174" s="12"/>
     </row>
     <row r="175" ht="15.75" customHeight="1">
-      <c r="B175" s="9"/>
+      <c r="B175" s="12"/>
     </row>
     <row r="176" ht="15.75" customHeight="1">
-      <c r="B176" s="9"/>
+      <c r="B176" s="12"/>
     </row>
     <row r="177" ht="15.75" customHeight="1">
-      <c r="B177" s="9"/>
+      <c r="B177" s="12"/>
     </row>
     <row r="178" ht="15.75" customHeight="1">
-      <c r="B178" s="9"/>
+      <c r="B178" s="12"/>
     </row>
     <row r="179" ht="15.75" customHeight="1">
-      <c r="B179" s="9"/>
+      <c r="B179" s="12"/>
     </row>
     <row r="180" ht="15.75" customHeight="1">
-      <c r="B180" s="9"/>
+      <c r="B180" s="12"/>
     </row>
     <row r="181" ht="15.75" customHeight="1">
-      <c r="B181" s="9"/>
+      <c r="B181" s="12"/>
     </row>
     <row r="182" ht="15.75" customHeight="1">
-      <c r="B182" s="9"/>
+      <c r="B182" s="12"/>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="B183" s="9"/>
+      <c r="B183" s="12"/>
     </row>
     <row r="184" ht="15.75" customHeight="1">
-      <c r="B184" s="9"/>
+      <c r="B184" s="12"/>
     </row>
     <row r="185" ht="15.75" customHeight="1">
-      <c r="B185" s="9"/>
+      <c r="B185" s="12"/>
     </row>
     <row r="186" ht="15.75" customHeight="1">
-      <c r="B186" s="9"/>
+      <c r="B186" s="12"/>
     </row>
     <row r="187" ht="15.75" customHeight="1">
-      <c r="B187" s="9"/>
+      <c r="B187" s="12"/>
     </row>
     <row r="188" ht="15.75" customHeight="1">
-      <c r="B188" s="9"/>
+      <c r="B188" s="12"/>
     </row>
     <row r="189" ht="15.75" customHeight="1">
-      <c r="B189" s="9"/>
+      <c r="B189" s="12"/>
     </row>
     <row r="190" ht="15.75" customHeight="1">
-      <c r="B190" s="9"/>
+      <c r="B190" s="12"/>
     </row>
     <row r="191" ht="15.75" customHeight="1">
-      <c r="B191" s="9"/>
+      <c r="B191" s="12"/>
     </row>
     <row r="192" ht="15.75" customHeight="1">
-      <c r="B192" s="9"/>
+      <c r="B192" s="12"/>
     </row>
     <row r="193" ht="15.75" customHeight="1">
-      <c r="B193" s="9"/>
+      <c r="B193" s="12"/>
     </row>
     <row r="194" ht="15.75" customHeight="1">
-      <c r="B194" s="9"/>
+      <c r="B194" s="12"/>
     </row>
     <row r="195" ht="15.75" customHeight="1">
-      <c r="B195" s="9"/>
+      <c r="B195" s="12"/>
     </row>
     <row r="196" ht="15.75" customHeight="1">
-      <c r="B196" s="9"/>
+      <c r="B196" s="12"/>
     </row>
     <row r="197" ht="15.75" customHeight="1">
-      <c r="B197" s="9"/>
+      <c r="B197" s="12"/>
     </row>
     <row r="198" ht="15.75" customHeight="1">
-      <c r="B198" s="9"/>
+      <c r="B198" s="12"/>
     </row>
     <row r="199" ht="15.75" customHeight="1">
-      <c r="B199" s="9"/>
+      <c r="B199" s="12"/>
     </row>
     <row r="200" ht="15.75" customHeight="1">
-      <c r="B200" s="9"/>
+      <c r="B200" s="12"/>
     </row>
     <row r="201" ht="15.75" customHeight="1">
-      <c r="B201" s="9"/>
+      <c r="B201" s="12"/>
     </row>
     <row r="202" ht="15.75" customHeight="1">
-      <c r="B202" s="9"/>
+      <c r="B202" s="12"/>
     </row>
     <row r="203" ht="15.75" customHeight="1">
-      <c r="B203" s="9"/>
+      <c r="B203" s="12"/>
     </row>
     <row r="204" ht="15.75" customHeight="1">
-      <c r="B204" s="9"/>
+      <c r="B204" s="12"/>
     </row>
     <row r="205" ht="15.75" customHeight="1">
-      <c r="B205" s="9"/>
+      <c r="B205" s="12"/>
     </row>
     <row r="206" ht="15.75" customHeight="1">
-      <c r="B206" s="9"/>
+      <c r="B206" s="12"/>
     </row>
     <row r="207" ht="15.75" customHeight="1">
-      <c r="B207" s="9"/>
+      <c r="B207" s="12"/>
     </row>
     <row r="208" ht="15.75" customHeight="1">
-      <c r="B208" s="9"/>
+      <c r="B208" s="12"/>
     </row>
     <row r="209" ht="15.75" customHeight="1">
-      <c r="B209" s="9"/>
+      <c r="B209" s="12"/>
     </row>
     <row r="210" ht="15.75" customHeight="1">
-      <c r="B210" s="9"/>
+      <c r="B210" s="12"/>
     </row>
     <row r="211" ht="15.75" customHeight="1">
-      <c r="B211" s="9"/>
+      <c r="B211" s="12"/>
     </row>
     <row r="212" ht="15.75" customHeight="1">
-      <c r="B212" s="9"/>
+      <c r="B212" s="12"/>
     </row>
     <row r="213" ht="15.75" customHeight="1">
-      <c r="B213" s="9"/>
+      <c r="B213" s="12"/>
     </row>
     <row r="214" ht="15.75" customHeight="1">
-      <c r="B214" s="9"/>
+      <c r="B214" s="12"/>
     </row>
     <row r="215" ht="15.75" customHeight="1">
-      <c r="B215" s="9"/>
+      <c r="B215" s="12"/>
     </row>
     <row r="216" ht="15.75" customHeight="1">
-      <c r="B216" s="9"/>
+      <c r="B216" s="12"/>
     </row>
     <row r="217" ht="15.75" customHeight="1">
-      <c r="B217" s="9"/>
+      <c r="B217" s="12"/>
     </row>
     <row r="218" ht="15.75" customHeight="1">
-      <c r="B218" s="9"/>
+      <c r="B218" s="12"/>
     </row>
     <row r="219" ht="15.75" customHeight="1">
-      <c r="B219" s="9"/>
+      <c r="B219" s="12"/>
     </row>
     <row r="220" ht="15.75" customHeight="1">
-      <c r="B220" s="9"/>
+      <c r="B220" s="12"/>
     </row>
     <row r="221" ht="15.75" customHeight="1">
-      <c r="B221" s="9"/>
+      <c r="B221" s="12"/>
     </row>
     <row r="222" ht="15.75" customHeight="1">
-      <c r="B222" s="9"/>
+      <c r="B222" s="12"/>
     </row>
     <row r="223" ht="15.75" customHeight="1">
-      <c r="B223" s="9"/>
+      <c r="B223" s="12"/>
     </row>
     <row r="224" ht="15.75" customHeight="1">
-      <c r="B224" s="9"/>
+      <c r="B224" s="12"/>
     </row>
     <row r="225" ht="15.75" customHeight="1">
-      <c r="B225" s="9"/>
+      <c r="B225" s="12"/>
     </row>
     <row r="226" ht="15.75" customHeight="1">
-      <c r="B226" s="9"/>
+      <c r="B226" s="12"/>
     </row>
     <row r="227" ht="15.75" customHeight="1">
-      <c r="B227" s="9"/>
+      <c r="B227" s="12"/>
     </row>
     <row r="228" ht="15.75" customHeight="1">
-      <c r="B228" s="9"/>
+      <c r="B228" s="12"/>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="B229" s="9"/>
+      <c r="B229" s="12"/>
     </row>
     <row r="230" ht="15.75" customHeight="1">
-      <c r="B230" s="9"/>
+      <c r="B230" s="12"/>
     </row>
     <row r="231" ht="15.75" customHeight="1">
-      <c r="B231" s="9"/>
+      <c r="B231" s="12"/>
     </row>
     <row r="232" ht="15.75" customHeight="1">
-      <c r="B232" s="9"/>
+      <c r="B232" s="12"/>
     </row>
     <row r="233" ht="15.75" customHeight="1">
-      <c r="B233" s="9"/>
+      <c r="B233" s="12"/>
     </row>
     <row r="234" ht="15.75" customHeight="1">
-      <c r="B234" s="9"/>
+      <c r="B234" s="12"/>
     </row>
     <row r="235" ht="15.75" customHeight="1">
-      <c r="B235" s="9"/>
+      <c r="B235" s="12"/>
     </row>
     <row r="236" ht="15.75" customHeight="1">
-      <c r="B236" s="9"/>
+      <c r="B236" s="12"/>
     </row>
     <row r="237" ht="15.75" customHeight="1">
-      <c r="B237" s="9"/>
+      <c r="B237" s="12"/>
     </row>
     <row r="238" ht="15.75" customHeight="1">
-      <c r="B238" s="9"/>
+      <c r="B238" s="12"/>
     </row>
     <row r="239" ht="15.75" customHeight="1">
-      <c r="B239" s="9"/>
+      <c r="B239" s="12"/>
     </row>
     <row r="240" ht="15.75" customHeight="1">
-      <c r="B240" s="9"/>
+      <c r="B240" s="12"/>
     </row>
     <row r="241" ht="15.75" customHeight="1">
-      <c r="B241" s="9"/>
+      <c r="B241" s="12"/>
     </row>
     <row r="242" ht="15.75" customHeight="1">
-      <c r="B242" s="9"/>
+      <c r="B242" s="12"/>
     </row>
     <row r="243" ht="15.75" customHeight="1">
-      <c r="B243" s="9"/>
+      <c r="B243" s="12"/>
     </row>
     <row r="244" ht="15.75" customHeight="1">
-      <c r="B244" s="9"/>
+      <c r="B244" s="12"/>
     </row>
     <row r="245" ht="15.75" customHeight="1">
-      <c r="B245" s="9"/>
+      <c r="B245" s="12"/>
     </row>
     <row r="246" ht="15.75" customHeight="1">
-      <c r="B246" s="9"/>
+      <c r="B246" s="12"/>
     </row>
     <row r="247" ht="15.75" customHeight="1">
-      <c r="B247" s="9"/>
+      <c r="B247" s="12"/>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="B248" s="9"/>
+      <c r="B248" s="12"/>
     </row>
     <row r="249" ht="15.75" customHeight="1">
-      <c r="B249" s="9"/>
+      <c r="B249" s="12"/>
     </row>
     <row r="250" ht="15.75" customHeight="1">
-      <c r="B250" s="9"/>
+      <c r="B250" s="12"/>
     </row>
     <row r="251" ht="15.75" customHeight="1">
-      <c r="B251" s="9"/>
+      <c r="B251" s="12"/>
     </row>
     <row r="252" ht="15.75" customHeight="1">
-      <c r="B252" s="9"/>
+      <c r="B252" s="12"/>
     </row>
     <row r="253" ht="15.75" customHeight="1">
-      <c r="B253" s="9"/>
+      <c r="B253" s="12"/>
     </row>
     <row r="254" ht="15.75" customHeight="1">
-      <c r="B254" s="9"/>
+      <c r="B254" s="12"/>
     </row>
     <row r="255" ht="15.75" customHeight="1">
-      <c r="B255" s="9"/>
+      <c r="B255" s="12"/>
     </row>
     <row r="256" ht="15.75" customHeight="1">
-      <c r="B256" s="9"/>
+      <c r="B256" s="12"/>
     </row>
     <row r="257" ht="15.75" customHeight="1">
-      <c r="B257" s="9"/>
+      <c r="B257" s="12"/>
     </row>
     <row r="258" ht="15.75" customHeight="1">
-      <c r="B258" s="9"/>
+      <c r="B258" s="12"/>
     </row>
     <row r="259" ht="15.75" customHeight="1">
-      <c r="B259" s="9"/>
+      <c r="B259" s="12"/>
     </row>
     <row r="260" ht="15.75" customHeight="1">
-      <c r="B260" s="9"/>
+      <c r="B260" s="12"/>
     </row>
     <row r="261" ht="15.75" customHeight="1">
-      <c r="B261" s="9"/>
+      <c r="B261" s="12"/>
     </row>
     <row r="262" ht="15.75" customHeight="1">
-      <c r="B262" s="9"/>
+      <c r="B262" s="12"/>
     </row>
     <row r="263" ht="15.75" customHeight="1">
-      <c r="B263" s="9"/>
+      <c r="B263" s="12"/>
     </row>
     <row r="264" ht="15.75" customHeight="1">
-      <c r="B264" s="9"/>
+      <c r="B264" s="12"/>
     </row>
     <row r="265" ht="15.75" customHeight="1">
-      <c r="B265" s="9"/>
+      <c r="B265" s="12"/>
     </row>
     <row r="266" ht="15.75" customHeight="1">
-      <c r="B266" s="9"/>
+      <c r="B266" s="12"/>
     </row>
     <row r="267" ht="15.75" customHeight="1">
-      <c r="B267" s="9"/>
+      <c r="B267" s="12"/>
     </row>
     <row r="268" ht="15.75" customHeight="1">
-      <c r="B268" s="9"/>
+      <c r="B268" s="12"/>
     </row>
     <row r="269" ht="15.75" customHeight="1">
-      <c r="B269" s="9"/>
+      <c r="B269" s="12"/>
     </row>
     <row r="270" ht="15.75" customHeight="1">
-      <c r="B270" s="9"/>
+      <c r="B270" s="12"/>
     </row>
     <row r="271" ht="15.75" customHeight="1">
-      <c r="B271" s="9"/>
+      <c r="B271" s="12"/>
     </row>
     <row r="272" ht="15.75" customHeight="1">
-      <c r="B272" s="9"/>
+      <c r="B272" s="12"/>
     </row>
     <row r="273" ht="15.75" customHeight="1">
-      <c r="B273" s="9"/>
+      <c r="B273" s="12"/>
     </row>
     <row r="274" ht="15.75" customHeight="1">
-      <c r="B274" s="9"/>
+      <c r="B274" s="12"/>
     </row>
     <row r="275" ht="15.75" customHeight="1">
-      <c r="B275" s="9"/>
+      <c r="B275" s="12"/>
     </row>
     <row r="276" ht="15.75" customHeight="1">
-      <c r="B276" s="9"/>
+      <c r="B276" s="12"/>
     </row>
     <row r="277" ht="15.75" customHeight="1">
-      <c r="B277" s="9"/>
+      <c r="B277" s="12"/>
     </row>
     <row r="278" ht="15.75" customHeight="1">
-      <c r="B278" s="9"/>
+      <c r="B278" s="12"/>
     </row>
     <row r="279" ht="15.75" customHeight="1">
-      <c r="B279" s="9"/>
+      <c r="B279" s="12"/>
     </row>
     <row r="280" ht="15.75" customHeight="1">
-      <c r="B280" s="9"/>
+      <c r="B280" s="12"/>
     </row>
     <row r="281" ht="15.75" customHeight="1">
-      <c r="B281" s="9"/>
+      <c r="B281" s="12"/>
     </row>
     <row r="282" ht="15.75" customHeight="1">
-      <c r="B282" s="9"/>
+      <c r="B282" s="12"/>
     </row>
     <row r="283" ht="15.75" customHeight="1">
-      <c r="B283" s="9"/>
+      <c r="B283" s="12"/>
     </row>
     <row r="284" ht="15.75" customHeight="1">
-      <c r="B284" s="9"/>
+      <c r="B284" s="12"/>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="B285" s="9"/>
+      <c r="B285" s="12"/>
     </row>
     <row r="286" ht="15.75" customHeight="1">
-      <c r="B286" s="9"/>
+      <c r="B286" s="12"/>
     </row>
     <row r="287" ht="15.75" customHeight="1">
-      <c r="B287" s="9"/>
+      <c r="B287" s="12"/>
     </row>
     <row r="288" ht="15.75" customHeight="1">
-      <c r="B288" s="9"/>
+      <c r="B288" s="12"/>
     </row>
     <row r="289" ht="15.75" customHeight="1">
-      <c r="B289" s="9"/>
+      <c r="B289" s="12"/>
     </row>
     <row r="290" ht="15.75" customHeight="1">
-      <c r="B290" s="9"/>
+      <c r="B290" s="12"/>
     </row>
     <row r="291" ht="15.75" customHeight="1">
-      <c r="B291" s="9"/>
+      <c r="B291" s="12"/>
     </row>
     <row r="292" ht="15.75" customHeight="1">
-      <c r="B292" s="9"/>
+      <c r="B292" s="12"/>
     </row>
     <row r="293" ht="15.75" customHeight="1">
-      <c r="B293" s="9"/>
+      <c r="B293" s="12"/>
     </row>
     <row r="294" ht="15.75" customHeight="1">
-      <c r="B294" s="9"/>
+      <c r="B294" s="12"/>
     </row>
     <row r="295" ht="15.75" customHeight="1">
-      <c r="B295" s="9"/>
+      <c r="B295" s="12"/>
     </row>
     <row r="296" ht="15.75" customHeight="1">
-      <c r="B296" s="9"/>
+      <c r="B296" s="12"/>
     </row>
     <row r="297" ht="15.75" customHeight="1">
-      <c r="B297" s="9"/>
+      <c r="B297" s="12"/>
     </row>
     <row r="298" ht="15.75" customHeight="1">
-      <c r="B298" s="9"/>
+      <c r="B298" s="12"/>
     </row>
     <row r="299" ht="15.75" customHeight="1">
-      <c r="B299" s="9"/>
+      <c r="B299" s="12"/>
     </row>
     <row r="300" ht="15.75" customHeight="1">
-      <c r="B300" s="9"/>
+      <c r="B300" s="12"/>
     </row>
     <row r="301" ht="15.75" customHeight="1">
-      <c r="B301" s="9"/>
+      <c r="B301" s="12"/>
     </row>
     <row r="302" ht="15.75" customHeight="1">
-      <c r="B302" s="9"/>
+      <c r="B302" s="12"/>
     </row>
     <row r="303" ht="15.75" customHeight="1">
-      <c r="B303" s="9"/>
+      <c r="B303" s="12"/>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="B304" s="9"/>
+      <c r="B304" s="12"/>
     </row>
     <row r="305" ht="15.75" customHeight="1">
-      <c r="B305" s="9"/>
+      <c r="B305" s="12"/>
     </row>
     <row r="306" ht="15.75" customHeight="1">
-      <c r="B306" s="9"/>
+      <c r="B306" s="12"/>
     </row>
     <row r="307" ht="15.75" customHeight="1">
-      <c r="B307" s="9"/>
+      <c r="B307" s="12"/>
     </row>
     <row r="308" ht="15.75" customHeight="1">
-      <c r="B308" s="9"/>
+      <c r="B308" s="12"/>
     </row>
     <row r="309" ht="15.75" customHeight="1">
-      <c r="B309" s="9"/>
+      <c r="B309" s="12"/>
     </row>
     <row r="310" ht="15.75" customHeight="1">
-      <c r="B310" s="9"/>
+      <c r="B310" s="12"/>
     </row>
     <row r="311" ht="15.75" customHeight="1">
-      <c r="B311" s="9"/>
+      <c r="B311" s="12"/>
     </row>
     <row r="312" ht="15.75" customHeight="1">
-      <c r="B312" s="9"/>
+      <c r="B312" s="12"/>
     </row>
     <row r="313" ht="15.75" customHeight="1">
-      <c r="B313" s="9"/>
+      <c r="B313" s="12"/>
     </row>
     <row r="314" ht="15.75" customHeight="1">
-      <c r="B314" s="9"/>
+      <c r="B314" s="12"/>
     </row>
     <row r="315" ht="15.75" customHeight="1">
-      <c r="B315" s="9"/>
+      <c r="B315" s="12"/>
     </row>
     <row r="316" ht="15.75" customHeight="1">
-      <c r="B316" s="9"/>
+      <c r="B316" s="12"/>
     </row>
     <row r="317" ht="15.75" customHeight="1">
-      <c r="B317" s="9"/>
+      <c r="B317" s="12"/>
     </row>
     <row r="318" ht="15.75" customHeight="1">
-      <c r="B318" s="9"/>
+      <c r="B318" s="12"/>
     </row>
     <row r="319" ht="15.75" customHeight="1">
-      <c r="B319" s="9"/>
+      <c r="B319" s="12"/>
     </row>
     <row r="320" ht="15.75" customHeight="1">
-      <c r="B320" s="9"/>
+      <c r="B320" s="12"/>
     </row>
     <row r="321" ht="15.75" customHeight="1">
-      <c r="B321" s="9"/>
+      <c r="B321" s="12"/>
     </row>
     <row r="322" ht="15.75" customHeight="1">
-      <c r="B322" s="9"/>
+      <c r="B322" s="12"/>
     </row>
     <row r="323" ht="15.75" customHeight="1">
-      <c r="B323" s="9"/>
+      <c r="B323" s="12"/>
     </row>
     <row r="324" ht="15.75" customHeight="1">
-      <c r="B324" s="9"/>
+      <c r="B324" s="12"/>
     </row>
     <row r="325" ht="15.75" customHeight="1">
-      <c r="B325" s="9"/>
+      <c r="B325" s="12"/>
     </row>
     <row r="326" ht="15.75" customHeight="1">
-      <c r="B326" s="9"/>
+      <c r="B326" s="12"/>
     </row>
     <row r="327" ht="15.75" customHeight="1">
-      <c r="B327" s="9"/>
+      <c r="B327" s="12"/>
     </row>
     <row r="328" ht="15.75" customHeight="1">
-      <c r="B328" s="9"/>
+      <c r="B328" s="12"/>
     </row>
     <row r="329" ht="15.75" customHeight="1">
-      <c r="B329" s="9"/>
+      <c r="B329" s="12"/>
     </row>
     <row r="330" ht="15.75" customHeight="1">
-      <c r="B330" s="9"/>
+      <c r="B330" s="12"/>
     </row>
     <row r="331" ht="15.75" customHeight="1">
-      <c r="B331" s="9"/>
+      <c r="B331" s="12"/>
     </row>
     <row r="332" ht="15.75" customHeight="1">
-      <c r="B332" s="9"/>
+      <c r="B332" s="12"/>
     </row>
     <row r="333" ht="15.75" customHeight="1">
-      <c r="B333" s="9"/>
+      <c r="B333" s="12"/>
     </row>
     <row r="334" ht="15.75" customHeight="1">
-      <c r="B334" s="9"/>
+      <c r="B334" s="12"/>
     </row>
     <row r="335" ht="15.75" customHeight="1">
-      <c r="B335" s="9"/>
+      <c r="B335" s="12"/>
     </row>
     <row r="336" ht="15.75" customHeight="1">
-      <c r="B336" s="9"/>
+      <c r="B336" s="12"/>
     </row>
     <row r="337" ht="15.75" customHeight="1">
-      <c r="B337" s="9"/>
+      <c r="B337" s="12"/>
     </row>
     <row r="338" ht="15.75" customHeight="1">
-      <c r="B338" s="9"/>
+      <c r="B338" s="12"/>
     </row>
     <row r="339" ht="15.75" customHeight="1">
-      <c r="B339" s="9"/>
+      <c r="B339" s="12"/>
     </row>
     <row r="340" ht="15.75" customHeight="1">
-      <c r="B340" s="9"/>
+      <c r="B340" s="12"/>
     </row>
     <row r="341" ht="15.75" customHeight="1">
-      <c r="B341" s="9"/>
+      <c r="B341" s="12"/>
     </row>
     <row r="342" ht="15.75" customHeight="1">
-      <c r="B342" s="9"/>
+      <c r="B342" s="12"/>
     </row>
     <row r="343" ht="15.75" customHeight="1">
-      <c r="B343" s="9"/>
+      <c r="B343" s="12"/>
     </row>
     <row r="344" ht="15.75" customHeight="1">
-      <c r="B344" s="9"/>
+      <c r="B344" s="12"/>
     </row>
     <row r="345" ht="15.75" customHeight="1">
-      <c r="B345" s="9"/>
+      <c r="B345" s="12"/>
     </row>
     <row r="346" ht="15.75" customHeight="1">
-      <c r="B346" s="9"/>
+      <c r="B346" s="12"/>
     </row>
     <row r="347" ht="15.75" customHeight="1">
-      <c r="B347" s="9"/>
+      <c r="B347" s="12"/>
     </row>
     <row r="348" ht="15.75" customHeight="1">
-      <c r="B348" s="9"/>
+      <c r="B348" s="12"/>
     </row>
     <row r="349" ht="15.75" customHeight="1">
-      <c r="B349" s="9"/>
+      <c r="B349" s="12"/>
     </row>
     <row r="350" ht="15.75" customHeight="1">
-      <c r="B350" s="9"/>
+      <c r="B350" s="12"/>
     </row>
     <row r="351" ht="15.75" customHeight="1">
-      <c r="B351" s="9"/>
+      <c r="B351" s="12"/>
     </row>
     <row r="352" ht="15.75" customHeight="1">
-      <c r="B352" s="9"/>
+      <c r="B352" s="12"/>
     </row>
     <row r="353" ht="15.75" customHeight="1">
-      <c r="B353" s="9"/>
+      <c r="B353" s="12"/>
     </row>
     <row r="354" ht="15.75" customHeight="1">
-      <c r="B354" s="9"/>
+      <c r="B354" s="12"/>
     </row>
     <row r="355" ht="15.75" customHeight="1">
-      <c r="B355" s="9"/>
+      <c r="B355" s="12"/>
     </row>
     <row r="356" ht="15.75" customHeight="1">
-      <c r="B356" s="9"/>
+      <c r="B356" s="12"/>
     </row>
     <row r="357" ht="15.75" customHeight="1">
-      <c r="B357" s="9"/>
+      <c r="B357" s="12"/>
     </row>
     <row r="358" ht="15.75" customHeight="1">
-      <c r="B358" s="9"/>
+      <c r="B358" s="12"/>
     </row>
     <row r="359" ht="15.75" customHeight="1">
-      <c r="B359" s="9"/>
+      <c r="B359" s="12"/>
     </row>
     <row r="360" ht="15.75" customHeight="1">
-      <c r="B360" s="9"/>
+      <c r="B360" s="12"/>
     </row>
     <row r="361" ht="15.75" customHeight="1">
-      <c r="B361" s="9"/>
+      <c r="B361" s="12"/>
     </row>
     <row r="362" ht="15.75" customHeight="1">
-      <c r="B362" s="9"/>
+      <c r="B362" s="12"/>
     </row>
     <row r="363" ht="15.75" customHeight="1">
-      <c r="B363" s="9"/>
+      <c r="B363" s="12"/>
     </row>
     <row r="364" ht="15.75" customHeight="1">
-      <c r="B364" s="9"/>
+      <c r="B364" s="12"/>
     </row>
     <row r="365" ht="15.75" customHeight="1">
-      <c r="B365" s="9"/>
+      <c r="B365" s="12"/>
     </row>
     <row r="366" ht="15.75" customHeight="1">
-      <c r="B366" s="9"/>
+      <c r="B366" s="12"/>
     </row>
     <row r="367" ht="15.75" customHeight="1">
-      <c r="B367" s="9"/>
+      <c r="B367" s="12"/>
     </row>
     <row r="368" ht="15.75" customHeight="1">
-      <c r="B368" s="9"/>
+      <c r="B368" s="12"/>
     </row>
     <row r="369" ht="15.75" customHeight="1">
-      <c r="B369" s="9"/>
+      <c r="B369" s="12"/>
     </row>
     <row r="370" ht="15.75" customHeight="1">
-      <c r="B370" s="9"/>
+      <c r="B370" s="12"/>
     </row>
     <row r="371" ht="15.75" customHeight="1">
-      <c r="B371" s="9"/>
+      <c r="B371" s="12"/>
     </row>
     <row r="372" ht="15.75" customHeight="1">
-      <c r="B372" s="9"/>
+      <c r="B372" s="12"/>
     </row>
     <row r="373" ht="15.75" customHeight="1">
-      <c r="B373" s="9"/>
+      <c r="B373" s="12"/>
     </row>
     <row r="374" ht="15.75" customHeight="1">
-      <c r="B374" s="9"/>
+      <c r="B374" s="12"/>
     </row>
     <row r="375" ht="15.75" customHeight="1">
-      <c r="B375" s="9"/>
+      <c r="B375" s="12"/>
     </row>
     <row r="376" ht="15.75" customHeight="1">
-      <c r="B376" s="9"/>
+      <c r="B376" s="12"/>
     </row>
     <row r="377" ht="15.75" customHeight="1">
-      <c r="B377" s="9"/>
+      <c r="B377" s="12"/>
     </row>
     <row r="378" ht="15.75" customHeight="1">
-      <c r="B378" s="9"/>
+      <c r="B378" s="12"/>
     </row>
     <row r="379" ht="15.75" customHeight="1">
-      <c r="B379" s="9"/>
+      <c r="B379" s="12"/>
     </row>
     <row r="380" ht="15.75" customHeight="1">
-      <c r="B380" s="9"/>
+      <c r="B380" s="12"/>
     </row>
     <row r="381" ht="15.75" customHeight="1">
-      <c r="B381" s="9"/>
+      <c r="B381" s="12"/>
     </row>
     <row r="382" ht="15.75" customHeight="1">
-      <c r="B382" s="9"/>
+      <c r="B382" s="12"/>
     </row>
     <row r="383" ht="15.75" customHeight="1">
-      <c r="B383" s="9"/>
+      <c r="B383" s="12"/>
     </row>
     <row r="384" ht="15.75" customHeight="1">
-      <c r="B384" s="9"/>
+      <c r="B384" s="12"/>
     </row>
     <row r="385" ht="15.75" customHeight="1">
-      <c r="B385" s="9"/>
+      <c r="B385" s="12"/>
     </row>
     <row r="386" ht="15.75" customHeight="1">
-      <c r="B386" s="9"/>
+      <c r="B386" s="12"/>
     </row>
     <row r="387" ht="15.75" customHeight="1">
-      <c r="B387" s="9"/>
+      <c r="B387" s="12"/>
     </row>
     <row r="388" ht="15.75" customHeight="1">
-      <c r="B388" s="9"/>
+      <c r="B388" s="12"/>
     </row>
     <row r="389" ht="15.75" customHeight="1">
-      <c r="B389" s="9"/>
+      <c r="B389" s="12"/>
     </row>
     <row r="390" ht="15.75" customHeight="1">
-      <c r="B390" s="9"/>
+      <c r="B390" s="12"/>
     </row>
     <row r="391" ht="15.75" customHeight="1">
-      <c r="B391" s="9"/>
+      <c r="B391" s="12"/>
     </row>
     <row r="392" ht="15.75" customHeight="1">
-      <c r="B392" s="9"/>
+      <c r="B392" s="12"/>
     </row>
     <row r="393" ht="15.75" customHeight="1">
-      <c r="B393" s="9"/>
+      <c r="B393" s="12"/>
     </row>
     <row r="394" ht="15.75" customHeight="1">
-      <c r="B394" s="9"/>
+      <c r="B394" s="12"/>
     </row>
     <row r="395" ht="15.75" customHeight="1">
-      <c r="B395" s="9"/>
+      <c r="B395" s="12"/>
     </row>
     <row r="396" ht="15.75" customHeight="1">
-      <c r="B396" s="9"/>
+      <c r="B396" s="12"/>
     </row>
     <row r="397" ht="15.75" customHeight="1">
-      <c r="B397" s="9"/>
+      <c r="B397" s="12"/>
     </row>
     <row r="398" ht="15.75" customHeight="1">
-      <c r="B398" s="9"/>
+      <c r="B398" s="12"/>
     </row>
     <row r="399" ht="15.75" customHeight="1">
-      <c r="B399" s="9"/>
+      <c r="B399" s="12"/>
     </row>
     <row r="400" ht="15.75" customHeight="1">
-      <c r="B400" s="9"/>
+      <c r="B400" s="12"/>
     </row>
     <row r="401" ht="15.75" customHeight="1">
-      <c r="B401" s="9"/>
+      <c r="B401" s="12"/>
     </row>
     <row r="402" ht="15.75" customHeight="1">
-      <c r="B402" s="9"/>
+      <c r="B402" s="12"/>
     </row>
     <row r="403" ht="15.75" customHeight="1">
-      <c r="B403" s="9"/>
+      <c r="B403" s="12"/>
     </row>
     <row r="404" ht="15.75" customHeight="1">
-      <c r="B404" s="9"/>
+      <c r="B404" s="12"/>
     </row>
     <row r="405" ht="15.75" customHeight="1">
-      <c r="B405" s="9"/>
+      <c r="B405" s="12"/>
     </row>
     <row r="406" ht="15.75" customHeight="1">
-      <c r="B406" s="9"/>
+      <c r="B406" s="12"/>
     </row>
     <row r="407" ht="15.75" customHeight="1">
-      <c r="B407" s="9"/>
+      <c r="B407" s="12"/>
     </row>
     <row r="408" ht="15.75" customHeight="1">
-      <c r="B408" s="9"/>
+      <c r="B408" s="12"/>
     </row>
     <row r="409" ht="15.75" customHeight="1">
-      <c r="B409" s="9"/>
+      <c r="B409" s="12"/>
     </row>
     <row r="410" ht="15.75" customHeight="1">
-      <c r="B410" s="9"/>
+      <c r="B410" s="12"/>
     </row>
     <row r="411" ht="15.75" customHeight="1">
-      <c r="B411" s="9"/>
+      <c r="B411" s="12"/>
     </row>
     <row r="412" ht="15.75" customHeight="1">
-      <c r="B412" s="9"/>
+      <c r="B412" s="12"/>
     </row>
     <row r="413" ht="15.75" customHeight="1">
-      <c r="B413" s="9"/>
+      <c r="B413" s="12"/>
     </row>
     <row r="414" ht="15.75" customHeight="1">
-      <c r="B414" s="9"/>
+      <c r="B414" s="12"/>
     </row>
     <row r="415" ht="15.75" customHeight="1">
-      <c r="B415" s="9"/>
+      <c r="B415" s="12"/>
     </row>
     <row r="416" ht="15.75" customHeight="1">
-      <c r="B416" s="9"/>
+      <c r="B416" s="12"/>
     </row>
     <row r="417" ht="15.75" customHeight="1">
-      <c r="B417" s="9"/>
+      <c r="B417" s="12"/>
     </row>
     <row r="418" ht="15.75" customHeight="1">
-      <c r="B418" s="9"/>
+      <c r="B418" s="12"/>
     </row>
     <row r="419" ht="15.75" customHeight="1">
-      <c r="B419" s="9"/>
+      <c r="B419" s="12"/>
     </row>
     <row r="420" ht="15.75" customHeight="1">
-      <c r="B420" s="9"/>
+      <c r="B420" s="12"/>
     </row>
     <row r="421" ht="15.75" customHeight="1">
-      <c r="B421" s="9"/>
+      <c r="B421" s="12"/>
     </row>
     <row r="422" ht="15.75" customHeight="1">
-      <c r="B422" s="9"/>
+      <c r="B422" s="12"/>
     </row>
     <row r="423" ht="15.75" customHeight="1">
-      <c r="B423" s="9"/>
+      <c r="B423" s="12"/>
     </row>
     <row r="424" ht="15.75" customHeight="1">
-      <c r="B424" s="9"/>
+      <c r="B424" s="12"/>
     </row>
     <row r="425" ht="15.75" customHeight="1">
-      <c r="B425" s="9"/>
+      <c r="B425" s="12"/>
     </row>
     <row r="426" ht="15.75" customHeight="1">
-      <c r="B426" s="9"/>
+      <c r="B426" s="12"/>
     </row>
     <row r="427" ht="15.75" customHeight="1">
-      <c r="B427" s="9"/>
+      <c r="B427" s="12"/>
     </row>
     <row r="428" ht="15.75" customHeight="1">
-      <c r="B428" s="9"/>
+      <c r="B428" s="12"/>
     </row>
     <row r="429" ht="15.75" customHeight="1">
-      <c r="B429" s="9"/>
+      <c r="B429" s="12"/>
     </row>
     <row r="430" ht="15.75" customHeight="1">
-      <c r="B430" s="9"/>
+      <c r="B430" s="12"/>
     </row>
     <row r="431" ht="15.75" customHeight="1">
-      <c r="B431" s="9"/>
+      <c r="B431" s="12"/>
     </row>
     <row r="432" ht="15.75" customHeight="1">
-      <c r="B432" s="9"/>
+      <c r="B432" s="12"/>
     </row>
     <row r="433" ht="15.75" customHeight="1">
-      <c r="B433" s="9"/>
+      <c r="B433" s="12"/>
     </row>
     <row r="434" ht="15.75" customHeight="1">
-      <c r="B434" s="9"/>
+      <c r="B434" s="12"/>
     </row>
     <row r="435" ht="15.75" customHeight="1">
-      <c r="B435" s="9"/>
+      <c r="B435" s="12"/>
     </row>
     <row r="436" ht="15.75" customHeight="1">
-      <c r="B436" s="9"/>
+      <c r="B436" s="12"/>
     </row>
     <row r="437" ht="15.75" customHeight="1">
-      <c r="B437" s="9"/>
+      <c r="B437" s="12"/>
     </row>
     <row r="438" ht="15.75" customHeight="1">
-      <c r="B438" s="9"/>
+      <c r="B438" s="12"/>
     </row>
     <row r="439" ht="15.75" customHeight="1">
-      <c r="B439" s="9"/>
+      <c r="B439" s="12"/>
     </row>
     <row r="440" ht="15.75" customHeight="1">
-      <c r="B440" s="9"/>
+      <c r="B440" s="12"/>
     </row>
     <row r="441" ht="15.75" customHeight="1">
-      <c r="B441" s="9"/>
+      <c r="B441" s="12"/>
     </row>
     <row r="442" ht="15.75" customHeight="1">
-      <c r="B442" s="9"/>
+      <c r="B442" s="12"/>
     </row>
     <row r="443" ht="15.75" customHeight="1">
-      <c r="B443" s="9"/>
+      <c r="B443" s="12"/>
     </row>
     <row r="444" ht="15.75" customHeight="1">
-      <c r="B444" s="9"/>
+      <c r="B444" s="12"/>
     </row>
     <row r="445" ht="15.75" customHeight="1">
-      <c r="B445" s="9"/>
+      <c r="B445" s="12"/>
     </row>
     <row r="446" ht="15.75" customHeight="1">
-      <c r="B446" s="9"/>
+      <c r="B446" s="12"/>
     </row>
     <row r="447" ht="15.75" customHeight="1">
-      <c r="B447" s="9"/>
+      <c r="B447" s="12"/>
     </row>
     <row r="448" ht="15.75" customHeight="1">
-      <c r="B448" s="9"/>
+      <c r="B448" s="12"/>
     </row>
     <row r="449" ht="15.75" customHeight="1">
-      <c r="B449" s="9"/>
+      <c r="B449" s="12"/>
     </row>
     <row r="450" ht="15.75" customHeight="1">
-      <c r="B450" s="9"/>
+      <c r="B450" s="12"/>
     </row>
     <row r="451" ht="15.75" customHeight="1">
-      <c r="B451" s="9"/>
+      <c r="B451" s="12"/>
     </row>
     <row r="452" ht="15.75" customHeight="1">
-      <c r="B452" s="9"/>
+      <c r="B452" s="12"/>
     </row>
     <row r="453" ht="15.75" customHeight="1">
-      <c r="B453" s="9"/>
+      <c r="B453" s="12"/>
     </row>
     <row r="454" ht="15.75" customHeight="1">
-      <c r="B454" s="9"/>
+      <c r="B454" s="12"/>
     </row>
     <row r="455" ht="15.75" customHeight="1">
-      <c r="B455" s="9"/>
+      <c r="B455" s="12"/>
     </row>
     <row r="456" ht="15.75" customHeight="1">
-      <c r="B456" s="9"/>
+      <c r="B456" s="12"/>
     </row>
     <row r="457" ht="15.75" customHeight="1">
-      <c r="B457" s="9"/>
+      <c r="B457" s="12"/>
     </row>
     <row r="458" ht="15.75" customHeight="1">
-      <c r="B458" s="9"/>
+      <c r="B458" s="12"/>
     </row>
     <row r="459" ht="15.75" customHeight="1">
-      <c r="B459" s="9"/>
+      <c r="B459" s="12"/>
     </row>
     <row r="460" ht="15.75" customHeight="1">
-      <c r="B460" s="9"/>
+      <c r="B460" s="12"/>
     </row>
     <row r="461" ht="15.75" customHeight="1">
-      <c r="B461" s="9"/>
+      <c r="B461" s="12"/>
     </row>
     <row r="462" ht="15.75" customHeight="1">
-      <c r="B462" s="9"/>
+      <c r="B462" s="12"/>
     </row>
     <row r="463" ht="15.75" customHeight="1">
-      <c r="B463" s="9"/>
+      <c r="B463" s="12"/>
     </row>
     <row r="464" ht="15.75" customHeight="1">
-      <c r="B464" s="9"/>
+      <c r="B464" s="12"/>
     </row>
     <row r="465" ht="15.75" customHeight="1">
-      <c r="B465" s="9"/>
+      <c r="B465" s="12"/>
     </row>
     <row r="466" ht="15.75" customHeight="1">
-      <c r="B466" s="9"/>
+      <c r="B466" s="12"/>
     </row>
     <row r="467" ht="15.75" customHeight="1">
-      <c r="B467" s="9"/>
+      <c r="B467" s="12"/>
     </row>
     <row r="468" ht="15.75" customHeight="1">
-      <c r="B468" s="9"/>
+      <c r="B468" s="12"/>
     </row>
     <row r="469" ht="15.75" customHeight="1">
-      <c r="B469" s="9"/>
+      <c r="B469" s="12"/>
     </row>
     <row r="470" ht="15.75" customHeight="1">
-      <c r="B470" s="9"/>
+      <c r="B470" s="12"/>
     </row>
     <row r="471" ht="15.75" customHeight="1">
-      <c r="B471" s="9"/>
+      <c r="B471" s="12"/>
     </row>
     <row r="472" ht="15.75" customHeight="1">
-      <c r="B472" s="9"/>
+      <c r="B472" s="12"/>
     </row>
     <row r="473" ht="15.75" customHeight="1">
-      <c r="B473" s="9"/>
+      <c r="B473" s="12"/>
     </row>
     <row r="474" ht="15.75" customHeight="1">
-      <c r="B474" s="9"/>
+      <c r="B474" s="12"/>
     </row>
     <row r="475" ht="15.75" customHeight="1">
-      <c r="B475" s="9"/>
+      <c r="B475" s="12"/>
     </row>
     <row r="476" ht="15.75" customHeight="1">
-      <c r="B476" s="9"/>
+      <c r="B476" s="12"/>
     </row>
     <row r="477" ht="15.75" customHeight="1">
-      <c r="B477" s="9"/>
+      <c r="B477" s="12"/>
     </row>
     <row r="478" ht="15.75" customHeight="1">
-      <c r="B478" s="9"/>
+      <c r="B478" s="12"/>
     </row>
     <row r="479" ht="15.75" customHeight="1">
-      <c r="B479" s="9"/>
+      <c r="B479" s="12"/>
     </row>
     <row r="480" ht="15.75" customHeight="1">
-      <c r="B480" s="9"/>
+      <c r="B480" s="12"/>
     </row>
     <row r="481" ht="15.75" customHeight="1">
-      <c r="B481" s="9"/>
+      <c r="B481" s="12"/>
     </row>
     <row r="482" ht="15.75" customHeight="1">
-      <c r="B482" s="9"/>
+      <c r="B482" s="12"/>
     </row>
     <row r="483" ht="15.75" customHeight="1">
-      <c r="B483" s="9"/>
+      <c r="B483" s="12"/>
     </row>
     <row r="484" ht="15.75" customHeight="1">
-      <c r="B484" s="9"/>
+      <c r="B484" s="12"/>
     </row>
     <row r="485" ht="15.75" customHeight="1">
-      <c r="B485" s="9"/>
+      <c r="B485" s="12"/>
     </row>
     <row r="486" ht="15.75" customHeight="1">
-      <c r="B486" s="9"/>
+      <c r="B486" s="12"/>
     </row>
     <row r="487" ht="15.75" customHeight="1">
-      <c r="B487" s="9"/>
+      <c r="B487" s="12"/>
     </row>
     <row r="488" ht="15.75" customHeight="1">
-      <c r="B488" s="9"/>
+      <c r="B488" s="12"/>
     </row>
     <row r="489" ht="15.75" customHeight="1">
-      <c r="B489" s="9"/>
+      <c r="B489" s="12"/>
     </row>
     <row r="490" ht="15.75" customHeight="1">
-      <c r="B490" s="9"/>
+      <c r="B490" s="12"/>
     </row>
     <row r="491" ht="15.75" customHeight="1">
-      <c r="B491" s="9"/>
+      <c r="B491" s="12"/>
     </row>
     <row r="492" ht="15.75" customHeight="1">
-      <c r="B492" s="9"/>
+      <c r="B492" s="12"/>
     </row>
     <row r="493" ht="15.75" customHeight="1">
-      <c r="B493" s="9"/>
+      <c r="B493" s="12"/>
     </row>
     <row r="494" ht="15.75" customHeight="1">
-      <c r="B494" s="9"/>
+      <c r="B494" s="12"/>
     </row>
     <row r="495" ht="15.75" customHeight="1">
-      <c r="B495" s="9"/>
+      <c r="B495" s="12"/>
     </row>
     <row r="496" ht="15.75" customHeight="1">
-      <c r="B496" s="9"/>
+      <c r="B496" s="12"/>
     </row>
     <row r="497" ht="15.75" customHeight="1">
-      <c r="B497" s="9"/>
+      <c r="B497" s="12"/>
     </row>
     <row r="498" ht="15.75" customHeight="1">
-      <c r="B498" s="9"/>
+      <c r="B498" s="12"/>
     </row>
     <row r="499" ht="15.75" customHeight="1">
-      <c r="B499" s="9"/>
+      <c r="B499" s="12"/>
     </row>
     <row r="500" ht="15.75" customHeight="1">
-      <c r="B500" s="9"/>
+      <c r="B500" s="12"/>
     </row>
     <row r="501" ht="15.75" customHeight="1">
-      <c r="B501" s="9"/>
+      <c r="B501" s="12"/>
     </row>
     <row r="502" ht="15.75" customHeight="1">
-      <c r="B502" s="9"/>
+      <c r="B502" s="12"/>
     </row>
     <row r="503" ht="15.75" customHeight="1">
-      <c r="B503" s="9"/>
+      <c r="B503" s="12"/>
     </row>
     <row r="504" ht="15.75" customHeight="1">
-      <c r="B504" s="9"/>
+      <c r="B504" s="12"/>
     </row>
     <row r="505" ht="15.75" customHeight="1">
-      <c r="B505" s="9"/>
+      <c r="B505" s="12"/>
     </row>
     <row r="506" ht="15.75" customHeight="1">
-      <c r="B506" s="9"/>
+      <c r="B506" s="12"/>
     </row>
     <row r="507" ht="15.75" customHeight="1">
-      <c r="B507" s="9"/>
+      <c r="B507" s="12"/>
     </row>
     <row r="508" ht="15.75" customHeight="1">
-      <c r="B508" s="9"/>
+      <c r="B508" s="12"/>
     </row>
     <row r="509" ht="15.75" customHeight="1">
-      <c r="B509" s="9"/>
+      <c r="B509" s="12"/>
     </row>
     <row r="510" ht="15.75" customHeight="1">
-      <c r="B510" s="9"/>
+      <c r="B510" s="12"/>
     </row>
     <row r="511" ht="15.75" customHeight="1">
-      <c r="B511" s="9"/>
+      <c r="B511" s="12"/>
     </row>
     <row r="512" ht="15.75" customHeight="1">
-      <c r="B512" s="9"/>
+      <c r="B512" s="12"/>
     </row>
     <row r="513" ht="15.75" customHeight="1">
-      <c r="B513" s="9"/>
+      <c r="B513" s="12"/>
     </row>
     <row r="514" ht="15.75" customHeight="1">
-      <c r="B514" s="9"/>
+      <c r="B514" s="12"/>
     </row>
     <row r="515" ht="15.75" customHeight="1">
-      <c r="B515" s="9"/>
+      <c r="B515" s="12"/>
     </row>
     <row r="516" ht="15.75" customHeight="1">
-      <c r="B516" s="9"/>
+      <c r="B516" s="12"/>
     </row>
     <row r="517" ht="15.75" customHeight="1">
-      <c r="B517" s="9"/>
+      <c r="B517" s="12"/>
     </row>
     <row r="518" ht="15.75" customHeight="1">
-      <c r="B518" s="9"/>
+      <c r="B518" s="12"/>
     </row>
     <row r="519" ht="15.75" customHeight="1">
-      <c r="B519" s="9"/>
+      <c r="B519" s="12"/>
     </row>
     <row r="520" ht="15.75" customHeight="1">
-      <c r="B520" s="9"/>
+      <c r="B520" s="12"/>
     </row>
     <row r="521" ht="15.75" customHeight="1">
-      <c r="B521" s="9"/>
+      <c r="B521" s="12"/>
     </row>
     <row r="522" ht="15.75" customHeight="1">
-      <c r="B522" s="9"/>
+      <c r="B522" s="12"/>
     </row>
     <row r="523" ht="15.75" customHeight="1">
-      <c r="B523" s="9"/>
+      <c r="B523" s="12"/>
     </row>
     <row r="524" ht="15.75" customHeight="1">
-      <c r="B524" s="9"/>
+      <c r="B524" s="12"/>
     </row>
     <row r="525" ht="15.75" customHeight="1">
-      <c r="B525" s="9"/>
+      <c r="B525" s="12"/>
     </row>
     <row r="526" ht="15.75" customHeight="1">
-      <c r="B526" s="9"/>
+      <c r="B526" s="12"/>
     </row>
     <row r="527" ht="15.75" customHeight="1">
-      <c r="B527" s="9"/>
+      <c r="B527" s="12"/>
     </row>
     <row r="528" ht="15.75" customHeight="1">
-      <c r="B528" s="9"/>
+      <c r="B528" s="12"/>
     </row>
     <row r="529" ht="15.75" customHeight="1">
-      <c r="B529" s="9"/>
+      <c r="B529" s="12"/>
     </row>
     <row r="530" ht="15.75" customHeight="1">
-      <c r="B530" s="9"/>
+      <c r="B530" s="12"/>
     </row>
     <row r="531" ht="15.75" customHeight="1">
-      <c r="B531" s="9"/>
+      <c r="B531" s="12"/>
     </row>
     <row r="532" ht="15.75" customHeight="1">
-      <c r="B532" s="9"/>
+      <c r="B532" s="12"/>
     </row>
     <row r="533" ht="15.75" customHeight="1">
-      <c r="B533" s="9"/>
+      <c r="B533" s="12"/>
     </row>
     <row r="534" ht="15.75" customHeight="1">
-      <c r="B534" s="9"/>
+      <c r="B534" s="12"/>
     </row>
     <row r="535" ht="15.75" customHeight="1">
-      <c r="B535" s="9"/>
+      <c r="B535" s="12"/>
     </row>
     <row r="536" ht="15.75" customHeight="1">
-      <c r="B536" s="9"/>
+      <c r="B536" s="12"/>
     </row>
     <row r="537" ht="15.75" customHeight="1">
-      <c r="B537" s="9"/>
+      <c r="B537" s="12"/>
     </row>
     <row r="538" ht="15.75" customHeight="1">
-      <c r="B538" s="9"/>
+      <c r="B538" s="12"/>
     </row>
     <row r="539" ht="15.75" customHeight="1">
-      <c r="B539" s="9"/>
+      <c r="B539" s="12"/>
     </row>
     <row r="540" ht="15.75" customHeight="1">
-      <c r="B540" s="9"/>
+      <c r="B540" s="12"/>
     </row>
     <row r="541" ht="15.75" customHeight="1">
-      <c r="B541" s="9"/>
+      <c r="B541" s="12"/>
     </row>
     <row r="542" ht="15.75" customHeight="1">
-      <c r="B542" s="9"/>
+      <c r="B542" s="12"/>
     </row>
     <row r="543" ht="15.75" customHeight="1">
-      <c r="B543" s="9"/>
+      <c r="B543" s="12"/>
     </row>
     <row r="544" ht="15.75" customHeight="1">
-      <c r="B544" s="9"/>
+      <c r="B544" s="12"/>
     </row>
     <row r="545" ht="15.75" customHeight="1">
-      <c r="B545" s="9"/>
+      <c r="B545" s="12"/>
     </row>
     <row r="546" ht="15.75" customHeight="1">
-      <c r="B546" s="9"/>
+      <c r="B546" s="12"/>
     </row>
     <row r="547" ht="15.75" customHeight="1">
-      <c r="B547" s="9"/>
+      <c r="B547" s="12"/>
     </row>
     <row r="548" ht="15.75" customHeight="1">
-      <c r="B548" s="9"/>
+      <c r="B548" s="12"/>
     </row>
     <row r="549" ht="15.75" customHeight="1">
-      <c r="B549" s="9"/>
+      <c r="B549" s="12"/>
     </row>
     <row r="550" ht="15.75" customHeight="1">
-      <c r="B550" s="9"/>
+      <c r="B550" s="12"/>
     </row>
     <row r="551" ht="15.75" customHeight="1">
-      <c r="B551" s="9"/>
+      <c r="B551" s="12"/>
     </row>
     <row r="552" ht="15.75" customHeight="1">
-      <c r="B552" s="9"/>
+      <c r="B552" s="12"/>
     </row>
     <row r="553" ht="15.75" customHeight="1">
-      <c r="B553" s="9"/>
+      <c r="B553" s="12"/>
     </row>
     <row r="554" ht="15.75" customHeight="1">
-      <c r="B554" s="9"/>
+      <c r="B554" s="12"/>
     </row>
     <row r="555" ht="15.75" customHeight="1">
-      <c r="B555" s="9"/>
+      <c r="B555" s="12"/>
     </row>
     <row r="556" ht="15.75" customHeight="1">
-      <c r="B556" s="9"/>
+      <c r="B556" s="12"/>
     </row>
     <row r="557" ht="15.75" customHeight="1">
-      <c r="B557" s="9"/>
+      <c r="B557" s="12"/>
     </row>
     <row r="558" ht="15.75" customHeight="1">
-      <c r="B558" s="9"/>
+      <c r="B558" s="12"/>
     </row>
     <row r="559" ht="15.75" customHeight="1">
-      <c r="B559" s="9"/>
+      <c r="B559" s="12"/>
     </row>
     <row r="560" ht="15.75" customHeight="1">
-      <c r="B560" s="9"/>
+      <c r="B560" s="12"/>
     </row>
     <row r="561" ht="15.75" customHeight="1">
-      <c r="B561" s="9"/>
+      <c r="B561" s="12"/>
     </row>
     <row r="562" ht="15.75" customHeight="1">
-      <c r="B562" s="9"/>
+      <c r="B562" s="12"/>
     </row>
     <row r="563" ht="15.75" customHeight="1">
-      <c r="B563" s="9"/>
+      <c r="B563" s="12"/>
     </row>
     <row r="564" ht="15.75" customHeight="1">
-      <c r="B564" s="9"/>
+      <c r="B564" s="12"/>
     </row>
     <row r="565" ht="15.75" customHeight="1">
-      <c r="B565" s="9"/>
+      <c r="B565" s="12"/>
     </row>
     <row r="566" ht="15.75" customHeight="1">
-      <c r="B566" s="9"/>
+      <c r="B566" s="12"/>
     </row>
     <row r="567" ht="15.75" customHeight="1">
-      <c r="B567" s="9"/>
+      <c r="B567" s="12"/>
     </row>
     <row r="568" ht="15.75" customHeight="1">
-      <c r="B568" s="9"/>
+      <c r="B568" s="12"/>
     </row>
     <row r="569" ht="15.75" customHeight="1">
-      <c r="B569" s="9"/>
+      <c r="B569" s="12"/>
     </row>
     <row r="570" ht="15.75" customHeight="1">
-      <c r="B570" s="9"/>
+      <c r="B570" s="12"/>
     </row>
     <row r="571" ht="15.75" customHeight="1">
-      <c r="B571" s="9"/>
+      <c r="B571" s="12"/>
     </row>
     <row r="572" ht="15.75" customHeight="1">
-      <c r="B572" s="9"/>
+      <c r="B572" s="12"/>
     </row>
     <row r="573" ht="15.75" customHeight="1">
-      <c r="B573" s="9"/>
+      <c r="B573" s="12"/>
     </row>
     <row r="574" ht="15.75" customHeight="1">
-      <c r="B574" s="9"/>
+      <c r="B574" s="12"/>
     </row>
     <row r="575" ht="15.75" customHeight="1">
-      <c r="B575" s="9"/>
+      <c r="B575" s="12"/>
     </row>
     <row r="576" ht="15.75" customHeight="1">
-      <c r="B576" s="9"/>
+      <c r="B576" s="12"/>
     </row>
     <row r="577" ht="15.75" customHeight="1">
-      <c r="B577" s="9"/>
+      <c r="B577" s="12"/>
     </row>
     <row r="578" ht="15.75" customHeight="1">
-      <c r="B578" s="9"/>
+      <c r="B578" s="12"/>
     </row>
     <row r="579" ht="15.75" customHeight="1">
-      <c r="B579" s="9"/>
+      <c r="B579" s="12"/>
     </row>
     <row r="580" ht="15.75" customHeight="1">
-      <c r="B580" s="9"/>
+      <c r="B580" s="12"/>
     </row>
     <row r="581" ht="15.75" customHeight="1">
-      <c r="B581" s="9"/>
+      <c r="B581" s="12"/>
     </row>
     <row r="582" ht="15.75" customHeight="1">
-      <c r="B582" s="9"/>
+      <c r="B582" s="12"/>
     </row>
     <row r="583" ht="15.75" customHeight="1">
-      <c r="B583" s="9"/>
+      <c r="B583" s="12"/>
     </row>
     <row r="584" ht="15.75" customHeight="1">
-      <c r="B584" s="9"/>
+      <c r="B584" s="12"/>
     </row>
     <row r="585" ht="15.75" customHeight="1">
-      <c r="B585" s="9"/>
+      <c r="B585" s="12"/>
     </row>
     <row r="586" ht="15.75" customHeight="1">
-      <c r="B586" s="9"/>
+      <c r="B586" s="12"/>
     </row>
     <row r="587" ht="15.75" customHeight="1">
-      <c r="B587" s="9"/>
+      <c r="B587" s="12"/>
     </row>
     <row r="588" ht="15.75" customHeight="1">
-      <c r="B588" s="9"/>
+      <c r="B588" s="12"/>
     </row>
     <row r="589" ht="15.75" customHeight="1">
-      <c r="B589" s="9"/>
+      <c r="B589" s="12"/>
     </row>
     <row r="590" ht="15.75" customHeight="1">
-      <c r="B590" s="9"/>
+      <c r="B590" s="12"/>
     </row>
     <row r="591" ht="15.75" customHeight="1">
-      <c r="B591" s="9"/>
+      <c r="B591" s="12"/>
     </row>
     <row r="592" ht="15.75" customHeight="1">
-      <c r="B592" s="9"/>
+      <c r="B592" s="12"/>
     </row>
     <row r="593" ht="15.75" customHeight="1">
-      <c r="B593" s="9"/>
+      <c r="B593" s="12"/>
     </row>
     <row r="594" ht="15.75" customHeight="1">
-      <c r="B594" s="9"/>
+      <c r="B594" s="12"/>
     </row>
     <row r="595" ht="15.75" customHeight="1">
-      <c r="B595" s="9"/>
+      <c r="B595" s="12"/>
     </row>
     <row r="596" ht="15.75" customHeight="1">
-      <c r="B596" s="9"/>
+      <c r="B596" s="12"/>
     </row>
     <row r="597" ht="15.75" customHeight="1">
-      <c r="B597" s="9"/>
+      <c r="B597" s="12"/>
     </row>
     <row r="598" ht="15.75" customHeight="1">
-      <c r="B598" s="9"/>
+      <c r="B598" s="12"/>
     </row>
     <row r="599" ht="15.75" customHeight="1">
-      <c r="B599" s="9"/>
+      <c r="B599" s="12"/>
     </row>
     <row r="600" ht="15.75" customHeight="1">
-      <c r="B600" s="9"/>
+      <c r="B600" s="12"/>
     </row>
     <row r="601" ht="15.75" customHeight="1">
-      <c r="B601" s="9"/>
+      <c r="B601" s="12"/>
     </row>
     <row r="602" ht="15.75" customHeight="1">
-      <c r="B602" s="9"/>
+      <c r="B602" s="12"/>
     </row>
     <row r="603" ht="15.75" customHeight="1">
-      <c r="B603" s="9"/>
+      <c r="B603" s="12"/>
     </row>
     <row r="604" ht="15.75" customHeight="1">
-      <c r="B604" s="9"/>
+      <c r="B604" s="12"/>
     </row>
     <row r="605" ht="15.75" customHeight="1">
-      <c r="B605" s="9"/>
+      <c r="B605" s="12"/>
     </row>
     <row r="606" ht="15.75" customHeight="1">
-      <c r="B606" s="9"/>
+      <c r="B606" s="12"/>
     </row>
     <row r="607" ht="15.75" customHeight="1">
-      <c r="B607" s="9"/>
+      <c r="B607" s="12"/>
     </row>
     <row r="608" ht="15.75" customHeight="1">
-      <c r="B608" s="9"/>
+      <c r="B608" s="12"/>
     </row>
     <row r="609" ht="15.75" customHeight="1">
-      <c r="B609" s="9"/>
+      <c r="B609" s="12"/>
     </row>
     <row r="610" ht="15.75" customHeight="1">
-      <c r="B610" s="9"/>
+      <c r="B610" s="12"/>
     </row>
     <row r="611" ht="15.75" customHeight="1">
-      <c r="B611" s="9"/>
+      <c r="B611" s="12"/>
     </row>
     <row r="612" ht="15.75" customHeight="1">
-      <c r="B612" s="9"/>
+      <c r="B612" s="12"/>
     </row>
     <row r="613" ht="15.75" customHeight="1">
-      <c r="B613" s="9"/>
+      <c r="B613" s="12"/>
     </row>
     <row r="614" ht="15.75" customHeight="1">
-      <c r="B614" s="9"/>
+      <c r="B614" s="12"/>
     </row>
     <row r="615" ht="15.75" customHeight="1">
-      <c r="B615" s="9"/>
+      <c r="B615" s="12"/>
     </row>
     <row r="616" ht="15.75" customHeight="1">
-      <c r="B616" s="9"/>
+      <c r="B616" s="12"/>
     </row>
     <row r="617" ht="15.75" customHeight="1">
-      <c r="B617" s="9"/>
+      <c r="B617" s="12"/>
     </row>
     <row r="618" ht="15.75" customHeight="1">
-      <c r="B618" s="9"/>
+      <c r="B618" s="12"/>
     </row>
     <row r="619" ht="15.75" customHeight="1">
-      <c r="B619" s="9"/>
+      <c r="B619" s="12"/>
     </row>
     <row r="620" ht="15.75" customHeight="1">
-      <c r="B620" s="9"/>
+      <c r="B620" s="12"/>
     </row>
     <row r="621" ht="15.75" customHeight="1">
-      <c r="B621" s="9"/>
+      <c r="B621" s="12"/>
     </row>
     <row r="622" ht="15.75" customHeight="1">
-      <c r="B622" s="9"/>
+      <c r="B622" s="12"/>
     </row>
     <row r="623" ht="15.75" customHeight="1">
-      <c r="B623" s="9"/>
+      <c r="B623" s="12"/>
     </row>
     <row r="624" ht="15.75" customHeight="1">
-      <c r="B624" s="9"/>
+      <c r="B624" s="12"/>
     </row>
     <row r="625" ht="15.75" customHeight="1">
-      <c r="B625" s="9"/>
+      <c r="B625" s="12"/>
     </row>
     <row r="626" ht="15.75" customHeight="1">
-      <c r="B626" s="9"/>
+      <c r="B626" s="12"/>
     </row>
     <row r="627" ht="15.75" customHeight="1">
-      <c r="B627" s="9"/>
+      <c r="B627" s="12"/>
     </row>
     <row r="628" ht="15.75" customHeight="1">
-      <c r="B628" s="9"/>
+      <c r="B628" s="12"/>
     </row>
     <row r="629" ht="15.75" customHeight="1">
-      <c r="B629" s="9"/>
+      <c r="B629" s="12"/>
     </row>
     <row r="630" ht="15.75" customHeight="1">
-      <c r="B630" s="9"/>
+      <c r="B630" s="12"/>
     </row>
     <row r="631" ht="15.75" customHeight="1">
-      <c r="B631" s="9"/>
+      <c r="B631" s="12"/>
     </row>
     <row r="632" ht="15.75" customHeight="1">
-      <c r="B632" s="9"/>
+      <c r="B632" s="12"/>
     </row>
     <row r="633" ht="15.75" customHeight="1">
-      <c r="B633" s="9"/>
+      <c r="B633" s="12"/>
     </row>
     <row r="634" ht="15.75" customHeight="1">
-      <c r="B634" s="9"/>
+      <c r="B634" s="12"/>
     </row>
     <row r="635" ht="15.75" customHeight="1">
-      <c r="B635" s="9"/>
+      <c r="B635" s="12"/>
     </row>
     <row r="636" ht="15.75" customHeight="1">
-      <c r="B636" s="9"/>
+      <c r="B636" s="12"/>
     </row>
     <row r="637" ht="15.75" customHeight="1">
-      <c r="B637" s="9"/>
+      <c r="B637" s="12"/>
     </row>
     <row r="638" ht="15.75" customHeight="1">
-      <c r="B638" s="9"/>
+      <c r="B638" s="12"/>
     </row>
     <row r="639" ht="15.75" customHeight="1">
-      <c r="B639" s="9"/>
+      <c r="B639" s="12"/>
     </row>
     <row r="640" ht="15.75" customHeight="1">
-      <c r="B640" s="9"/>
+      <c r="B640" s="12"/>
     </row>
     <row r="641" ht="15.75" customHeight="1">
-      <c r="B641" s="9"/>
+      <c r="B641" s="12"/>
     </row>
     <row r="642" ht="15.75" customHeight="1">
-      <c r="B642" s="9"/>
+      <c r="B642" s="12"/>
     </row>
     <row r="643" ht="15.75" customHeight="1">
-      <c r="B643" s="9"/>
+      <c r="B643" s="12"/>
     </row>
     <row r="644" ht="15.75" customHeight="1">
-      <c r="B644" s="9"/>
+      <c r="B644" s="12"/>
     </row>
     <row r="645" ht="15.75" customHeight="1">
-      <c r="B645" s="9"/>
+      <c r="B645" s="12"/>
     </row>
     <row r="646" ht="15.75" customHeight="1">
-      <c r="B646" s="9"/>
+      <c r="B646" s="12"/>
     </row>
     <row r="647" ht="15.75" customHeight="1">
-      <c r="B647" s="9"/>
+      <c r="B647" s="12"/>
     </row>
     <row r="648" ht="15.75" customHeight="1">
-      <c r="B648" s="9"/>
+      <c r="B648" s="12"/>
     </row>
     <row r="649" ht="15.75" customHeight="1">
-      <c r="B649" s="9"/>
+      <c r="B649" s="12"/>
     </row>
     <row r="650" ht="15.75" customHeight="1">
-      <c r="B650" s="9"/>
+      <c r="B650" s="12"/>
     </row>
     <row r="651" ht="15.75" customHeight="1">
-      <c r="B651" s="9"/>
+      <c r="B651" s="12"/>
     </row>
     <row r="652" ht="15.75" customHeight="1">
-      <c r="B652" s="9"/>
+      <c r="B652" s="12"/>
     </row>
     <row r="653" ht="15.75" customHeight="1">
-      <c r="B653" s="9"/>
+      <c r="B653" s="12"/>
     </row>
     <row r="654" ht="15.75" customHeight="1">
-      <c r="B654" s="9"/>
+      <c r="B654" s="12"/>
     </row>
     <row r="655" ht="15.75" customHeight="1">
-      <c r="B655" s="9"/>
+      <c r="B655" s="12"/>
     </row>
     <row r="656" ht="15.75" customHeight="1">
-      <c r="B656" s="9"/>
+      <c r="B656" s="12"/>
     </row>
     <row r="657" ht="15.75" customHeight="1">
-      <c r="B657" s="9"/>
+      <c r="B657" s="12"/>
     </row>
     <row r="658" ht="15.75" customHeight="1">
-      <c r="B658" s="9"/>
+      <c r="B658" s="12"/>
     </row>
     <row r="659" ht="15.75" customHeight="1">
-      <c r="B659" s="9"/>
+      <c r="B659" s="12"/>
     </row>
     <row r="660" ht="15.75" customHeight="1">
-      <c r="B660" s="9"/>
+      <c r="B660" s="12"/>
     </row>
     <row r="661" ht="15.75" customHeight="1">
-      <c r="B661" s="9"/>
+      <c r="B661" s="12"/>
     </row>
     <row r="662" ht="15.75" customHeight="1">
-      <c r="B662" s="9"/>
+      <c r="B662" s="12"/>
     </row>
     <row r="663" ht="15.75" customHeight="1">
-      <c r="B663" s="9"/>
+      <c r="B663" s="12"/>
     </row>
     <row r="664" ht="15.75" customHeight="1">
-      <c r="B664" s="9"/>
+      <c r="B664" s="12"/>
     </row>
     <row r="665" ht="15.75" customHeight="1">
-      <c r="B665" s="9"/>
+      <c r="B665" s="12"/>
     </row>
     <row r="666" ht="15.75" customHeight="1">
-      <c r="B666" s="9"/>
+      <c r="B666" s="12"/>
     </row>
     <row r="667" ht="15.75" customHeight="1">
-      <c r="B667" s="9"/>
+      <c r="B667" s="12"/>
     </row>
     <row r="668" ht="15.75" customHeight="1">
-      <c r="B668" s="9"/>
+      <c r="B668" s="12"/>
     </row>
     <row r="669" ht="15.75" customHeight="1">
-      <c r="B669" s="9"/>
+      <c r="B669" s="12"/>
     </row>
     <row r="670" ht="15.75" customHeight="1">
-      <c r="B670" s="9"/>
+      <c r="B670" s="12"/>
     </row>
     <row r="671" ht="15.75" customHeight="1">
-      <c r="B671" s="9"/>
+      <c r="B671" s="12"/>
     </row>
     <row r="672" ht="15.75" customHeight="1">
-      <c r="B672" s="9"/>
+      <c r="B672" s="12"/>
     </row>
     <row r="673" ht="15.75" customHeight="1">
-      <c r="B673" s="9"/>
+      <c r="B673" s="12"/>
     </row>
     <row r="674" ht="15.75" customHeight="1">
-      <c r="B674" s="9"/>
+      <c r="B674" s="12"/>
     </row>
     <row r="675" ht="15.75" customHeight="1">
-      <c r="B675" s="9"/>
+      <c r="B675" s="12"/>
     </row>
     <row r="676" ht="15.75" customHeight="1">
-      <c r="B676" s="9"/>
+      <c r="B676" s="12"/>
     </row>
     <row r="677" ht="15.75" customHeight="1">
-      <c r="B677" s="9"/>
+      <c r="B677" s="12"/>
     </row>
     <row r="678" ht="15.75" customHeight="1">
-      <c r="B678" s="9"/>
+      <c r="B678" s="12"/>
     </row>
     <row r="679" ht="15.75" customHeight="1">
-      <c r="B679" s="9"/>
+      <c r="B679" s="12"/>
     </row>
     <row r="680" ht="15.75" customHeight="1">
-      <c r="B680" s="9"/>
+      <c r="B680" s="12"/>
     </row>
     <row r="681" ht="15.75" customHeight="1">
-      <c r="B681" s="9"/>
+      <c r="B681" s="12"/>
     </row>
     <row r="682" ht="15.75" customHeight="1">
-      <c r="B682" s="9"/>
+      <c r="B682" s="12"/>
     </row>
     <row r="683" ht="15.75" customHeight="1">
-      <c r="B683" s="9"/>
+      <c r="B683" s="12"/>
     </row>
     <row r="684" ht="15.75" customHeight="1">
-      <c r="B684" s="9"/>
+      <c r="B684" s="12"/>
     </row>
     <row r="685" ht="15.75" customHeight="1">
-      <c r="B685" s="9"/>
+      <c r="B685" s="12"/>
     </row>
     <row r="686" ht="15.75" customHeight="1">
-      <c r="B686" s="9"/>
+      <c r="B686" s="12"/>
     </row>
     <row r="687" ht="15.75" customHeight="1">
-      <c r="B687" s="9"/>
+      <c r="B687" s="12"/>
     </row>
     <row r="688" ht="15.75" customHeight="1">
-      <c r="B688" s="9"/>
+      <c r="B688" s="12"/>
     </row>
     <row r="689" ht="15.75" customHeight="1">
-      <c r="B689" s="9"/>
+      <c r="B689" s="12"/>
     </row>
     <row r="690" ht="15.75" customHeight="1">
-      <c r="B690" s="9"/>
+      <c r="B690" s="12"/>
     </row>
     <row r="691" ht="15.75" customHeight="1">
-      <c r="B691" s="9"/>
+      <c r="B691" s="12"/>
     </row>
     <row r="692" ht="15.75" customHeight="1">
-      <c r="B692" s="9"/>
+      <c r="B692" s="12"/>
     </row>
     <row r="693" ht="15.75" customHeight="1">
-      <c r="B693" s="9"/>
+      <c r="B693" s="12"/>
     </row>
     <row r="694" ht="15.75" customHeight="1">
-      <c r="B694" s="9"/>
+      <c r="B694" s="12"/>
     </row>
     <row r="695" ht="15.75" customHeight="1">
-      <c r="B695" s="9"/>
+      <c r="B695" s="12"/>
     </row>
     <row r="696" ht="15.75" customHeight="1">
-      <c r="B696" s="9"/>
+      <c r="B696" s="12"/>
     </row>
     <row r="697" ht="15.75" customHeight="1">
-      <c r="B697" s="9"/>
+      <c r="B697" s="12"/>
     </row>
     <row r="698" ht="15.75" customHeight="1">
-      <c r="B698" s="9"/>
+      <c r="B698" s="12"/>
     </row>
     <row r="699" ht="15.75" customHeight="1">
-      <c r="B699" s="9"/>
+      <c r="B699" s="12"/>
     </row>
     <row r="700" ht="15.75" customHeight="1">
-      <c r="B700" s="9"/>
+      <c r="B700" s="12"/>
     </row>
     <row r="701" ht="15.75" customHeight="1">
-      <c r="B701" s="9"/>
+      <c r="B701" s="12"/>
     </row>
     <row r="702" ht="15.75" customHeight="1">
-      <c r="B702" s="9"/>
+      <c r="B702" s="12"/>
     </row>
     <row r="703" ht="15.75" customHeight="1">
-      <c r="B703" s="9"/>
+      <c r="B703" s="12"/>
     </row>
     <row r="704" ht="15.75" customHeight="1">
-      <c r="B704" s="9"/>
+      <c r="B704" s="12"/>
     </row>
     <row r="705" ht="15.75" customHeight="1">
-      <c r="B705" s="9"/>
+      <c r="B705" s="12"/>
     </row>
     <row r="706" ht="15.75" customHeight="1">
-      <c r="B706" s="9"/>
+      <c r="B706" s="12"/>
     </row>
     <row r="707" ht="15.75" customHeight="1">
-      <c r="B707" s="9"/>
+      <c r="B707" s="12"/>
     </row>
     <row r="708" ht="15.75" customHeight="1">
-      <c r="B708" s="9"/>
+      <c r="B708" s="12"/>
     </row>
     <row r="709" ht="15.75" customHeight="1">
-      <c r="B709" s="9"/>
+      <c r="B709" s="12"/>
     </row>
     <row r="710" ht="15.75" customHeight="1">
-      <c r="B710" s="9"/>
+      <c r="B710" s="12"/>
     </row>
     <row r="711" ht="15.75" customHeight="1">
-      <c r="B711" s="9"/>
+      <c r="B711" s="12"/>
     </row>
     <row r="712" ht="15.75" customHeight="1">
-      <c r="B712" s="9"/>
+      <c r="B712" s="12"/>
     </row>
     <row r="713" ht="15.75" customHeight="1">
-      <c r="B713" s="9"/>
+      <c r="B713" s="12"/>
     </row>
     <row r="714" ht="15.75" customHeight="1">
-      <c r="B714" s="9"/>
+      <c r="B714" s="12"/>
     </row>
     <row r="715" ht="15.75" customHeight="1">
-      <c r="B715" s="9"/>
+      <c r="B715" s="12"/>
     </row>
     <row r="716" ht="15.75" customHeight="1">
-      <c r="B716" s="9"/>
+      <c r="B716" s="12"/>
     </row>
     <row r="717" ht="15.75" customHeight="1">
-      <c r="B717" s="9"/>
+      <c r="B717" s="12"/>
     </row>
     <row r="718" ht="15.75" customHeight="1">
-      <c r="B718" s="9"/>
+      <c r="B718" s="12"/>
     </row>
     <row r="719" ht="15.75" customHeight="1">
-      <c r="B719" s="9"/>
+      <c r="B719" s="12"/>
     </row>
     <row r="720" ht="15.75" customHeight="1">
-      <c r="B720" s="9"/>
+      <c r="B720" s="12"/>
     </row>
     <row r="721" ht="15.75" customHeight="1">
-      <c r="B721" s="9"/>
+      <c r="B721" s="12"/>
     </row>
     <row r="722" ht="15.75" customHeight="1">
-      <c r="B722" s="9"/>
+      <c r="B722" s="12"/>
     </row>
     <row r="723" ht="15.75" customHeight="1">
-      <c r="B723" s="9"/>
+      <c r="B723" s="12"/>
     </row>
     <row r="724" ht="15.75" customHeight="1">
-      <c r="B724" s="9"/>
+      <c r="B724" s="12"/>
     </row>
     <row r="725" ht="15.75" customHeight="1">
-      <c r="B725" s="9"/>
+      <c r="B725" s="12"/>
     </row>
     <row r="726" ht="15.75" customHeight="1">
-      <c r="B726" s="9"/>
+      <c r="B726" s="12"/>
     </row>
     <row r="727" ht="15.75" customHeight="1">
-      <c r="B727" s="9"/>
+      <c r="B727" s="12"/>
     </row>
     <row r="728" ht="15.75" customHeight="1">
-      <c r="B728" s="9"/>
+      <c r="B728" s="12"/>
     </row>
     <row r="729" ht="15.75" customHeight="1">
-      <c r="B729" s="9"/>
+      <c r="B729" s="12"/>
     </row>
     <row r="730" ht="15.75" customHeight="1">
-      <c r="B730" s="9"/>
+      <c r="B730" s="12"/>
     </row>
     <row r="731" ht="15.75" customHeight="1">
-      <c r="B731" s="9"/>
+      <c r="B731" s="12"/>
     </row>
     <row r="732" ht="15.75" customHeight="1">
-      <c r="B732" s="9"/>
+      <c r="B732" s="12"/>
     </row>
     <row r="733" ht="15.75" customHeight="1">
-      <c r="B733" s="9"/>
+      <c r="B733" s="12"/>
     </row>
     <row r="734" ht="15.75" customHeight="1">
-      <c r="B734" s="9"/>
+      <c r="B734" s="12"/>
     </row>
     <row r="735" ht="15.75" customHeight="1">
-      <c r="B735" s="9"/>
+      <c r="B735" s="12"/>
     </row>
     <row r="736" ht="15.75" customHeight="1">
-      <c r="B736" s="9"/>
+      <c r="B736" s="12"/>
     </row>
     <row r="737" ht="15.75" customHeight="1">
-      <c r="B737" s="9"/>
+      <c r="B737" s="12"/>
     </row>
     <row r="738" ht="15.75" customHeight="1">
-      <c r="B738" s="9"/>
+      <c r="B738" s="12"/>
     </row>
     <row r="739" ht="15.75" customHeight="1">
-      <c r="B739" s="9"/>
+      <c r="B739" s="12"/>
     </row>
     <row r="740" ht="15.75" customHeight="1">
-      <c r="B740" s="9"/>
+      <c r="B740" s="12"/>
     </row>
     <row r="741" ht="15.75" customHeight="1">
-      <c r="B741" s="9"/>
+      <c r="B741" s="12"/>
     </row>
     <row r="742" ht="15.75" customHeight="1">
-      <c r="B742" s="9"/>
+      <c r="B742" s="12"/>
     </row>
     <row r="743" ht="15.75" customHeight="1">
-      <c r="B743" s="9"/>
+      <c r="B743" s="12"/>
     </row>
     <row r="744" ht="15.75" customHeight="1">
-      <c r="B744" s="9"/>
+      <c r="B744" s="12"/>
     </row>
     <row r="745" ht="15.75" customHeight="1">
-      <c r="B745" s="9"/>
+      <c r="B745" s="12"/>
     </row>
     <row r="746" ht="15.75" customHeight="1">
-      <c r="B746" s="9"/>
+      <c r="B746" s="12"/>
     </row>
     <row r="747" ht="15.75" customHeight="1">
-      <c r="B747" s="9"/>
+      <c r="B747" s="12"/>
     </row>
     <row r="748" ht="15.75" customHeight="1">
-      <c r="B748" s="9"/>
+      <c r="B748" s="12"/>
     </row>
     <row r="749" ht="15.75" customHeight="1">
-      <c r="B749" s="9"/>
+      <c r="B749" s="12"/>
     </row>
     <row r="750" ht="15.75" customHeight="1">
-      <c r="B750" s="9"/>
+      <c r="B750" s="12"/>
     </row>
     <row r="751" ht="15.75" customHeight="1">
-      <c r="B751" s="9"/>
+      <c r="B751" s="12"/>
     </row>
     <row r="752" ht="15.75" customHeight="1">
-      <c r="B752" s="9"/>
+      <c r="B752" s="12"/>
     </row>
     <row r="753" ht="15.75" customHeight="1">
-      <c r="B753" s="9"/>
+      <c r="B753" s="12"/>
     </row>
     <row r="754" ht="15.75" customHeight="1">
-      <c r="B754" s="9"/>
+      <c r="B754" s="12"/>
     </row>
     <row r="755" ht="15.75" customHeight="1">
-      <c r="B755" s="9"/>
+      <c r="B755" s="12"/>
     </row>
     <row r="756" ht="15.75" customHeight="1">
-      <c r="B756" s="9"/>
+      <c r="B756" s="12"/>
     </row>
     <row r="757" ht="15.75" customHeight="1">
-      <c r="B757" s="9"/>
+      <c r="B757" s="12"/>
     </row>
     <row r="758" ht="15.75" customHeight="1">
-      <c r="B758" s="9"/>
+      <c r="B758" s="12"/>
     </row>
     <row r="759" ht="15.75" customHeight="1">
-      <c r="B759" s="9"/>
+      <c r="B759" s="12"/>
     </row>
     <row r="760" ht="15.75" customHeight="1">
-      <c r="B760" s="9"/>
+      <c r="B760" s="12"/>
     </row>
     <row r="761" ht="15.75" customHeight="1">
-      <c r="B761" s="9"/>
+      <c r="B761" s="12"/>
     </row>
     <row r="762" ht="15.75" customHeight="1">
-      <c r="B762" s="9"/>
+      <c r="B762" s="12"/>
     </row>
     <row r="763" ht="15.75" customHeight="1">
-      <c r="B763" s="9"/>
+      <c r="B763" s="12"/>
     </row>
     <row r="764" ht="15.75" customHeight="1">
-      <c r="B764" s="9"/>
+      <c r="B764" s="12"/>
     </row>
     <row r="765" ht="15.75" customHeight="1">
-      <c r="B765" s="9"/>
+      <c r="B765" s="12"/>
     </row>
     <row r="766" ht="15.75" customHeight="1">
-      <c r="B766" s="9"/>
+      <c r="B766" s="12"/>
     </row>
     <row r="767" ht="15.75" customHeight="1">
-      <c r="B767" s="9"/>
+      <c r="B767" s="12"/>
     </row>
     <row r="768" ht="15.75" customHeight="1">
-      <c r="B768" s="9"/>
+      <c r="B768" s="12"/>
     </row>
     <row r="769" ht="15.75" customHeight="1">
-      <c r="B769" s="9"/>
+      <c r="B769" s="12"/>
     </row>
     <row r="770" ht="15.75" customHeight="1">
-      <c r="B770" s="9"/>
+      <c r="B770" s="12"/>
     </row>
     <row r="771" ht="15.75" customHeight="1">
-      <c r="B771" s="9"/>
+      <c r="B771" s="12"/>
     </row>
     <row r="772" ht="15.75" customHeight="1">
-      <c r="B772" s="9"/>
+      <c r="B772" s="12"/>
     </row>
     <row r="773" ht="15.75" customHeight="1">
-      <c r="B773" s="9"/>
+      <c r="B773" s="12"/>
     </row>
     <row r="774" ht="15.75" customHeight="1">
-      <c r="B774" s="9"/>
+      <c r="B774" s="12"/>
     </row>
     <row r="775" ht="15.75" customHeight="1">
-      <c r="B775" s="9"/>
+      <c r="B775" s="12"/>
     </row>
     <row r="776" ht="15.75" customHeight="1">
-      <c r="B776" s="9"/>
+      <c r="B776" s="12"/>
     </row>
     <row r="777" ht="15.75" customHeight="1">
-      <c r="B777" s="9"/>
+      <c r="B777" s="12"/>
     </row>
     <row r="778" ht="15.75" customHeight="1">
-      <c r="B778" s="9"/>
+      <c r="B778" s="12"/>
     </row>
     <row r="779" ht="15.75" customHeight="1">
-      <c r="B779" s="9"/>
+      <c r="B779" s="12"/>
     </row>
     <row r="780" ht="15.75" customHeight="1">
-      <c r="B780" s="9"/>
+      <c r="B780" s="12"/>
     </row>
     <row r="781" ht="15.75" customHeight="1">
-      <c r="B781" s="9"/>
+      <c r="B781" s="12"/>
     </row>
     <row r="782" ht="15.75" customHeight="1">
-      <c r="B782" s="9"/>
+      <c r="B782" s="12"/>
     </row>
     <row r="783" ht="15.75" customHeight="1">
-      <c r="B783" s="9"/>
+      <c r="B783" s="12"/>
     </row>
     <row r="784" ht="15.75" customHeight="1">
-      <c r="B784" s="9"/>
+      <c r="B784" s="12"/>
     </row>
     <row r="785" ht="15.75" customHeight="1">
-      <c r="B785" s="9"/>
+      <c r="B785" s="12"/>
     </row>
     <row r="786" ht="15.75" customHeight="1">
-      <c r="B786" s="9"/>
+      <c r="B786" s="12"/>
     </row>
     <row r="787" ht="15.75" customHeight="1">
-      <c r="B787" s="9"/>
+      <c r="B787" s="12"/>
     </row>
     <row r="788" ht="15.75" customHeight="1">
-      <c r="B788" s="9"/>
+      <c r="B788" s="12"/>
     </row>
     <row r="789" ht="15.75" customHeight="1">
-      <c r="B789" s="9"/>
+      <c r="B789" s="12"/>
     </row>
     <row r="790" ht="15.75" customHeight="1">
-      <c r="B790" s="9"/>
+      <c r="B790" s="12"/>
     </row>
     <row r="791" ht="15.75" customHeight="1">
-      <c r="B791" s="9"/>
+      <c r="B791" s="12"/>
     </row>
     <row r="792" ht="15.75" customHeight="1">
-      <c r="B792" s="9"/>
+      <c r="B792" s="12"/>
     </row>
     <row r="793" ht="15.75" customHeight="1">
-      <c r="B793" s="9"/>
+      <c r="B793" s="12"/>
     </row>
     <row r="794" ht="15.75" customHeight="1">
-      <c r="B794" s="9"/>
+      <c r="B794" s="12"/>
     </row>
     <row r="795" ht="15.75" customHeight="1">
-      <c r="B795" s="9"/>
+      <c r="B795" s="12"/>
     </row>
     <row r="796" ht="15.75" customHeight="1">
-      <c r="B796" s="9"/>
+      <c r="B796" s="12"/>
     </row>
     <row r="797" ht="15.75" customHeight="1">
-      <c r="B797" s="9"/>
+      <c r="B797" s="12"/>
     </row>
     <row r="798" ht="15.75" customHeight="1">
-      <c r="B798" s="9"/>
+      <c r="B798" s="12"/>
     </row>
     <row r="799" ht="15.75" customHeight="1">
-      <c r="B799" s="9"/>
+      <c r="B799" s="12"/>
     </row>
     <row r="800" ht="15.75" customHeight="1">
-      <c r="B800" s="9"/>
+      <c r="B800" s="12"/>
     </row>
     <row r="801" ht="15.75" customHeight="1">
-      <c r="B801" s="9"/>
+      <c r="B801" s="12"/>
     </row>
     <row r="802" ht="15.75" customHeight="1">
-      <c r="B802" s="9"/>
+      <c r="B802" s="12"/>
     </row>
     <row r="803" ht="15.75" customHeight="1">
-      <c r="B803" s="9"/>
+      <c r="B803" s="12"/>
     </row>
     <row r="804" ht="15.75" customHeight="1">
-      <c r="B804" s="9"/>
+      <c r="B804" s="12"/>
     </row>
     <row r="805" ht="15.75" customHeight="1">
-      <c r="B805" s="9"/>
+      <c r="B805" s="12"/>
     </row>
     <row r="806" ht="15.75" customHeight="1">
-      <c r="B806" s="9"/>
+      <c r="B806" s="12"/>
     </row>
     <row r="807" ht="15.75" customHeight="1">
-      <c r="B807" s="9"/>
+      <c r="B807" s="12"/>
     </row>
     <row r="808" ht="15.75" customHeight="1">
-      <c r="B808" s="9"/>
+      <c r="B808" s="12"/>
     </row>
     <row r="809" ht="15.75" customHeight="1">
-      <c r="B809" s="9"/>
+      <c r="B809" s="12"/>
     </row>
     <row r="810" ht="15.75" customHeight="1">
-      <c r="B810" s="9"/>
+      <c r="B810" s="12"/>
     </row>
     <row r="811" ht="15.75" customHeight="1">
-      <c r="B811" s="9"/>
+      <c r="B811" s="12"/>
     </row>
     <row r="812" ht="15.75" customHeight="1">
-      <c r="B812" s="9"/>
+      <c r="B812" s="12"/>
     </row>
     <row r="813" ht="15.75" customHeight="1">
-      <c r="B813" s="9"/>
+      <c r="B813" s="12"/>
     </row>
     <row r="814" ht="15.75" customHeight="1">
-      <c r="B814" s="9"/>
+      <c r="B814" s="12"/>
     </row>
     <row r="815" ht="15.75" customHeight="1">
-      <c r="B815" s="9"/>
+      <c r="B815" s="12"/>
     </row>
     <row r="816" ht="15.75" customHeight="1">
-      <c r="B816" s="9"/>
+      <c r="B816" s="12"/>
     </row>
     <row r="817" ht="15.75" customHeight="1">
-      <c r="B817" s="9"/>
+      <c r="B817" s="12"/>
     </row>
     <row r="818" ht="15.75" customHeight="1">
-      <c r="B818" s="9"/>
+      <c r="B818" s="12"/>
     </row>
     <row r="819" ht="15.75" customHeight="1">
-      <c r="B819" s="9"/>
+      <c r="B819" s="12"/>
     </row>
     <row r="820" ht="15.75" customHeight="1">
-      <c r="B820" s="9"/>
+      <c r="B820" s="12"/>
     </row>
     <row r="821" ht="15.75" customHeight="1">
-      <c r="B821" s="9"/>
+      <c r="B821" s="12"/>
     </row>
     <row r="822" ht="15.75" customHeight="1">
-      <c r="B822" s="9"/>
+      <c r="B822" s="12"/>
     </row>
     <row r="823" ht="15.75" customHeight="1">
-      <c r="B823" s="9"/>
+      <c r="B823" s="12"/>
     </row>
     <row r="824" ht="15.75" customHeight="1">
-      <c r="B824" s="9"/>
+      <c r="B824" s="12"/>
     </row>
     <row r="825" ht="15.75" customHeight="1">
-      <c r="B825" s="9"/>
+      <c r="B825" s="12"/>
     </row>
     <row r="826" ht="15.75" customHeight="1">
-      <c r="B826" s="9"/>
+      <c r="B826" s="12"/>
     </row>
     <row r="827" ht="15.75" customHeight="1">
-      <c r="B827" s="9"/>
+      <c r="B827" s="12"/>
     </row>
     <row r="828" ht="15.75" customHeight="1">
-      <c r="B828" s="9"/>
+      <c r="B828" s="12"/>
     </row>
     <row r="829" ht="15.75" customHeight="1">
-      <c r="B829" s="9"/>
+      <c r="B829" s="12"/>
     </row>
     <row r="830" ht="15.75" customHeight="1">
-      <c r="B830" s="9"/>
+      <c r="B830" s="12"/>
     </row>
     <row r="831" ht="15.75" customHeight="1">
-      <c r="B831" s="9"/>
+      <c r="B831" s="12"/>
     </row>
     <row r="832" ht="15.75" customHeight="1">
-      <c r="B832" s="9"/>
+      <c r="B832" s="12"/>
     </row>
     <row r="833" ht="15.75" customHeight="1">
-      <c r="B833" s="9"/>
+      <c r="B833" s="12"/>
     </row>
     <row r="834" ht="15.75" customHeight="1">
-      <c r="B834" s="9"/>
+      <c r="B834" s="12"/>
     </row>
     <row r="835" ht="15.75" customHeight="1">
-      <c r="B835" s="9"/>
+      <c r="B835" s="12"/>
     </row>
     <row r="836" ht="15.75" customHeight="1">
-      <c r="B836" s="9"/>
+      <c r="B836" s="12"/>
     </row>
     <row r="837" ht="15.75" customHeight="1">
-      <c r="B837" s="9"/>
+      <c r="B837" s="12"/>
     </row>
     <row r="838" ht="15.75" customHeight="1">
-      <c r="B838" s="9"/>
+      <c r="B838" s="12"/>
     </row>
     <row r="839" ht="15.75" customHeight="1">
-      <c r="B839" s="9"/>
+      <c r="B839" s="12"/>
     </row>
     <row r="840" ht="15.75" customHeight="1">
-      <c r="B840" s="9"/>
+      <c r="B840" s="12"/>
     </row>
     <row r="841" ht="15.75" customHeight="1">
-      <c r="B841" s="9"/>
+      <c r="B841" s="12"/>
     </row>
     <row r="842" ht="15.75" customHeight="1">
-      <c r="B842" s="9"/>
+      <c r="B842" s="12"/>
     </row>
     <row r="843" ht="15.75" customHeight="1">
-      <c r="B843" s="9"/>
+      <c r="B843" s="12"/>
     </row>
     <row r="844" ht="15.75" customHeight="1">
-      <c r="B844" s="9"/>
+      <c r="B844" s="12"/>
     </row>
     <row r="845" ht="15.75" customHeight="1">
-      <c r="B845" s="9"/>
+      <c r="B845" s="12"/>
     </row>
     <row r="846" ht="15.75" customHeight="1">
-      <c r="B846" s="9"/>
+      <c r="B846" s="12"/>
     </row>
     <row r="847" ht="15.75" customHeight="1">
-      <c r="B847" s="9"/>
+      <c r="B847" s="12"/>
     </row>
     <row r="848" ht="15.75" customHeight="1">
-      <c r="B848" s="9"/>
+      <c r="B848" s="12"/>
     </row>
     <row r="849" ht="15.75" customHeight="1">
-      <c r="B849" s="9"/>
+      <c r="B849" s="12"/>
     </row>
     <row r="850" ht="15.75" customHeight="1">
-      <c r="B850" s="9"/>
+      <c r="B850" s="12"/>
     </row>
     <row r="851" ht="15.75" customHeight="1">
-      <c r="B851" s="9"/>
+      <c r="B851" s="12"/>
     </row>
     <row r="852" ht="15.75" customHeight="1">
-      <c r="B852" s="9"/>
+      <c r="B852" s="12"/>
     </row>
     <row r="853" ht="15.75" customHeight="1">
-      <c r="B853" s="9"/>
+      <c r="B853" s="12"/>
     </row>
     <row r="854" ht="15.75" customHeight="1">
-      <c r="B854" s="9"/>
+      <c r="B854" s="12"/>
     </row>
     <row r="855" ht="15.75" customHeight="1">
-      <c r="B855" s="9"/>
+      <c r="B855" s="12"/>
     </row>
     <row r="856" ht="15.75" customHeight="1">
-      <c r="B856" s="9"/>
+      <c r="B856" s="12"/>
     </row>
     <row r="857" ht="15.75" customHeight="1">
-      <c r="B857" s="9"/>
+      <c r="B857" s="12"/>
     </row>
     <row r="858" ht="15.75" customHeight="1">
-      <c r="B858" s="9"/>
+      <c r="B858" s="12"/>
     </row>
     <row r="859" ht="15.75" customHeight="1">
-      <c r="B859" s="9"/>
+      <c r="B859" s="12"/>
     </row>
     <row r="860" ht="15.75" customHeight="1">
-      <c r="B860" s="9"/>
+      <c r="B860" s="12"/>
     </row>
     <row r="861" ht="15.75" customHeight="1">
-      <c r="B861" s="9"/>
+      <c r="B861" s="12"/>
     </row>
     <row r="862" ht="15.75" customHeight="1">
-      <c r="B862" s="9"/>
+      <c r="B862" s="12"/>
     </row>
     <row r="863" ht="15.75" customHeight="1">
-      <c r="B863" s="9"/>
+      <c r="B863" s="12"/>
     </row>
     <row r="864" ht="15.75" customHeight="1">
-      <c r="B864" s="9"/>
+      <c r="B864" s="12"/>
     </row>
     <row r="865" ht="15.75" customHeight="1">
-      <c r="B865" s="9"/>
+      <c r="B865" s="12"/>
     </row>
     <row r="866" ht="15.75" customHeight="1">
-      <c r="B866" s="9"/>
+      <c r="B866" s="12"/>
     </row>
     <row r="867" ht="15.75" customHeight="1">
-      <c r="B867" s="9"/>
+      <c r="B867" s="12"/>
     </row>
     <row r="868" ht="15.75" customHeight="1">
-      <c r="B868" s="9"/>
+      <c r="B868" s="12"/>
     </row>
     <row r="869" ht="15.75" customHeight="1">
-      <c r="B869" s="9"/>
+      <c r="B869" s="12"/>
     </row>
     <row r="870" ht="15.75" customHeight="1">
-      <c r="B870" s="9"/>
+      <c r="B870" s="12"/>
     </row>
     <row r="871" ht="15.75" customHeight="1">
-      <c r="B871" s="9"/>
+      <c r="B871" s="12"/>
     </row>
     <row r="872" ht="15.75" customHeight="1">
-      <c r="B872" s="9"/>
+      <c r="B872" s="12"/>
     </row>
     <row r="873" ht="15.75" customHeight="1">
-      <c r="B873" s="9"/>
+      <c r="B873" s="12"/>
     </row>
     <row r="874" ht="15.75" customHeight="1">
-      <c r="B874" s="9"/>
+      <c r="B874" s="12"/>
     </row>
     <row r="875" ht="15.75" customHeight="1">
-      <c r="B875" s="9"/>
+      <c r="B875" s="12"/>
     </row>
     <row r="876" ht="15.75" customHeight="1">
-      <c r="B876" s="9"/>
+      <c r="B876" s="12"/>
     </row>
     <row r="877" ht="15.75" customHeight="1">
-      <c r="B877" s="9"/>
+      <c r="B877" s="12"/>
     </row>
     <row r="878" ht="15.75" customHeight="1">
-      <c r="B878" s="9"/>
+      <c r="B878" s="12"/>
     </row>
     <row r="879" ht="15.75" customHeight="1">
-      <c r="B879" s="9"/>
+      <c r="B879" s="12"/>
     </row>
     <row r="880" ht="15.75" customHeight="1">
-      <c r="B880" s="9"/>
+      <c r="B880" s="12"/>
     </row>
     <row r="881" ht="15.75" customHeight="1">
-      <c r="B881" s="9"/>
+      <c r="B881" s="12"/>
     </row>
     <row r="882" ht="15.75" customHeight="1">
-      <c r="B882" s="9"/>
+      <c r="B882" s="12"/>
     </row>
     <row r="883" ht="15.75" customHeight="1">
-      <c r="B883" s="9"/>
+      <c r="B883" s="12"/>
     </row>
     <row r="884" ht="15.75" customHeight="1">
-      <c r="B884" s="9"/>
+      <c r="B884" s="12"/>
     </row>
     <row r="885" ht="15.75" customHeight="1">
-      <c r="B885" s="9"/>
+      <c r="B885" s="12"/>
     </row>
     <row r="886" ht="15.75" customHeight="1">
-      <c r="B886" s="9"/>
+      <c r="B886" s="12"/>
     </row>
     <row r="887" ht="15.75" customHeight="1">
-      <c r="B887" s="9"/>
+      <c r="B887" s="12"/>
     </row>
     <row r="888" ht="15.75" customHeight="1">
-      <c r="B888" s="9"/>
+      <c r="B888" s="12"/>
     </row>
     <row r="889" ht="15.75" customHeight="1">
-      <c r="B889" s="9"/>
+      <c r="B889" s="12"/>
     </row>
     <row r="890" ht="15.75" customHeight="1">
-      <c r="B890" s="9"/>
+      <c r="B890" s="12"/>
     </row>
     <row r="891" ht="15.75" customHeight="1">
-      <c r="B891" s="9"/>
+      <c r="B891" s="12"/>
     </row>
     <row r="892" ht="15.75" customHeight="1">
-      <c r="B892" s="9"/>
+      <c r="B892" s="12"/>
     </row>
     <row r="893" ht="15.75" customHeight="1">
-      <c r="B893" s="9"/>
+      <c r="B893" s="12"/>
     </row>
     <row r="894" ht="15.75" customHeight="1">
-      <c r="B894" s="9"/>
+      <c r="B894" s="12"/>
     </row>
     <row r="895" ht="15.75" customHeight="1">
-      <c r="B895" s="9"/>
+      <c r="B895" s="12"/>
     </row>
     <row r="896" ht="15.75" customHeight="1">
-      <c r="B896" s="9"/>
+      <c r="B896" s="12"/>
     </row>
     <row r="897" ht="15.75" customHeight="1">
-      <c r="B897" s="9"/>
+      <c r="B897" s="12"/>
     </row>
     <row r="898" ht="15.75" customHeight="1">
-      <c r="B898" s="9"/>
+      <c r="B898" s="12"/>
     </row>
     <row r="899" ht="15.75" customHeight="1">
-      <c r="B899" s="9"/>
+      <c r="B899" s="12"/>
     </row>
     <row r="900" ht="15.75" customHeight="1">
-      <c r="B900" s="9"/>
+      <c r="B900" s="12"/>
     </row>
     <row r="901" ht="15.75" customHeight="1">
-      <c r="B901" s="9"/>
+      <c r="B901" s="12"/>
     </row>
     <row r="902" ht="15.75" customHeight="1">
-      <c r="B902" s="9"/>
+      <c r="B902" s="12"/>
     </row>
     <row r="903" ht="15.75" customHeight="1">
-      <c r="B903" s="9"/>
+      <c r="B903" s="12"/>
     </row>
     <row r="904" ht="15.75" customHeight="1">
-      <c r="B904" s="9"/>
+      <c r="B904" s="12"/>
     </row>
     <row r="905" ht="15.75" customHeight="1">
-      <c r="B905" s="9"/>
+      <c r="B905" s="12"/>
     </row>
     <row r="906" ht="15.75" customHeight="1">
-      <c r="B906" s="9"/>
+      <c r="B906" s="12"/>
     </row>
     <row r="907" ht="15.75" customHeight="1">
-      <c r="B907" s="9"/>
+      <c r="B907" s="12"/>
     </row>
     <row r="908" ht="15.75" customHeight="1">
-      <c r="B908" s="9"/>
+      <c r="B908" s="12"/>
     </row>
     <row r="909" ht="15.75" customHeight="1">
-      <c r="B909" s="9"/>
+      <c r="B909" s="12"/>
     </row>
     <row r="910" ht="15.75" customHeight="1">
-      <c r="B910" s="9"/>
+      <c r="B910" s="12"/>
     </row>
     <row r="911" ht="15.75" customHeight="1">
-      <c r="B911" s="9"/>
+      <c r="B911" s="12"/>
     </row>
     <row r="912" ht="15.75" customHeight="1">
-      <c r="B912" s="9"/>
+      <c r="B912" s="12"/>
     </row>
     <row r="913" ht="15.75" customHeight="1">
-      <c r="B913" s="9"/>
+      <c r="B913" s="12"/>
     </row>
     <row r="914" ht="15.75" customHeight="1">
-      <c r="B914" s="9"/>
+      <c r="B914" s="12"/>
     </row>
     <row r="915" ht="15.75" customHeight="1">
-      <c r="B915" s="9"/>
+      <c r="B915" s="12"/>
     </row>
     <row r="916" ht="15.75" customHeight="1">
-      <c r="B916" s="9"/>
+      <c r="B916" s="12"/>
     </row>
     <row r="917" ht="15.75" customHeight="1">
-      <c r="B917" s="9"/>
+      <c r="B917" s="12"/>
     </row>
     <row r="918" ht="15.75" customHeight="1">
-      <c r="B918" s="9"/>
+      <c r="B918" s="12"/>
     </row>
     <row r="919" ht="15.75" customHeight="1">
-      <c r="B919" s="9"/>
+      <c r="B919" s="12"/>
     </row>
     <row r="920" ht="15.75" customHeight="1">
-      <c r="B920" s="9"/>
+      <c r="B920" s="12"/>
     </row>
     <row r="921" ht="15.75" customHeight="1">
-      <c r="B921" s="9"/>
+      <c r="B921" s="12"/>
     </row>
     <row r="922" ht="15.75" customHeight="1">
-      <c r="B922" s="9"/>
+      <c r="B922" s="12"/>
     </row>
     <row r="923" ht="15.75" customHeight="1">
-      <c r="B923" s="9"/>
+      <c r="B923" s="12"/>
     </row>
     <row r="924" ht="15.75" customHeight="1">
-      <c r="B924" s="9"/>
+      <c r="B924" s="12"/>
     </row>
     <row r="925" ht="15.75" customHeight="1">
-      <c r="B925" s="9"/>
+      <c r="B925" s="12"/>
     </row>
     <row r="926" ht="15.75" customHeight="1">
-      <c r="B926" s="9"/>
+      <c r="B926" s="12"/>
     </row>
     <row r="927" ht="15.75" customHeight="1">
-      <c r="B927" s="9"/>
+      <c r="B927" s="12"/>
     </row>
     <row r="928" ht="15.75" customHeight="1">
-      <c r="B928" s="9"/>
+      <c r="B928" s="12"/>
     </row>
     <row r="929" ht="15.75" customHeight="1">
-      <c r="B929" s="9"/>
+      <c r="B929" s="12"/>
     </row>
     <row r="930" ht="15.75" customHeight="1">
-      <c r="B930" s="9"/>
+      <c r="B930" s="12"/>
     </row>
     <row r="931" ht="15.75" customHeight="1">
-      <c r="B931" s="9"/>
+      <c r="B931" s="12"/>
     </row>
     <row r="932" ht="15.75" customHeight="1">
-      <c r="B932" s="9"/>
+      <c r="B932" s="12"/>
     </row>
     <row r="933" ht="15.75" customHeight="1">
-      <c r="B933" s="9"/>
+      <c r="B933" s="12"/>
     </row>
     <row r="934" ht="15.75" customHeight="1">
-      <c r="B934" s="9"/>
+      <c r="B934" s="12"/>
     </row>
     <row r="935" ht="15.75" customHeight="1">
-      <c r="B935" s="9"/>
+      <c r="B935" s="12"/>
     </row>
     <row r="936" ht="15.75" customHeight="1">
-      <c r="B936" s="9"/>
+      <c r="B936" s="12"/>
     </row>
     <row r="937" ht="15.75" customHeight="1">
-      <c r="B937" s="9"/>
+      <c r="B937" s="12"/>
     </row>
     <row r="938" ht="15.75" customHeight="1">
-      <c r="B938" s="9"/>
+      <c r="B938" s="12"/>
     </row>
     <row r="939" ht="15.75" customHeight="1">
-      <c r="B939" s="9"/>
+      <c r="B939" s="12"/>
     </row>
     <row r="940" ht="15.75" customHeight="1">
-      <c r="B940" s="9"/>
+      <c r="B940" s="12"/>
     </row>
     <row r="941" ht="15.75" customHeight="1">
-      <c r="B941" s="9"/>
+      <c r="B941" s="12"/>
     </row>
     <row r="942" ht="15.75" customHeight="1">
-      <c r="B942" s="9"/>
+      <c r="B942" s="12"/>
     </row>
     <row r="943" ht="15.75" customHeight="1">
-      <c r="B943" s="9"/>
+      <c r="B943" s="12"/>
     </row>
     <row r="944" ht="15.75" customHeight="1">
-      <c r="B944" s="9"/>
+      <c r="B944" s="12"/>
     </row>
     <row r="945" ht="15.75" customHeight="1">
-      <c r="B945" s="9"/>
+      <c r="B945" s="12"/>
     </row>
     <row r="946" ht="15.75" customHeight="1">
-      <c r="B946" s="9"/>
+      <c r="B946" s="12"/>
     </row>
     <row r="947" ht="15.75" customHeight="1">
-      <c r="B947" s="9"/>
+      <c r="B947" s="12"/>
     </row>
     <row r="948" ht="15.75" customHeight="1">
-      <c r="B948" s="9"/>
+      <c r="B948" s="12"/>
     </row>
     <row r="949" ht="15.75" customHeight="1">
-      <c r="B949" s="9"/>
+      <c r="B949" s="12"/>
     </row>
     <row r="950" ht="15.75" customHeight="1">
-      <c r="B950" s="9"/>
+      <c r="B950" s="12"/>
     </row>
     <row r="951" ht="15.75" customHeight="1">
-      <c r="B951" s="9"/>
+      <c r="B951" s="12"/>
     </row>
     <row r="952" ht="15.75" customHeight="1">
-      <c r="B952" s="9"/>
+      <c r="B952" s="12"/>
     </row>
     <row r="953" ht="15.75" customHeight="1">
-      <c r="B953" s="9"/>
+      <c r="B953" s="12"/>
     </row>
     <row r="954" ht="15.75" customHeight="1">
-      <c r="B954" s="9"/>
+      <c r="B954" s="12"/>
     </row>
     <row r="955" ht="15.75" customHeight="1">
-      <c r="B955" s="9"/>
+      <c r="B955" s="12"/>
     </row>
     <row r="956" ht="15.75" customHeight="1">
-      <c r="B956" s="9"/>
+      <c r="B956" s="12"/>
     </row>
     <row r="957" ht="15.75" customHeight="1">
-      <c r="B957" s="9"/>
+      <c r="B957" s="12"/>
     </row>
     <row r="958" ht="15.75" customHeight="1">
-      <c r="B958" s="9"/>
+      <c r="B958" s="12"/>
     </row>
     <row r="959" ht="15.75" customHeight="1">
-      <c r="B959" s="9"/>
+      <c r="B959" s="12"/>
     </row>
     <row r="960" ht="15.75" customHeight="1">
-      <c r="B960" s="9"/>
+      <c r="B960" s="12"/>
     </row>
     <row r="961" ht="15.75" customHeight="1">
-      <c r="B961" s="9"/>
+      <c r="B961" s="12"/>
     </row>
     <row r="962" ht="15.75" customHeight="1">
-      <c r="B962" s="9"/>
+      <c r="B962" s="12"/>
     </row>
     <row r="963" ht="15.75" customHeight="1">
-      <c r="B963" s="9"/>
+      <c r="B963" s="12"/>
     </row>
     <row r="964" ht="15.75" customHeight="1">
-      <c r="B964" s="9"/>
+      <c r="B964" s="12"/>
     </row>
     <row r="965" ht="15.75" customHeight="1">
-      <c r="B965" s="9"/>
+      <c r="B965" s="12"/>
     </row>
     <row r="966" ht="15.75" customHeight="1">
-      <c r="B966" s="9"/>
+      <c r="B966" s="12"/>
     </row>
     <row r="967" ht="15.75" customHeight="1">
-      <c r="B967" s="9"/>
+      <c r="B967" s="12"/>
     </row>
     <row r="968" ht="15.75" customHeight="1">
-      <c r="B968" s="9"/>
+      <c r="B968" s="12"/>
     </row>
     <row r="969" ht="15.75" customHeight="1">
-      <c r="B969" s="9"/>
+      <c r="B969" s="12"/>
     </row>
     <row r="970" ht="15.75" customHeight="1">
-      <c r="B970" s="9"/>
+      <c r="B970" s="12"/>
     </row>
     <row r="971" ht="15.75" customHeight="1">
-      <c r="B971" s="9"/>
+      <c r="B971" s="12"/>
     </row>
     <row r="972" ht="15.75" customHeight="1">
-      <c r="B972" s="9"/>
+      <c r="B972" s="12"/>
     </row>
     <row r="973" ht="15.75" customHeight="1">
-      <c r="B973" s="9"/>
+      <c r="B973" s="12"/>
     </row>
     <row r="974" ht="15.75" customHeight="1">
-      <c r="B974" s="9"/>
+      <c r="B974" s="12"/>
     </row>
     <row r="975" ht="15.75" customHeight="1">
-      <c r="B975" s="9"/>
+      <c r="B975" s="12"/>
     </row>
     <row r="976" ht="15.75" customHeight="1">
-      <c r="B976" s="9"/>
+      <c r="B976" s="12"/>
     </row>
     <row r="977" ht="15.75" customHeight="1">
-      <c r="B977" s="9"/>
+      <c r="B977" s="12"/>
     </row>
     <row r="978" ht="15.75" customHeight="1">
-      <c r="B978" s="9"/>
+      <c r="B978" s="12"/>
     </row>
     <row r="979" ht="15.75" customHeight="1">
-      <c r="B979" s="9"/>
+      <c r="B979" s="12"/>
     </row>
     <row r="980" ht="15.75" customHeight="1">
-      <c r="B980" s="9"/>
+      <c r="B980" s="12"/>
     </row>
     <row r="981" ht="15.75" customHeight="1">
-      <c r="B981" s="9"/>
+      <c r="B981" s="12"/>
     </row>
     <row r="982" ht="15.75" customHeight="1">
-      <c r="B982" s="9"/>
+      <c r="B982" s="12"/>
     </row>
     <row r="983" ht="15.75" customHeight="1">
-      <c r="B983" s="9"/>
+      <c r="B983" s="12"/>
     </row>
     <row r="984" ht="15.75" customHeight="1">
-      <c r="B984" s="9"/>
+      <c r="B984" s="12"/>
     </row>
     <row r="985" ht="15.75" customHeight="1">
-      <c r="B985" s="9"/>
+      <c r="B985" s="12"/>
     </row>
     <row r="986" ht="15.75" customHeight="1">
-      <c r="B986" s="9"/>
+      <c r="B986" s="12"/>
     </row>
     <row r="987" ht="15.75" customHeight="1">
-      <c r="B987" s="9"/>
+      <c r="B987" s="12"/>
     </row>
     <row r="988" ht="15.75" customHeight="1">
-      <c r="B988" s="9"/>
+      <c r="B988" s="12"/>
     </row>
     <row r="989" ht="15.75" customHeight="1">
-      <c r="B989" s="9"/>
+      <c r="B989" s="12"/>
     </row>
     <row r="990" ht="15.75" customHeight="1">
-      <c r="B990" s="9"/>
+      <c r="B990" s="12"/>
     </row>
     <row r="991" ht="15.75" customHeight="1">
-      <c r="B991" s="9"/>
+      <c r="B991" s="12"/>
     </row>
     <row r="992" ht="15.75" customHeight="1">
-      <c r="B992" s="9"/>
+      <c r="B992" s="12"/>
     </row>
     <row r="993" ht="15.75" customHeight="1">
-      <c r="B993" s="9"/>
+      <c r="B993" s="12"/>
     </row>
     <row r="994" ht="15.75" customHeight="1">
-      <c r="B994" s="9"/>
+      <c r="B994" s="12"/>
     </row>
     <row r="995" ht="15.75" customHeight="1">
-      <c r="B995" s="9"/>
+      <c r="B995" s="12"/>
     </row>
     <row r="996" ht="15.75" customHeight="1">
-      <c r="B996" s="9"/>
+      <c r="B996" s="12"/>
     </row>
     <row r="997" ht="15.75" customHeight="1">
-      <c r="B997" s="9"/>
+      <c r="B997" s="12"/>
     </row>
     <row r="998" ht="15.75" customHeight="1">
-      <c r="B998" s="9"/>
+      <c r="B998" s="12"/>
     </row>
     <row r="999" ht="15.75" customHeight="1">
-      <c r="B999" s="9"/>
+      <c r="B999" s="12"/>
     </row>
     <row r="1000" ht="15.75" customHeight="1">
-      <c r="B1000" s="9"/>
+      <c r="B1000" s="12"/>
+    </row>
+    <row r="1001" ht="15.75" customHeight="1">
+      <c r="B1001" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$41">
-    <sortState ref="A1:D41">
-      <sortCondition descending="1" ref="B1:B41"/>
+  <autoFilter ref="$A$1:$D$42">
+    <sortState ref="A1:D42">
+      <sortCondition descending="1" ref="B1:B42"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D4"/>
-    <hyperlink r:id="rId2" ref="D6"/>
-    <hyperlink r:id="rId3" ref="D32"/>
-    <hyperlink r:id="rId4" ref="D33"/>
-    <hyperlink r:id="rId5" ref="D34"/>
-    <hyperlink r:id="rId6" ref="D35"/>
-    <hyperlink r:id="rId7" ref="D36"/>
-    <hyperlink r:id="rId8" ref="D37"/>
-    <hyperlink r:id="rId9" ref="D38"/>
-    <hyperlink r:id="rId10" ref="D39"/>
-    <hyperlink r:id="rId11" ref="D40"/>
-    <hyperlink r:id="rId12" ref="D41"/>
+    <hyperlink r:id="rId1" ref="D2"/>
+    <hyperlink r:id="rId2" ref="C3"/>
+    <hyperlink r:id="rId3" ref="D5"/>
+    <hyperlink r:id="rId4" ref="D7"/>
+    <hyperlink r:id="rId5" ref="D33"/>
+    <hyperlink r:id="rId6" ref="D34"/>
+    <hyperlink r:id="rId7" ref="D35"/>
+    <hyperlink r:id="rId8" ref="D36"/>
+    <hyperlink r:id="rId9" ref="D37"/>
+    <hyperlink r:id="rId10" ref="D38"/>
+    <hyperlink r:id="rId11" ref="D39"/>
+    <hyperlink r:id="rId12" ref="D40"/>
+    <hyperlink r:id="rId13" ref="D41"/>
+    <hyperlink r:id="rId14" ref="D42"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId13"/>
+  <drawing r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -4182,28 +4233,32 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="10.56"/>
+    <col customWidth="1" min="1" max="1" width="20.89"/>
+    <col customWidth="1" min="2" max="26" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>115</v>
+      <c r="A2" s="5" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12" t="s">
-        <v>116</v>
+      <c r="A3" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>117</v>
+      <c r="A4" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>118</v>
+      <c r="A5" s="5" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>
@@ -5203,7 +5258,7 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3"/>
+    <hyperlink r:id="rId1" ref="B3"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>

--- a/_data/test_timeline.xlsx
+++ b/_data/test_timeline.xlsx
@@ -7,19 +7,19 @@
     <sheet state="visible" name="instructions" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">timeline!$A$1:$D$42</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">timeline!$A$1:$D$44</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mji8uKB+lkou8Du9ohNqFvpfikqjQ=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miGG9RoZ+pvdx21x4z1lHUbd7LIxg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
   <si>
     <t>title</t>
   </si>
@@ -31,6 +31,24 @@
   </si>
   <si>
     <t>image_link</t>
+  </si>
+  <si>
+    <t>Brunch @ Our Daily Bread!</t>
+  </si>
+  <si>
+    <t>Before our friends left we grabbed brunch at Our Daily Bread in Blacksburg. Belgian waffles are one of my favorite breakfast dishes. (Jason's car also got towed :P)</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/1jCQ9V3BK1NFVzqUYb_x8nloi3F32rHMKNWLXvL8U-ueSb4KrAx1YMXr7r3thEViO51pbhrPZIG0MA5JbPyT9Noq8zUDtFtewko4a7wKJecZhl6zaOAH05WbIWvvyqkqKhu4AgVtyPg=w2400</t>
+  </si>
+  <si>
+    <t>Dragon's Tooth Hike!</t>
+  </si>
+  <si>
+    <t>Armon, Huy and Jason came down to Blacksburg and hiked Dragon's Tooth with us! We also grabbed some food from Cedars Lebanese Restaurant in Blacksburg and played a game of Risk!</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/cisMM2owDzeFuN3a-x0HRQ5uX3CLDEf5i71rFaovCW7tnHFCs6kNd5R0gRuQVqMqOpvLJLtAtNT5KCeuF1A9CqI-Ww5q2gky4yYF8T9xcVYSLht15n4z46SloNeEV3veKRAT-SLj-do=w2400</t>
   </si>
   <si>
     <t>Matcha Mug!</t>
@@ -431,12 +449,12 @@
       <color theme="1"/>
     </font>
     <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <u/>
@@ -501,7 +519,7 @@
     <xf borderId="0" fillId="0" fontId="7" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -757,12 +775,12 @@
         <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>44203.0</v>
-      </c>
-      <c r="C2" s="5" t="s">
+        <v>44206.0</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -770,88 +788,88 @@
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="4">
+        <v>44205.0</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="15.75" customHeight="1">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>44203.0</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="1">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7">
         <v>44202.0</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="9">
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="9">
         <v>44198.0</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="9">
+      <c r="C6" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="15.75" customHeight="1">
+      <c r="A7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="9">
         <v>44197.0</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="10">
+      <c r="C7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="10">
         <v>44196.0</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9">
+      <c r="C8" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" ht="15.75" customHeight="1">
+      <c r="A9" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9">
         <v>44193.0</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="12">
-        <v>44180.0</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="12">
-        <v>44180.0</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -860,7 +878,7 @@
         <v>25</v>
       </c>
       <c r="B10" s="12">
-        <v>44179.0</v>
+        <v>44180.0</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>26</v>
@@ -874,7 +892,7 @@
         <v>28</v>
       </c>
       <c r="B11" s="12">
-        <v>44178.0</v>
+        <v>44180.0</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>29</v>
@@ -888,7 +906,7 @@
         <v>31</v>
       </c>
       <c r="B12" s="12">
-        <v>44168.0</v>
+        <v>44179.0</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>32</v>
@@ -902,7 +920,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="12">
-        <v>44161.0</v>
+        <v>44178.0</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>35</v>
@@ -916,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="B14" s="12">
-        <v>44154.0</v>
+        <v>44168.0</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>38</v>
@@ -930,7 +948,7 @@
         <v>40</v>
       </c>
       <c r="B15" s="12">
-        <v>44148.0</v>
+        <v>44161.0</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>41</v>
@@ -941,38 +959,38 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B16" s="12">
-        <v>44148.0</v>
+        <v>44154.0</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="12">
-        <v>44134.0</v>
+        <v>44148.0</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B18" s="12">
-        <v>44120.0</v>
+        <v>44148.0</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>49</v>
@@ -986,7 +1004,7 @@
         <v>51</v>
       </c>
       <c r="B19" s="12">
-        <v>44101.0</v>
+        <v>44134.0</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>52</v>
@@ -1000,7 +1018,7 @@
         <v>54</v>
       </c>
       <c r="B20" s="12">
-        <v>44099.0</v>
+        <v>44120.0</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>55</v>
@@ -1014,7 +1032,7 @@
         <v>57</v>
       </c>
       <c r="B21" s="12">
-        <v>44087.0</v>
+        <v>44101.0</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>58</v>
@@ -1028,7 +1046,7 @@
         <v>60</v>
       </c>
       <c r="B22" s="12">
-        <v>44079.0</v>
+        <v>44099.0</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>61</v>
@@ -1042,7 +1060,7 @@
         <v>63</v>
       </c>
       <c r="B23" s="12">
-        <v>44073.0</v>
+        <v>44087.0</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>64</v>
@@ -1056,7 +1074,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="12">
-        <v>44069.0</v>
+        <v>44079.0</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>67</v>
@@ -1070,7 +1088,7 @@
         <v>69</v>
       </c>
       <c r="B25" s="12">
-        <v>44057.0</v>
+        <v>44073.0</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>70</v>
@@ -1084,7 +1102,7 @@
         <v>72</v>
       </c>
       <c r="B26" s="12">
-        <v>44035.0</v>
+        <v>44069.0</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>73</v>
@@ -1098,7 +1116,7 @@
         <v>75</v>
       </c>
       <c r="B27" s="12">
-        <v>44011.0</v>
+        <v>44057.0</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>76</v>
@@ -1112,7 +1130,7 @@
         <v>78</v>
       </c>
       <c r="B28" s="12">
-        <v>44010.0</v>
+        <v>44035.0</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>79</v>
@@ -1126,7 +1144,7 @@
         <v>81</v>
       </c>
       <c r="B29" s="12">
-        <v>44009.0</v>
+        <v>44011.0</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>82</v>
@@ -1140,7 +1158,7 @@
         <v>84</v>
       </c>
       <c r="B30" s="12">
-        <v>44009.0</v>
+        <v>44010.0</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>85</v>
@@ -1151,177 +1169,199 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B31" s="12">
         <v>44009.0</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B32" s="12">
+        <v>44009.0</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="12">
+        <v>44009.0</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" s="12">
         <v>43982.0</v>
       </c>
-      <c r="C32" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="9">
+      <c r="C34" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="9">
         <v>43903.0</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="9">
-        <v>43841.0</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="9">
-        <v>43841.0</v>
-      </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="6" t="s">
+      <c r="D35" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="5" t="s">
-        <v>97</v>
+      <c r="A36" s="6" t="s">
+        <v>100</v>
       </c>
       <c r="B36" s="9">
         <v>43841.0</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>100</v>
+      <c r="C36" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="5" t="s">
-        <v>101</v>
+      <c r="A37" s="6" t="s">
+        <v>103</v>
       </c>
       <c r="B37" s="9">
+        <v>43841.0</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B38" s="9">
+        <v>43841.0</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="9">
         <v>43840.0</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B38" s="9">
+      <c r="C39" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="B40" s="9">
         <v>43830.0</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="9">
+      <c r="C40" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41" s="9">
         <v>43830.0</v>
       </c>
-      <c r="C39" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="B40" s="9">
+      <c r="C41" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="9">
         <v>43826.0</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B41" s="9">
+      <c r="C42" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="9">
         <v>43826.0</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="42" ht="15.75" customHeight="1">
-      <c r="A42" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="B42" s="9">
+      <c r="C43" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" s="9">
         <v>43665.0</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" ht="15.75" customHeight="1">
-      <c r="B43" s="12"/>
-    </row>
-    <row r="44" ht="15.75" customHeight="1">
-      <c r="B44" s="12"/>
+      <c r="C44" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="B45" s="12"/>
@@ -4194,19 +4234,25 @@
     <row r="1001" ht="15.75" customHeight="1">
       <c r="B1001" s="12"/>
     </row>
+    <row r="1002" ht="15.75" customHeight="1">
+      <c r="B1002" s="12"/>
+    </row>
+    <row r="1003" ht="15.75" customHeight="1">
+      <c r="B1003" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$42">
-    <sortState ref="A1:D42">
-      <sortCondition descending="1" ref="B1:B42"/>
+  <autoFilter ref="$A$1:$D$44">
+    <sortState ref="A1:D44">
+      <sortCondition descending="1" ref="B1:B44"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="D5"/>
-    <hyperlink r:id="rId4" ref="D7"/>
-    <hyperlink r:id="rId5" ref="D33"/>
-    <hyperlink r:id="rId6" ref="D34"/>
+    <hyperlink r:id="rId2" ref="D3"/>
+    <hyperlink r:id="rId3" ref="D4"/>
+    <hyperlink r:id="rId4" ref="C5"/>
+    <hyperlink r:id="rId5" ref="D7"/>
+    <hyperlink r:id="rId6" ref="D9"/>
     <hyperlink r:id="rId7" ref="D35"/>
     <hyperlink r:id="rId8" ref="D36"/>
     <hyperlink r:id="rId9" ref="D37"/>
@@ -4215,11 +4261,13 @@
     <hyperlink r:id="rId12" ref="D40"/>
     <hyperlink r:id="rId13" ref="D41"/>
     <hyperlink r:id="rId14" ref="D42"/>
+    <hyperlink r:id="rId15" ref="D43"/>
+    <hyperlink r:id="rId16" ref="D44"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -4239,26 +4287,26 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="5" t="s">
-        <v>119</v>
+      <c r="A2" s="6" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>122</v>
+      <c r="A4" s="6" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>123</v>
+      <c r="A5" s="6" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="6" ht="15.75" customHeight="1"/>

--- a/_data/test_timeline.xlsx
+++ b/_data/test_timeline.xlsx
@@ -7,19 +7,19 @@
     <sheet state="visible" name="instructions" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">timeline!$A$1:$D$44</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">timeline!$A$1:$D$46</definedName>
   </definedNames>
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7miGG9RoZ+pvdx21x4z1lHUbd7LIxg=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataSignature="AMtx7mjHe5Co3mhbiUGGteswnzCn8We+zg=="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
   <si>
     <t>title</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/cisMM2owDzeFuN3a-x0HRQ5uX3CLDEf5i71rFaovCW7tnHFCs6kNd5R0gRuQVqMqOpvLJLtAtNT5KCeuF1A9CqI-Ww5q2gky4yYF8T9xcVYSLht15n4z46SloNeEV3veKRAT-SLj-do=w2400</t>
+  </si>
+  <si>
+    <t>Matcha and Mango's Snow Day</t>
+  </si>
+  <si>
+    <t>Matcha and Mango experience snow for the first time! It didn't end well for Matcha...</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/8YET7RhCaAwfpsKNXSFkA3duCF-rFIMq2hr0ge_tVyNzvxQXD7BZIdBhD_ecxjGcYdZ3oiHPAlb1t9Nrva0P5rKbNymtbiJ9qnY2UtyhCuZtPvqKgmdVhdMRh635SCoIZLxSPH2cSt4=w2400</t>
   </si>
   <si>
     <t>Matcha Mug!</t>
@@ -78,6 +87,18 @@
     </r>
   </si>
   <si>
+    <t>https://lh3.googleusercontent.com/flDbs39jwiU9QfYDw8TXF7roAHfz9X3M3f4rp81Mdy1qaAAIeyG0jyGZVVcul1s3YX7T_qw2ihbxtw_ZlKDFWSh6AQr7Vl22NSF8YiHFwgBb56GwI7XUGohJt3ghKFlkxo1eJtM41wc=w2400</t>
+  </si>
+  <si>
+    <t>Nothing new today.</t>
+  </si>
+  <si>
+    <t>But Mango was looking crazy.</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/Ob4MtYyPT2MpHh4qWL_UzHyHrhLAjaRrM0sRhHN7hLzoSWvNU1n_1gIKR3cmZXPSq99L8yYb_is8n6w4lJAVisDqqKuEi2w2P4NRfyfwQpxZMSrAsnw2QKKOVez_eUhOPTU7cfhhntU=w2400</t>
+  </si>
+  <si>
     <t>Heritage Community Park and Natural Area</t>
   </si>
   <si>
@@ -421,6 +442,24 @@
   </si>
   <si>
     <t>Insert on the timeline sheet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Check </t>
+    </r>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>oshears.github.io/timeline</t>
+    </r>
+    <r>
+      <t xml:space="preserve"> in 5 minutes</t>
+    </r>
+  </si>
+  <si>
+    <t>oshears.github.io/timeline</t>
   </si>
 </sst>
 </file>
@@ -803,9 +842,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="4">
-        <v>44203.0</v>
-      </c>
-      <c r="C4" s="6" t="s">
+        <v>44204.0</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -816,481 +855,484 @@
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7">
-        <v>44202.0</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="4">
+        <v>44203.0</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
+      <c r="D5" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="9">
-        <v>44198.0</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="A6" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B6" s="7">
+        <v>44201.0</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="9">
-        <v>44197.0</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>18</v>
+      <c r="A7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="7">
+        <v>44200.0</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="10">
-        <v>44196.0</v>
+        <v>22</v>
+      </c>
+      <c r="B8" s="9">
+        <v>44198.0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="9">
+        <v>44197.0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" ht="15.75" customHeight="1">
+      <c r="A10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="10">
+        <v>44196.0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" ht="15.75" customHeight="1">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="9">
         <v>44193.0</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="12">
-        <v>44180.0</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="12">
-        <v>44180.0</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="6" t="s">
         <v>30</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="12">
-        <v>44179.0</v>
+        <v>44180.0</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="12">
-        <v>44178.0</v>
+        <v>44180.0</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B14" s="12">
-        <v>44168.0</v>
+        <v>44179.0</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B15" s="12">
-        <v>44161.0</v>
+        <v>44178.0</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="12">
-        <v>44154.0</v>
+        <v>44168.0</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B17" s="12">
-        <v>44148.0</v>
+        <v>44161.0</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D17" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B18" s="12">
-        <v>44148.0</v>
+        <v>44154.0</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="12">
-        <v>44134.0</v>
+        <v>44148.0</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20" s="12">
-        <v>44120.0</v>
+        <v>44148.0</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B21" s="12">
-        <v>44101.0</v>
+        <v>44134.0</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" s="12">
-        <v>44099.0</v>
+        <v>44120.0</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B23" s="12">
-        <v>44087.0</v>
+        <v>44101.0</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B24" s="12">
-        <v>44079.0</v>
+        <v>44099.0</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B25" s="12">
-        <v>44073.0</v>
+        <v>44087.0</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B26" s="12">
-        <v>44069.0</v>
+        <v>44079.0</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="11" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B27" s="12">
-        <v>44057.0</v>
+        <v>44073.0</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="11" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" s="12">
-        <v>44035.0</v>
+        <v>44069.0</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B29" s="12">
-        <v>44011.0</v>
+        <v>44057.0</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B30" s="12">
-        <v>44010.0</v>
+        <v>44035.0</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D30" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" s="12">
-        <v>44009.0</v>
+        <v>44011.0</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B32" s="12">
-        <v>44009.0</v>
+        <v>44010.0</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D32" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="11" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B33" s="12">
         <v>44009.0</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="11" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B34" s="12">
+        <v>44009.0</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35" s="12">
+        <v>44009.0</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="D35" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="B36" s="12">
         <v>43982.0</v>
       </c>
-      <c r="C34" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="D34" s="11" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B35" s="9">
-        <v>43903.0</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B36" s="9">
-        <v>43841.0</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="D36" s="5" t="s">
+      <c r="C36" s="11" t="s">
         <v>102</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="6" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B37" s="9">
-        <v>43841.0</v>
+        <v>43903.0</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="6" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B38" s="9">
         <v>43841.0</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="6" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B39" s="9">
-        <v>43840.0</v>
+        <v>43841.0</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
@@ -1298,76 +1340,98 @@
         <v>110</v>
       </c>
       <c r="B40" s="9">
-        <v>43830.0</v>
+        <v>43841.0</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>111</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B41" s="9">
-        <v>43830.0</v>
+        <v>43840.0</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="D41" s="5" t="s">
         <v>115</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B42" s="9">
-        <v>43826.0</v>
+        <v>43830.0</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B43" s="9">
-        <v>43826.0</v>
+        <v>43830.0</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B44" s="9">
+        <v>43826.0</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="9">
+        <v>43826.0</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="9">
         <v>43665.0</v>
       </c>
-      <c r="C44" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="B45" s="12"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="B46" s="12"/>
+      <c r="C46" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="B47" s="12"/>
@@ -4240,34 +4304,43 @@
     <row r="1003" ht="15.75" customHeight="1">
       <c r="B1003" s="12"/>
     </row>
+    <row r="1004" ht="15.75" customHeight="1">
+      <c r="B1004" s="12"/>
+    </row>
+    <row r="1005" ht="15.75" customHeight="1">
+      <c r="B1005" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="$A$1:$D$44">
-    <sortState ref="A1:D44">
-      <sortCondition descending="1" ref="B1:B44"/>
+  <autoFilter ref="$A$1:$D$46">
+    <sortState ref="A1:D46">
+      <sortCondition descending="1" ref="B1:B46"/>
     </sortState>
   </autoFilter>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="D2"/>
     <hyperlink r:id="rId2" ref="D3"/>
     <hyperlink r:id="rId3" ref="D4"/>
-    <hyperlink r:id="rId4" ref="C5"/>
-    <hyperlink r:id="rId5" ref="D7"/>
-    <hyperlink r:id="rId6" ref="D9"/>
-    <hyperlink r:id="rId7" ref="D35"/>
-    <hyperlink r:id="rId8" ref="D36"/>
-    <hyperlink r:id="rId9" ref="D37"/>
-    <hyperlink r:id="rId10" ref="D38"/>
-    <hyperlink r:id="rId11" ref="D39"/>
-    <hyperlink r:id="rId12" ref="D40"/>
-    <hyperlink r:id="rId13" ref="D41"/>
-    <hyperlink r:id="rId14" ref="D42"/>
-    <hyperlink r:id="rId15" ref="D43"/>
-    <hyperlink r:id="rId16" ref="D44"/>
+    <hyperlink r:id="rId4" ref="D5"/>
+    <hyperlink r:id="rId5" ref="C6"/>
+    <hyperlink r:id="rId6" ref="D6"/>
+    <hyperlink r:id="rId7" ref="D7"/>
+    <hyperlink r:id="rId8" ref="D9"/>
+    <hyperlink r:id="rId9" ref="D11"/>
+    <hyperlink r:id="rId10" ref="D37"/>
+    <hyperlink r:id="rId11" ref="D38"/>
+    <hyperlink r:id="rId12" ref="D39"/>
+    <hyperlink r:id="rId13" ref="D40"/>
+    <hyperlink r:id="rId14" ref="D41"/>
+    <hyperlink r:id="rId15" ref="D42"/>
+    <hyperlink r:id="rId16" ref="D43"/>
+    <hyperlink r:id="rId17" ref="D44"/>
+    <hyperlink r:id="rId18" ref="D45"/>
+    <hyperlink r:id="rId19" ref="D46"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId20"/>
 </worksheet>
 </file>
 
@@ -4281,35 +4354,42 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="11.22" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.89"/>
+    <col customWidth="1" min="1" max="1" width="34.0"/>
     <col customWidth="1" min="2" max="26" width="10.56"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" customHeight="1"/>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="6" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="14" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="6" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="6" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="1"/>
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="1">
+      <c r="A6" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="7" ht="15.75" customHeight="1"/>
     <row r="8" ht="15.75" customHeight="1"/>
     <row r="9" ht="15.75" customHeight="1"/>
@@ -5307,10 +5387,12 @@
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B3"/>
+    <hyperlink r:id="rId2" ref="A6"/>
+    <hyperlink r:id="rId3" ref="B6"/>
   </hyperlinks>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId4"/>
 </worksheet>
 </file>